--- a/Planificación del proyecto/EV2, EV3 Equipo 01.xlsx
+++ b/Planificación del proyecto/EV2, EV3 Equipo 01.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="237">
   <si>
     <t>Semana 3</t>
   </si>
@@ -398,21 +398,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>2:30 hs</t>
-  </si>
-  <si>
-    <t>30 min.</t>
-  </si>
-  <si>
-    <t>3:00hs</t>
-  </si>
-  <si>
-    <t>1 hs</t>
-  </si>
-  <si>
-    <t>1 hs.</t>
   </si>
   <si>
     <t>Servicios al usuario</t>
@@ -663,18 +648,6 @@
     <t>Habilitar permisos a usuarios para valorar</t>
   </si>
   <si>
-    <t>9hs.</t>
-  </si>
-  <si>
-    <t>2:30 hs.</t>
-  </si>
-  <si>
-    <t>4 hs.</t>
-  </si>
-  <si>
-    <t>2 hs.</t>
-  </si>
-  <si>
     <t>S4</t>
   </si>
   <si>
@@ -793,6 +766,9 @@
   </si>
   <si>
     <t>Semana 9</t>
+  </si>
+  <si>
+    <t>0,5.</t>
   </si>
 </sst>
 </file>
@@ -1732,10 +1708,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1764,40 +1765,75 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1829,33 +1865,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1864,42 +1873,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1910,11 +1883,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3346,59 +3322,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="100" t="s">
+      <c r="C1" s="112"/>
+      <c r="D1" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="106" t="s">
+      <c r="E1" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="106" t="s">
+      <c r="F1" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="109"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="111" t="s">
+      <c r="I1" s="102"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="109"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="109"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="111" t="s">
+      <c r="L1" s="102"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="102"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="109"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="108" t="s">
+      <c r="R1" s="102"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="109"/>
-      <c r="V1" s="110"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="103"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="101"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
       <c r="H2" s="2">
         <v>44081</v>
       </c>
@@ -3443,17 +3419,17 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="101"/>
+      <c r="A3" s="110"/>
       <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
       <c r="H3" s="19" t="s">
         <v>12</v>
       </c>
@@ -4919,13 +4895,13 @@
       <c r="D36" s="39"/>
       <c r="E36" s="26"/>
       <c r="F36" s="37"/>
-      <c r="G36" s="112"/>
-      <c r="H36" s="112"/>
-      <c r="I36" s="112"/>
-      <c r="J36" s="112"/>
-      <c r="K36" s="112"/>
-      <c r="L36" s="112"/>
-      <c r="M36" s="112"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="96"/>
+      <c r="J36" s="96"/>
+      <c r="K36" s="96"/>
+      <c r="L36" s="96"/>
+      <c r="M36" s="96"/>
       <c r="N36" s="37"/>
       <c r="O36" s="37"/>
       <c r="P36" s="37"/>
@@ -4970,58 +4946,58 @@
       <c r="G38" s="24"/>
     </row>
     <row r="39" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="96"/>
-      <c r="B39" s="96"/>
-      <c r="C39" s="96"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="96"/>
+      <c r="A39" s="105"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
       <c r="F39" s="24"/>
-      <c r="G39" s="97" t="s">
+      <c r="G39" s="106" t="s">
         <v>114</v>
       </c>
-      <c r="H39" s="98"/>
-      <c r="I39" s="98"/>
-      <c r="J39" s="98"/>
-      <c r="K39" s="98"/>
-      <c r="L39" s="98"/>
-      <c r="M39" s="99"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="107"/>
+      <c r="L39" s="107"/>
+      <c r="M39" s="108"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="113"/>
-      <c r="B40" s="114"/>
-      <c r="C40" s="114"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="114"/>
+      <c r="A40" s="99"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
       <c r="F40" s="24"/>
-      <c r="G40" s="112"/>
-      <c r="H40" s="112"/>
-      <c r="I40" s="112"/>
-      <c r="J40" s="112"/>
-      <c r="K40" s="112"/>
-      <c r="L40" s="112"/>
-      <c r="M40" s="112"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="96"/>
+      <c r="K40" s="96"/>
+      <c r="L40" s="96"/>
+      <c r="M40" s="96"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A41" s="113"/>
-      <c r="B41" s="114"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="114"/>
+      <c r="A41" s="99"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
       <c r="F41" s="24"/>
-      <c r="G41" s="112"/>
-      <c r="H41" s="112"/>
-      <c r="I41" s="112"/>
-      <c r="J41" s="112"/>
-      <c r="K41" s="112"/>
-      <c r="L41" s="112"/>
-      <c r="M41" s="112"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96"/>
+      <c r="J41" s="96"/>
+      <c r="K41" s="96"/>
+      <c r="L41" s="96"/>
+      <c r="M41" s="96"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="113"/>
-      <c r="B42" s="114"/>
-      <c r="C42" s="114"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="114"/>
+      <c r="A42" s="99"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
       <c r="F42" s="24"/>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
@@ -5030,29 +5006,29 @@
       <c r="K42" s="22"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="G43" s="112"/>
-      <c r="H43" s="112"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
       <c r="I43" s="22"/>
       <c r="J43" s="22"/>
       <c r="K43" s="22"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="G44" s="112"/>
-      <c r="H44" s="112"/>
-      <c r="I44" s="112"/>
-      <c r="J44" s="112"/>
-      <c r="K44" s="112"/>
-      <c r="L44" s="112"/>
-      <c r="M44" s="112"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="96"/>
+      <c r="J44" s="96"/>
+      <c r="K44" s="96"/>
+      <c r="L44" s="96"/>
+      <c r="M44" s="96"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="G45" s="112"/>
-      <c r="H45" s="112"/>
-      <c r="I45" s="112"/>
-      <c r="J45" s="112"/>
-      <c r="K45" s="112"/>
-      <c r="L45" s="112"/>
-      <c r="M45" s="112"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="96"/>
+      <c r="L45" s="96"/>
+      <c r="M45" s="96"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D47" s="24"/>
@@ -5072,17 +5048,17 @@
         <f>E56-E54</f>
         <v>0</v>
       </c>
-      <c r="I50" s="92" t="s">
+      <c r="I50" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="J50" s="92"/>
-      <c r="K50" s="94"/>
-      <c r="L50" s="95"/>
-      <c r="M50" s="95"/>
-      <c r="N50" s="95"/>
-      <c r="O50" s="95"/>
-      <c r="P50" s="95"/>
-      <c r="Q50" s="95"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="97"/>
+      <c r="L50" s="98"/>
+      <c r="M50" s="98"/>
+      <c r="N50" s="98"/>
+      <c r="O50" s="98"/>
+      <c r="P50" s="98"/>
+      <c r="Q50" s="98"/>
     </row>
     <row r="51" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D51" s="53"/>
@@ -5093,23 +5069,23 @@
         <f>E56-E55</f>
         <v>0</v>
       </c>
-      <c r="I51" s="92" t="s">
+      <c r="I51" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="J51" s="92"/>
-      <c r="K51" s="94"/>
-      <c r="L51" s="95"/>
-      <c r="M51" s="95"/>
-      <c r="N51" s="95"/>
-      <c r="O51" s="95"/>
-      <c r="P51" s="95"/>
-      <c r="Q51" s="95"/>
+      <c r="J51" s="93"/>
+      <c r="K51" s="97"/>
+      <c r="L51" s="98"/>
+      <c r="M51" s="98"/>
+      <c r="N51" s="98"/>
+      <c r="O51" s="98"/>
+      <c r="P51" s="98"/>
+      <c r="Q51" s="98"/>
     </row>
     <row r="52" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="D52" s="115" t="s">
+      <c r="D52" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="E52" s="116"/>
+      <c r="E52" s="95"/>
       <c r="G52" s="32" t="s">
         <v>23</v>
       </c>
@@ -5117,17 +5093,17 @@
         <f>E56/E54</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I52" s="92" t="s">
+      <c r="I52" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="J52" s="92"/>
-      <c r="K52" s="94"/>
-      <c r="L52" s="95"/>
-      <c r="M52" s="95"/>
-      <c r="N52" s="95"/>
-      <c r="O52" s="95"/>
-      <c r="P52" s="95"/>
-      <c r="Q52" s="95"/>
+      <c r="J52" s="93"/>
+      <c r="K52" s="97"/>
+      <c r="L52" s="98"/>
+      <c r="M52" s="98"/>
+      <c r="N52" s="98"/>
+      <c r="O52" s="98"/>
+      <c r="P52" s="98"/>
+      <c r="Q52" s="98"/>
     </row>
     <row r="53" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D53" s="25" t="s">
@@ -5142,17 +5118,17 @@
         <f>E56/E55</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I53" s="92" t="s">
+      <c r="I53" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="J53" s="92"/>
-      <c r="K53" s="94"/>
-      <c r="L53" s="95"/>
-      <c r="M53" s="95"/>
-      <c r="N53" s="95"/>
-      <c r="O53" s="95"/>
-      <c r="P53" s="95"/>
-      <c r="Q53" s="95"/>
+      <c r="J53" s="93"/>
+      <c r="K53" s="97"/>
+      <c r="L53" s="98"/>
+      <c r="M53" s="98"/>
+      <c r="N53" s="98"/>
+      <c r="O53" s="98"/>
+      <c r="P53" s="98"/>
+      <c r="Q53" s="98"/>
       <c r="R53" s="26"/>
       <c r="S53" s="26"/>
     </row>
@@ -5169,17 +5145,17 @@
         <f>E53-E56</f>
         <v>0</v>
       </c>
-      <c r="I54" s="92" t="s">
+      <c r="I54" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="J54" s="92"/>
-      <c r="K54" s="94"/>
-      <c r="L54" s="95"/>
-      <c r="M54" s="95"/>
-      <c r="N54" s="95"/>
-      <c r="O54" s="95"/>
-      <c r="P54" s="95"/>
-      <c r="Q54" s="95"/>
+      <c r="J54" s="93"/>
+      <c r="K54" s="97"/>
+      <c r="L54" s="98"/>
+      <c r="M54" s="98"/>
+      <c r="N54" s="98"/>
+      <c r="O54" s="98"/>
+      <c r="P54" s="98"/>
+      <c r="Q54" s="98"/>
       <c r="R54" s="26"/>
       <c r="S54" s="26"/>
     </row>
@@ -5196,17 +5172,17 @@
         <f>(E53-E56)/(H52*H53)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I55" s="92" t="s">
+      <c r="I55" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="J55" s="92"/>
-      <c r="K55" s="94"/>
-      <c r="L55" s="95"/>
-      <c r="M55" s="95"/>
-      <c r="N55" s="95"/>
-      <c r="O55" s="95"/>
-      <c r="P55" s="95"/>
-      <c r="Q55" s="95"/>
+      <c r="J55" s="93"/>
+      <c r="K55" s="97"/>
+      <c r="L55" s="98"/>
+      <c r="M55" s="98"/>
+      <c r="N55" s="98"/>
+      <c r="O55" s="98"/>
+      <c r="P55" s="98"/>
+      <c r="Q55" s="98"/>
       <c r="R55" s="26"/>
       <c r="S55" s="26"/>
     </row>
@@ -5223,17 +5199,17 @@
         <f>E55+(E53-E56)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="92" t="s">
+      <c r="I56" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="J56" s="92"/>
-      <c r="K56" s="94"/>
-      <c r="L56" s="95"/>
-      <c r="M56" s="95"/>
-      <c r="N56" s="95"/>
-      <c r="O56" s="95"/>
-      <c r="P56" s="95"/>
-      <c r="Q56" s="95"/>
+      <c r="J56" s="93"/>
+      <c r="K56" s="97"/>
+      <c r="L56" s="98"/>
+      <c r="M56" s="98"/>
+      <c r="N56" s="98"/>
+      <c r="O56" s="98"/>
+      <c r="P56" s="98"/>
+      <c r="Q56" s="98"/>
       <c r="R56" s="26"/>
       <c r="S56" s="26"/>
     </row>
@@ -5246,17 +5222,17 @@
         <f>E53/H53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I57" s="92" t="s">
+      <c r="I57" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="J57" s="93"/>
-      <c r="K57" s="94"/>
-      <c r="L57" s="95"/>
-      <c r="M57" s="95"/>
-      <c r="N57" s="95"/>
-      <c r="O57" s="95"/>
-      <c r="P57" s="95"/>
-      <c r="Q57" s="95"/>
+      <c r="J57" s="117"/>
+      <c r="K57" s="97"/>
+      <c r="L57" s="98"/>
+      <c r="M57" s="98"/>
+      <c r="N57" s="98"/>
+      <c r="O57" s="98"/>
+      <c r="P57" s="98"/>
+      <c r="Q57" s="98"/>
       <c r="R57" s="26"/>
       <c r="S57" s="26"/>
     </row>
@@ -5269,17 +5245,17 @@
         <f>E55+(E53-E56)/(H52*H53)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I58" s="92" t="s">
+      <c r="I58" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="J58" s="93"/>
-      <c r="K58" s="94"/>
-      <c r="L58" s="95"/>
-      <c r="M58" s="95"/>
-      <c r="N58" s="95"/>
-      <c r="O58" s="95"/>
-      <c r="P58" s="95"/>
-      <c r="Q58" s="95"/>
+      <c r="J58" s="117"/>
+      <c r="K58" s="97"/>
+      <c r="L58" s="98"/>
+      <c r="M58" s="98"/>
+      <c r="N58" s="98"/>
+      <c r="O58" s="98"/>
+      <c r="P58" s="98"/>
+      <c r="Q58" s="98"/>
       <c r="R58" s="26"/>
       <c r="S58" s="26"/>
     </row>
@@ -5293,17 +5269,17 @@
         <f>(E53-E56)/(E53-E55)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I59" s="92" t="s">
+      <c r="I59" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="J59" s="93"/>
-      <c r="K59" s="94"/>
-      <c r="L59" s="95"/>
-      <c r="M59" s="95"/>
-      <c r="N59" s="95"/>
-      <c r="O59" s="95"/>
-      <c r="P59" s="95"/>
-      <c r="Q59" s="95"/>
+      <c r="J59" s="117"/>
+      <c r="K59" s="97"/>
+      <c r="L59" s="98"/>
+      <c r="M59" s="98"/>
+      <c r="N59" s="98"/>
+      <c r="O59" s="98"/>
+      <c r="P59" s="98"/>
+      <c r="Q59" s="98"/>
       <c r="R59" s="26"/>
       <c r="S59" s="26"/>
     </row>
@@ -5512,25 +5488,20 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G45:M45"/>
-    <mergeCell ref="K50:Q50"/>
-    <mergeCell ref="K51:Q51"/>
-    <mergeCell ref="K52:Q52"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="G40:M40"/>
-    <mergeCell ref="G41:M41"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:M44"/>
-    <mergeCell ref="G36:M36"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:Q55"/>
     <mergeCell ref="A39:E39"/>
     <mergeCell ref="G39:M39"/>
     <mergeCell ref="A1:A3"/>
@@ -5541,20 +5512,25 @@
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:Q53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:Q54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:Q55"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:Q59"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="K56:Q56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:Q57"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:M44"/>
+    <mergeCell ref="G36:M36"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="G40:M40"/>
+    <mergeCell ref="G41:M41"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G45:M45"/>
+    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5581,59 +5557,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="100" t="s">
+      <c r="C1" s="112"/>
+      <c r="D1" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="106" t="s">
+      <c r="E1" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="106" t="s">
+      <c r="F1" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="109"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="111" t="s">
+      <c r="I1" s="102"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="109"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="109"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="111" t="s">
+      <c r="L1" s="102"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="102"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="109"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="108" t="s">
+      <c r="R1" s="102"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="109"/>
-      <c r="V1" s="110"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="103"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="101"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
       <c r="H2" s="2">
         <v>44081</v>
       </c>
@@ -5678,17 +5654,17 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="101"/>
+      <c r="A3" s="110"/>
       <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
       <c r="H3" s="19" t="s">
         <v>12</v>
       </c>
@@ -7928,15 +7904,15 @@
       <c r="D52" s="39"/>
       <c r="E52" s="26"/>
       <c r="F52" s="37"/>
-      <c r="G52" s="97" t="s">
+      <c r="G52" s="106" t="s">
         <v>114</v>
       </c>
-      <c r="H52" s="98"/>
-      <c r="I52" s="98"/>
-      <c r="J52" s="98"/>
-      <c r="K52" s="98"/>
-      <c r="L52" s="98"/>
-      <c r="M52" s="99"/>
+      <c r="H52" s="107"/>
+      <c r="I52" s="107"/>
+      <c r="J52" s="107"/>
+      <c r="K52" s="107"/>
+      <c r="L52" s="107"/>
+      <c r="M52" s="108"/>
       <c r="N52" s="37"/>
       <c r="O52" s="37"/>
       <c r="P52" s="37"/>
@@ -7963,11 +7939,11 @@
       <c r="M53" s="24"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A54" s="96"/>
-      <c r="B54" s="96"/>
-      <c r="C54" s="96"/>
-      <c r="D54" s="96"/>
-      <c r="E54" s="96"/>
+      <c r="A54" s="105"/>
+      <c r="B54" s="105"/>
+      <c r="C54" s="105"/>
+      <c r="D54" s="105"/>
+      <c r="E54" s="105"/>
       <c r="F54" s="24"/>
       <c r="G54" s="73"/>
       <c r="H54" s="73"/>
@@ -7978,11 +7954,11 @@
       <c r="M54" s="73"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A55" s="113"/>
-      <c r="B55" s="114"/>
-      <c r="C55" s="114"/>
-      <c r="D55" s="114"/>
-      <c r="E55" s="114"/>
+      <c r="A55" s="99"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="100"/>
+      <c r="E55" s="100"/>
       <c r="F55" s="24"/>
       <c r="G55" s="73"/>
       <c r="H55" s="73"/>
@@ -7993,11 +7969,11 @@
       <c r="M55" s="73"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A56" s="113"/>
-      <c r="B56" s="114"/>
-      <c r="C56" s="114"/>
-      <c r="D56" s="114"/>
-      <c r="E56" s="114"/>
+      <c r="A56" s="99"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="100"/>
+      <c r="E56" s="100"/>
       <c r="F56" s="24"/>
       <c r="G56" s="73"/>
       <c r="H56" s="73"/>
@@ -8008,11 +7984,11 @@
       <c r="M56" s="73"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A57" s="113"/>
-      <c r="B57" s="114"/>
-      <c r="C57" s="114"/>
-      <c r="D57" s="114"/>
-      <c r="E57" s="114"/>
+      <c r="A57" s="99"/>
+      <c r="B57" s="100"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="100"/>
+      <c r="E57" s="100"/>
       <c r="F57" s="24"/>
       <c r="G57" s="73"/>
       <c r="H57" s="73"/>
@@ -8029,8 +8005,8 @@
       <c r="D58" s="24"/>
       <c r="E58" s="24"/>
       <c r="F58" s="24"/>
-      <c r="G58" s="114"/>
-      <c r="H58" s="114"/>
+      <c r="G58" s="100"/>
+      <c r="H58" s="100"/>
       <c r="I58" s="73"/>
       <c r="J58" s="73"/>
       <c r="K58" s="73"/>
@@ -8115,17 +8091,17 @@
         <f>E71-E69</f>
         <v>0</v>
       </c>
-      <c r="I65" s="92" t="s">
+      <c r="I65" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="J65" s="92"/>
-      <c r="K65" s="94"/>
-      <c r="L65" s="95"/>
-      <c r="M65" s="95"/>
-      <c r="N65" s="95"/>
-      <c r="O65" s="95"/>
-      <c r="P65" s="95"/>
-      <c r="Q65" s="95"/>
+      <c r="J65" s="93"/>
+      <c r="K65" s="97"/>
+      <c r="L65" s="98"/>
+      <c r="M65" s="98"/>
+      <c r="N65" s="98"/>
+      <c r="O65" s="98"/>
+      <c r="P65" s="98"/>
+      <c r="Q65" s="98"/>
     </row>
     <row r="66" spans="4:19" x14ac:dyDescent="0.2">
       <c r="G66" s="30" t="s">
@@ -8135,23 +8111,23 @@
         <f>E71-E70</f>
         <v>1.75</v>
       </c>
-      <c r="I66" s="92" t="s">
+      <c r="I66" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="J66" s="92"/>
-      <c r="K66" s="94"/>
-      <c r="L66" s="95"/>
-      <c r="M66" s="95"/>
-      <c r="N66" s="95"/>
-      <c r="O66" s="95"/>
-      <c r="P66" s="95"/>
-      <c r="Q66" s="95"/>
+      <c r="J66" s="93"/>
+      <c r="K66" s="97"/>
+      <c r="L66" s="98"/>
+      <c r="M66" s="98"/>
+      <c r="N66" s="98"/>
+      <c r="O66" s="98"/>
+      <c r="P66" s="98"/>
+      <c r="Q66" s="98"/>
     </row>
     <row r="67" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="D67" s="115" t="s">
+      <c r="D67" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="E67" s="116"/>
+      <c r="E67" s="95"/>
       <c r="G67" s="30" t="s">
         <v>23</v>
       </c>
@@ -8159,17 +8135,17 @@
         <f>E71/E69</f>
         <v>1</v>
       </c>
-      <c r="I67" s="92" t="s">
+      <c r="I67" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="J67" s="92"/>
-      <c r="K67" s="94"/>
-      <c r="L67" s="95"/>
-      <c r="M67" s="95"/>
-      <c r="N67" s="95"/>
-      <c r="O67" s="95"/>
-      <c r="P67" s="95"/>
-      <c r="Q67" s="95"/>
+      <c r="J67" s="93"/>
+      <c r="K67" s="97"/>
+      <c r="L67" s="98"/>
+      <c r="M67" s="98"/>
+      <c r="N67" s="98"/>
+      <c r="O67" s="98"/>
+      <c r="P67" s="98"/>
+      <c r="Q67" s="98"/>
     </row>
     <row r="68" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D68" s="25" t="s">
@@ -8186,17 +8162,17 @@
         <f>E71/E70</f>
         <v>1.2592592592592593</v>
       </c>
-      <c r="I68" s="92" t="s">
+      <c r="I68" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="J68" s="92"/>
-      <c r="K68" s="94"/>
-      <c r="L68" s="95"/>
-      <c r="M68" s="95"/>
-      <c r="N68" s="95"/>
-      <c r="O68" s="95"/>
-      <c r="P68" s="95"/>
-      <c r="Q68" s="95"/>
+      <c r="J68" s="93"/>
+      <c r="K68" s="97"/>
+      <c r="L68" s="98"/>
+      <c r="M68" s="98"/>
+      <c r="N68" s="98"/>
+      <c r="O68" s="98"/>
+      <c r="P68" s="98"/>
+      <c r="Q68" s="98"/>
       <c r="R68" s="26"/>
       <c r="S68" s="26"/>
     </row>
@@ -8216,17 +8192,17 @@
         <f>E68-E71</f>
         <v>216.5</v>
       </c>
-      <c r="I69" s="92" t="s">
+      <c r="I69" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="J69" s="92"/>
-      <c r="K69" s="94"/>
-      <c r="L69" s="95"/>
-      <c r="M69" s="95"/>
-      <c r="N69" s="95"/>
-      <c r="O69" s="95"/>
-      <c r="P69" s="95"/>
-      <c r="Q69" s="95"/>
+      <c r="J69" s="93"/>
+      <c r="K69" s="97"/>
+      <c r="L69" s="98"/>
+      <c r="M69" s="98"/>
+      <c r="N69" s="98"/>
+      <c r="O69" s="98"/>
+      <c r="P69" s="98"/>
+      <c r="Q69" s="98"/>
       <c r="R69" s="26"/>
       <c r="S69" s="26"/>
     </row>
@@ -8246,17 +8222,17 @@
         <f>(E68-E71)/(H67*H68)</f>
         <v>171.92647058823528</v>
       </c>
-      <c r="I70" s="92" t="s">
+      <c r="I70" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="J70" s="92"/>
-      <c r="K70" s="94"/>
-      <c r="L70" s="95"/>
-      <c r="M70" s="95"/>
-      <c r="N70" s="95"/>
-      <c r="O70" s="95"/>
-      <c r="P70" s="95"/>
-      <c r="Q70" s="95"/>
+      <c r="J70" s="93"/>
+      <c r="K70" s="97"/>
+      <c r="L70" s="98"/>
+      <c r="M70" s="98"/>
+      <c r="N70" s="98"/>
+      <c r="O70" s="98"/>
+      <c r="P70" s="98"/>
+      <c r="Q70" s="98"/>
       <c r="R70" s="26"/>
       <c r="S70" s="26"/>
     </row>
@@ -8276,17 +8252,17 @@
         <f>E70+(E68-E71)</f>
         <v>223.25</v>
       </c>
-      <c r="I71" s="92" t="s">
+      <c r="I71" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="J71" s="92"/>
-      <c r="K71" s="94"/>
-      <c r="L71" s="95"/>
-      <c r="M71" s="95"/>
-      <c r="N71" s="95"/>
-      <c r="O71" s="95"/>
-      <c r="P71" s="95"/>
-      <c r="Q71" s="95"/>
+      <c r="J71" s="93"/>
+      <c r="K71" s="97"/>
+      <c r="L71" s="98"/>
+      <c r="M71" s="98"/>
+      <c r="N71" s="98"/>
+      <c r="O71" s="98"/>
+      <c r="P71" s="98"/>
+      <c r="Q71" s="98"/>
       <c r="R71" s="26"/>
       <c r="S71" s="26"/>
     </row>
@@ -8299,17 +8275,17 @@
         <f>E68/H68</f>
         <v>178.67647058823528</v>
       </c>
-      <c r="I72" s="92" t="s">
+      <c r="I72" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="J72" s="93"/>
-      <c r="K72" s="94"/>
-      <c r="L72" s="95"/>
-      <c r="M72" s="95"/>
-      <c r="N72" s="95"/>
-      <c r="O72" s="95"/>
-      <c r="P72" s="95"/>
-      <c r="Q72" s="95"/>
+      <c r="J72" s="117"/>
+      <c r="K72" s="97"/>
+      <c r="L72" s="98"/>
+      <c r="M72" s="98"/>
+      <c r="N72" s="98"/>
+      <c r="O72" s="98"/>
+      <c r="P72" s="98"/>
+      <c r="Q72" s="98"/>
       <c r="R72" s="26"/>
       <c r="S72" s="26"/>
     </row>
@@ -8323,17 +8299,17 @@
         <f>E70+(E68-E71)/(H67*H68)</f>
         <v>178.67647058823528</v>
       </c>
-      <c r="I73" s="92" t="s">
+      <c r="I73" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="J73" s="93"/>
-      <c r="K73" s="94"/>
-      <c r="L73" s="95"/>
-      <c r="M73" s="95"/>
-      <c r="N73" s="95"/>
-      <c r="O73" s="95"/>
-      <c r="P73" s="95"/>
-      <c r="Q73" s="95"/>
+      <c r="J73" s="117"/>
+      <c r="K73" s="97"/>
+      <c r="L73" s="98"/>
+      <c r="M73" s="98"/>
+      <c r="N73" s="98"/>
+      <c r="O73" s="98"/>
+      <c r="P73" s="98"/>
+      <c r="Q73" s="98"/>
       <c r="R73" s="26"/>
       <c r="S73" s="26"/>
     </row>
@@ -8347,17 +8323,17 @@
         <f>(E68-E71)/(E68-E70)</f>
         <v>0.99198167239404356</v>
       </c>
-      <c r="I74" s="92" t="s">
+      <c r="I74" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="J74" s="93"/>
-      <c r="K74" s="94"/>
-      <c r="L74" s="95"/>
-      <c r="M74" s="95"/>
-      <c r="N74" s="95"/>
-      <c r="O74" s="95"/>
-      <c r="P74" s="95"/>
-      <c r="Q74" s="95"/>
+      <c r="J74" s="117"/>
+      <c r="K74" s="97"/>
+      <c r="L74" s="98"/>
+      <c r="M74" s="98"/>
+      <c r="N74" s="98"/>
+      <c r="O74" s="98"/>
+      <c r="P74" s="98"/>
+      <c r="Q74" s="98"/>
       <c r="R74" s="26"/>
       <c r="S74" s="26"/>
     </row>
@@ -8599,6 +8575,29 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="I69:J69"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A56:E56"/>
     <mergeCell ref="T1:V1"/>
@@ -8614,29 +8613,6 @@
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="G52:M52"/>
-    <mergeCell ref="K69:Q69"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="K65:Q65"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:Q67"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:Q68"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="K73:Q73"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:Q74"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:Q70"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:Q71"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8648,8 +8624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ11" sqref="AJ11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8660,84 +8636,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="100" t="s">
+      <c r="C1" s="112"/>
+      <c r="D1" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="106" t="s">
+      <c r="E1" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="106" t="s">
+      <c r="F1" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="109"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="111" t="s">
+      <c r="I1" s="102"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="109"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="109"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="111" t="s">
+      <c r="L1" s="102"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="102"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="109"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="111" t="s">
-        <v>240</v>
-      </c>
-      <c r="U1" s="109"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="111" t="s">
-        <v>241</v>
-      </c>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="110"/>
-      <c r="Z1" s="111" t="s">
-        <v>242</v>
-      </c>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="110"/>
-      <c r="AC1" s="111" t="s">
-        <v>243</v>
-      </c>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="110"/>
-      <c r="AF1" s="111" t="s">
-        <v>244</v>
-      </c>
-      <c r="AG1" s="109"/>
-      <c r="AH1" s="110"/>
-      <c r="AI1" s="108" t="s">
+      <c r="R1" s="102"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="104" t="s">
+        <v>231</v>
+      </c>
+      <c r="U1" s="102"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="104" t="s">
+        <v>232</v>
+      </c>
+      <c r="X1" s="102"/>
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="104" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA1" s="102"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="104" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD1" s="102"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="104" t="s">
+        <v>235</v>
+      </c>
+      <c r="AG1" s="102"/>
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="AJ1" s="109"/>
-      <c r="AK1" s="110"/>
+      <c r="AJ1" s="102"/>
+      <c r="AK1" s="103"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A2" s="160"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
+      <c r="A2" s="121"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
       <c r="H2" s="2">
         <v>44081</v>
       </c>
@@ -8827,17 +8803,17 @@
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A3" s="160"/>
+      <c r="A3" s="121"/>
       <c r="B3" s="76" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
       <c r="H3" s="19" t="s">
         <v>12</v>
       </c>
@@ -8940,7 +8916,9 @@
         <v>52</v>
       </c>
       <c r="D4" s="77"/>
-      <c r="E4" s="74"/>
+      <c r="E4" s="29">
+        <v>8.5</v>
+      </c>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
       <c r="H4" s="45"/>
@@ -8970,16 +8948,16 @@
       <c r="AF4" s="35"/>
       <c r="AG4" s="35"/>
       <c r="AH4" s="35"/>
-      <c r="AI4" s="161">
-        <f>H4+K4+N4+Q4</f>
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="161">
-        <f>I4+L4+O4+R4</f>
-        <v>0</v>
-      </c>
-      <c r="AK4" s="161">
-        <f>J4+M4+P4+S4</f>
+      <c r="AI4" s="92">
+        <f t="shared" ref="AI4:AI49" si="0">H4+K4+N4+Q4</f>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="92">
+        <f t="shared" ref="AJ4:AJ49" si="1">I4+L4+O4+R4</f>
+        <v>0</v>
+      </c>
+      <c r="AK4" s="92">
+        <f t="shared" ref="AK4:AK49" si="2">J4+M4+P4+S4</f>
         <v>0</v>
       </c>
     </row>
@@ -8994,8 +8972,8 @@
         <v>54</v>
       </c>
       <c r="D5" s="77"/>
-      <c r="E5" s="41" t="s">
-        <v>122</v>
+      <c r="E5" s="41">
+        <v>2.5</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>15</v>
@@ -9030,16 +9008,16 @@
       <c r="AF5" s="35"/>
       <c r="AG5" s="35"/>
       <c r="AH5" s="35"/>
-      <c r="AI5" s="161">
-        <f>H5+K5+N5+Q5</f>
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="161">
-        <f>I5+L5+O5+R5</f>
-        <v>0</v>
-      </c>
-      <c r="AK5" s="161">
-        <f>J5+M5+P5+S5</f>
+      <c r="AI5" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK5" s="92">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9052,8 +9030,8 @@
       <c r="D6" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>123</v>
+      <c r="E6" s="41">
+        <v>0.5</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>15</v>
@@ -9094,16 +9072,16 @@
       <c r="AF6" s="35"/>
       <c r="AG6" s="35"/>
       <c r="AH6" s="35"/>
-      <c r="AI6" s="161">
-        <f>H6+K6+N6+Q6</f>
-        <v>0.5</v>
-      </c>
-      <c r="AJ6" s="161">
-        <f>I6+L6+O6+R6</f>
-        <v>0.5</v>
-      </c>
-      <c r="AK6" s="161">
-        <f>J6+M6+P6+S6</f>
+      <c r="AI6" s="92">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ6" s="92">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK6" s="92">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
@@ -9116,8 +9094,8 @@
       <c r="D7" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="41" t="s">
-        <v>123</v>
+      <c r="E7" s="41">
+        <v>0.5</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>15</v>
@@ -9164,16 +9142,16 @@
       <c r="AF7" s="35"/>
       <c r="AG7" s="35"/>
       <c r="AH7" s="35"/>
-      <c r="AI7" s="161">
-        <f>H7+K7+N7+Q7</f>
-        <v>0.5</v>
-      </c>
-      <c r="AJ7" s="161">
-        <f>I7+L7+O7+R7</f>
-        <v>0.5</v>
-      </c>
-      <c r="AK7" s="161">
-        <f>J7+M7+P7+S7</f>
+      <c r="AI7" s="92">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ7" s="92">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK7" s="92">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
@@ -9186,8 +9164,8 @@
       <c r="D8" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="41" t="s">
-        <v>123</v>
+      <c r="E8" s="41">
+        <v>0.5</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>15</v>
@@ -9228,16 +9206,16 @@
       <c r="AF8" s="35"/>
       <c r="AG8" s="35"/>
       <c r="AH8" s="35"/>
-      <c r="AI8" s="161">
-        <f>H8+K8+N8+Q8</f>
-        <v>0.5</v>
-      </c>
-      <c r="AJ8" s="161">
-        <f>I8+L8+O8+R8</f>
-        <v>0.5</v>
-      </c>
-      <c r="AK8" s="161">
-        <f>J8+M8+P8+S8</f>
+      <c r="AI8" s="92">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ8" s="92">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK8" s="92">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
@@ -9250,8 +9228,8 @@
       <c r="D9" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="41" t="s">
-        <v>123</v>
+      <c r="E9" s="41">
+        <v>0.5</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>15</v>
@@ -9298,16 +9276,16 @@
       <c r="AF9" s="35"/>
       <c r="AG9" s="35"/>
       <c r="AH9" s="35"/>
-      <c r="AI9" s="161">
-        <f>H9+K9+N9+Q9</f>
-        <v>0.5</v>
-      </c>
-      <c r="AJ9" s="161">
-        <f>I9+L9+O9+R9</f>
-        <v>0.5</v>
-      </c>
-      <c r="AK9" s="161">
-        <f>J9+M9+P9+S9</f>
+      <c r="AI9" s="92">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ9" s="92">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK9" s="92">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
@@ -9320,8 +9298,8 @@
       <c r="D10" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="41" t="s">
-        <v>123</v>
+      <c r="E10" s="41">
+        <v>0.5</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>15</v>
@@ -9362,16 +9340,16 @@
       <c r="AF10" s="35"/>
       <c r="AG10" s="35"/>
       <c r="AH10" s="35"/>
-      <c r="AI10" s="161">
-        <f>H10+K10+N10+Q10</f>
-        <v>0.5</v>
-      </c>
-      <c r="AJ10" s="161">
-        <f>I10+L10+O10+R10</f>
-        <v>0.5</v>
-      </c>
-      <c r="AK10" s="161">
-        <f>J10+M10+P10+S10</f>
+      <c r="AI10" s="92">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ10" s="92">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK10" s="92">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
@@ -9386,8 +9364,8 @@
         <v>60</v>
       </c>
       <c r="D11" s="16"/>
-      <c r="E11" s="42" t="s">
-        <v>124</v>
+      <c r="E11" s="42">
+        <v>3</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>15</v>
@@ -9422,16 +9400,16 @@
       <c r="AF11" s="35"/>
       <c r="AG11" s="35"/>
       <c r="AH11" s="35"/>
-      <c r="AI11" s="161">
-        <f>H11+K11+N11+Q11</f>
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="161">
-        <f>I11+L11+O11+R11</f>
-        <v>0</v>
-      </c>
-      <c r="AK11" s="161">
-        <f>J11+M11+P11+S11</f>
+      <c r="AI11" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="92">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9444,8 +9422,8 @@
       <c r="D12" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="41" t="s">
-        <v>125</v>
+      <c r="E12" s="41">
+        <v>1</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>15</v>
@@ -9486,16 +9464,16 @@
       <c r="AF12" s="35"/>
       <c r="AG12" s="35"/>
       <c r="AH12" s="35"/>
-      <c r="AI12" s="161">
-        <f>H12+K12+N12+Q12</f>
+      <c r="AI12" s="92">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ12" s="161">
-        <f>I12+L12+O12+R12</f>
+      <c r="AJ12" s="92">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AK12" s="161">
-        <f>J12+M12+P12+S12</f>
+      <c r="AK12" s="92">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
@@ -9508,8 +9486,8 @@
       <c r="D13" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="41" t="s">
-        <v>123</v>
+      <c r="E13" s="41">
+        <v>0.5</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>15</v>
@@ -9556,16 +9534,16 @@
       <c r="AF13" s="35"/>
       <c r="AG13" s="35"/>
       <c r="AH13" s="35"/>
-      <c r="AI13" s="161">
-        <f>H13+K13+N13+Q13</f>
-        <v>0.5</v>
-      </c>
-      <c r="AJ13" s="161">
-        <f>I13+L13+O13+R13</f>
-        <v>0.5</v>
-      </c>
-      <c r="AK13" s="161">
-        <f>J13+M13+P13+S13</f>
+      <c r="AI13" s="92">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ13" s="92">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK13" s="92">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
@@ -9578,8 +9556,8 @@
       <c r="D14" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="41" t="s">
-        <v>123</v>
+      <c r="E14" s="41">
+        <v>0.5</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>15</v>
@@ -9620,16 +9598,16 @@
       <c r="AF14" s="35"/>
       <c r="AG14" s="35"/>
       <c r="AH14" s="35"/>
-      <c r="AI14" s="161">
-        <f>H14+K14+N14+Q14</f>
-        <v>0.5</v>
-      </c>
-      <c r="AJ14" s="161">
-        <f>I14+L14+O14+R14</f>
-        <v>0.5</v>
-      </c>
-      <c r="AK14" s="161">
-        <f>J14+M14+P14+S14</f>
+      <c r="AI14" s="92">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ14" s="92">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK14" s="92">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
@@ -9642,8 +9620,8 @@
       <c r="D15" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="41" t="s">
-        <v>123</v>
+      <c r="E15" s="41">
+        <v>0.5</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>15</v>
@@ -9690,16 +9668,16 @@
       <c r="AF15" s="35"/>
       <c r="AG15" s="35"/>
       <c r="AH15" s="35"/>
-      <c r="AI15" s="161">
-        <f>H15+K15+N15+Q15</f>
-        <v>0.5</v>
-      </c>
-      <c r="AJ15" s="161">
-        <f>I15+L15+O15+R15</f>
-        <v>0.5</v>
-      </c>
-      <c r="AK15" s="161">
-        <f>J15+M15+P15+S15</f>
+      <c r="AI15" s="92">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ15" s="92">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK15" s="92">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
@@ -9712,8 +9690,8 @@
       <c r="D16" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="41" t="s">
-        <v>123</v>
+      <c r="E16" s="41">
+        <v>0.5</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>15</v>
@@ -9754,16 +9732,16 @@
       <c r="AF16" s="35"/>
       <c r="AG16" s="35"/>
       <c r="AH16" s="35"/>
-      <c r="AI16" s="161">
-        <f>H16+K16+N16+Q16</f>
-        <v>0.5</v>
-      </c>
-      <c r="AJ16" s="161">
-        <f>I16+L16+O16+R16</f>
-        <v>0.5</v>
-      </c>
-      <c r="AK16" s="161">
-        <f>J16+M16+P16+S16</f>
+      <c r="AI16" s="92">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ16" s="92">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK16" s="92">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
@@ -9778,8 +9756,8 @@
         <v>66</v>
       </c>
       <c r="D17" s="16"/>
-      <c r="E17" s="42" t="s">
-        <v>124</v>
+      <c r="E17" s="42">
+        <v>3</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>15</v>
@@ -9814,16 +9792,16 @@
       <c r="AF17" s="35"/>
       <c r="AG17" s="35"/>
       <c r="AH17" s="35"/>
-      <c r="AI17" s="161">
-        <f>H17+K17+N17+Q17</f>
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="161">
-        <f>I17+L17+O17+R17</f>
-        <v>0</v>
-      </c>
-      <c r="AK17" s="161">
-        <f>J17+M17+P17+S17</f>
+      <c r="AI17" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK17" s="92">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9836,8 +9814,8 @@
       <c r="D18" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="41" t="s">
-        <v>125</v>
+      <c r="E18" s="41">
+        <v>1</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>15</v>
@@ -9878,16 +9856,16 @@
       <c r="AF18" s="35"/>
       <c r="AG18" s="35"/>
       <c r="AH18" s="35"/>
-      <c r="AI18" s="161">
-        <f>H18+K18+N18+Q18</f>
+      <c r="AI18" s="92">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ18" s="161">
-        <f>I18+L18+O18+R18</f>
+      <c r="AJ18" s="92">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AK18" s="161">
-        <f>J18+M18+P18+S18</f>
+      <c r="AK18" s="92">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
@@ -9900,8 +9878,8 @@
       <c r="D19" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="41" t="s">
-        <v>123</v>
+      <c r="E19" s="41">
+        <v>0.5</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>15</v>
@@ -9948,16 +9926,16 @@
       <c r="AF19" s="35"/>
       <c r="AG19" s="35"/>
       <c r="AH19" s="35"/>
-      <c r="AI19" s="161">
-        <f>H19+K19+N19+Q19</f>
-        <v>0.5</v>
-      </c>
-      <c r="AJ19" s="161">
-        <f>I19+L19+O19+R19</f>
-        <v>0.5</v>
-      </c>
-      <c r="AK19" s="161">
-        <f>J19+M19+P19+S19</f>
+      <c r="AI19" s="92">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ19" s="92">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK19" s="92">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
@@ -9970,8 +9948,8 @@
       <c r="D20" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="41" t="s">
-        <v>123</v>
+      <c r="E20" s="41">
+        <v>0.5</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>15</v>
@@ -10012,16 +9990,16 @@
       <c r="AF20" s="35"/>
       <c r="AG20" s="35"/>
       <c r="AH20" s="35"/>
-      <c r="AI20" s="161">
-        <f>H20+K20+N20+Q20</f>
-        <v>0.5</v>
-      </c>
-      <c r="AJ20" s="161">
-        <f>I20+L20+O20+R20</f>
-        <v>0.5</v>
-      </c>
-      <c r="AK20" s="161">
-        <f>J20+M20+P20+S20</f>
+      <c r="AI20" s="92">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ20" s="92">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK20" s="92">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
@@ -10034,8 +10012,8 @@
       <c r="D21" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="41" t="s">
-        <v>123</v>
+      <c r="E21" s="41">
+        <v>0.5</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>15</v>
@@ -10082,16 +10060,16 @@
       <c r="AF21" s="35"/>
       <c r="AG21" s="35"/>
       <c r="AH21" s="35"/>
-      <c r="AI21" s="161">
-        <f>H21+K21+N21+Q21</f>
-        <v>0.5</v>
-      </c>
-      <c r="AJ21" s="161">
-        <f>I21+L21+O21+R21</f>
-        <v>0.5</v>
-      </c>
-      <c r="AK21" s="161">
-        <f>J21+M21+P21+S21</f>
+      <c r="AI21" s="92">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ21" s="92">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK21" s="92">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
@@ -10104,8 +10082,8 @@
       <c r="D22" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="41" t="s">
-        <v>123</v>
+      <c r="E22" s="41">
+        <v>0.5</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>15</v>
@@ -10146,16 +10124,16 @@
       <c r="AF22" s="35"/>
       <c r="AG22" s="35"/>
       <c r="AH22" s="35"/>
-      <c r="AI22" s="161">
-        <f>H22+K22+N22+Q22</f>
-        <v>0.5</v>
-      </c>
-      <c r="AJ22" s="161">
-        <f>I22+L22+O22+R22</f>
-        <v>0.5</v>
-      </c>
-      <c r="AK22" s="161">
-        <f>J22+M22+P22+S22</f>
+      <c r="AI22" s="92">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ22" s="92">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK22" s="92">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
@@ -10206,16 +10184,16 @@
       <c r="AF23" s="35"/>
       <c r="AG23" s="35"/>
       <c r="AH23" s="35"/>
-      <c r="AI23" s="161">
-        <f>H23+K23+N23+Q23</f>
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="161">
-        <f>I23+L23+O23+R23</f>
-        <v>0</v>
-      </c>
-      <c r="AK23" s="161">
-        <f>J23+M23+P23+S23</f>
+      <c r="AI23" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK23" s="92">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10230,8 +10208,8 @@
         <v>76</v>
       </c>
       <c r="D24" s="16"/>
-      <c r="E24" s="43" t="s">
-        <v>123</v>
+      <c r="E24" s="43">
+        <v>0.5</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>15</v>
@@ -10266,16 +10244,16 @@
       <c r="AF24" s="35"/>
       <c r="AG24" s="35"/>
       <c r="AH24" s="35"/>
-      <c r="AI24" s="161">
-        <f>H24+K24+N24+Q24</f>
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="161">
-        <f>I24+L24+O24+R24</f>
-        <v>0</v>
-      </c>
-      <c r="AK24" s="161">
-        <f>J24+M24+P24+S24</f>
+      <c r="AI24" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK24" s="92">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10289,7 +10267,7 @@
         <v>85</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>123</v>
+        <v>236</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>15</v>
@@ -10330,16 +10308,16 @@
       <c r="AF25" s="35"/>
       <c r="AG25" s="35"/>
       <c r="AH25" s="35"/>
-      <c r="AI25" s="161">
-        <f>H25+K25+N25+Q25</f>
-        <v>0.5</v>
-      </c>
-      <c r="AJ25" s="161">
-        <f>I25+L25+O25+R25</f>
-        <v>0.5</v>
-      </c>
-      <c r="AK25" s="161">
-        <f>J25+M25+P25+S25</f>
+      <c r="AI25" s="92">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ25" s="92">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK25" s="92">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10354,8 +10332,8 @@
         <v>79</v>
       </c>
       <c r="D26" s="16"/>
-      <c r="E26" s="43" t="s">
-        <v>125</v>
+      <c r="E26" s="43">
+        <v>1</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>15</v>
@@ -10390,16 +10368,16 @@
       <c r="AF26" s="35"/>
       <c r="AG26" s="35"/>
       <c r="AH26" s="35"/>
-      <c r="AI26" s="161">
-        <f>H26+K26+N26+Q26</f>
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="161">
-        <f>I26+L26+O26+R26</f>
-        <v>0</v>
-      </c>
-      <c r="AK26" s="161">
-        <f>J26+M26+P26+S26</f>
+      <c r="AI26" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK26" s="92">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10412,8 +10390,8 @@
       <c r="D27" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="41" t="s">
-        <v>123</v>
+      <c r="E27" s="41">
+        <v>0.5</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>15</v>
@@ -10454,16 +10432,16 @@
       <c r="AF27" s="35"/>
       <c r="AG27" s="35"/>
       <c r="AH27" s="35"/>
-      <c r="AI27" s="161">
-        <f>H27+K27+N27+Q27</f>
-        <v>0.5</v>
-      </c>
-      <c r="AJ27" s="161">
-        <f>I27+L27+O27+R27</f>
-        <v>0.5</v>
-      </c>
-      <c r="AK27" s="161">
-        <f>J27+M27+P27+S27</f>
+      <c r="AI27" s="92">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ27" s="92">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK27" s="92">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
@@ -10476,8 +10454,8 @@
       <c r="D28" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="41" t="s">
-        <v>123</v>
+      <c r="E28" s="41">
+        <v>0.5</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>15</v>
@@ -10518,16 +10496,16 @@
       <c r="AF28" s="35"/>
       <c r="AG28" s="35"/>
       <c r="AH28" s="35"/>
-      <c r="AI28" s="161">
-        <f>H28+K28+N28+Q28</f>
-        <v>0.5</v>
-      </c>
-      <c r="AJ28" s="161">
-        <f>I28+L28+O28+R28</f>
-        <v>0.5</v>
-      </c>
-      <c r="AK28" s="161">
-        <f>J28+M28+P28+S28</f>
+      <c r="AI28" s="92">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ28" s="92">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK28" s="92">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
@@ -10542,8 +10520,8 @@
         <v>81</v>
       </c>
       <c r="D29" s="16"/>
-      <c r="E29" s="41" t="s">
-        <v>126</v>
+      <c r="E29" s="41">
+        <v>1</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>15</v>
@@ -10578,16 +10556,16 @@
       <c r="AF29" s="35"/>
       <c r="AG29" s="35"/>
       <c r="AH29" s="35"/>
-      <c r="AI29" s="161">
-        <f>H29+K29+N29+Q29</f>
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="161">
-        <f>I29+L29+O29+R29</f>
-        <v>0</v>
-      </c>
-      <c r="AK29" s="161">
-        <f>J29+M29+P29+S29</f>
+      <c r="AI29" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK29" s="92">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10600,8 +10578,8 @@
       <c r="D30" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="41" t="s">
-        <v>126</v>
+      <c r="E30" s="41">
+        <v>1</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>15</v>
@@ -10642,16 +10620,16 @@
       <c r="AF30" s="35"/>
       <c r="AG30" s="35"/>
       <c r="AH30" s="35"/>
-      <c r="AI30" s="161">
-        <f>H30+K30+N30+Q30</f>
+      <c r="AI30" s="92">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ30" s="161">
-        <f>I30+L30+O30+R30</f>
+      <c r="AJ30" s="92">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AK30" s="161">
-        <f>J30+M30+P30+S30</f>
+      <c r="AK30" s="92">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10666,8 +10644,8 @@
         <v>84</v>
       </c>
       <c r="D31" s="16"/>
-      <c r="E31" s="41" t="s">
-        <v>123</v>
+      <c r="E31" s="41">
+        <v>0.5</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>15</v>
@@ -10702,16 +10680,16 @@
       <c r="AF31" s="35"/>
       <c r="AG31" s="35"/>
       <c r="AH31" s="35"/>
-      <c r="AI31" s="161">
-        <f>H31+K31+N31+Q31</f>
-        <v>0</v>
-      </c>
-      <c r="AJ31" s="161">
-        <f>I31+L31+O31+R31</f>
-        <v>0</v>
-      </c>
-      <c r="AK31" s="161">
-        <f>J31+M31+P31+S31</f>
+      <c r="AI31" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK31" s="92">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10724,8 +10702,8 @@
       <c r="D32" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E32" s="41" t="s">
-        <v>123</v>
+      <c r="E32" s="41">
+        <v>0.5</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>15</v>
@@ -10766,16 +10744,16 @@
       <c r="AF32" s="35"/>
       <c r="AG32" s="35"/>
       <c r="AH32" s="35"/>
-      <c r="AI32" s="161">
-        <f>H32+K32+N32+Q32</f>
-        <v>0.5</v>
-      </c>
-      <c r="AJ32" s="161">
-        <f>I32+L32+O32+R32</f>
-        <v>0.5</v>
-      </c>
-      <c r="AK32" s="161">
-        <f>J32+M32+P32+S32</f>
+      <c r="AI32" s="92">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ32" s="92">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK32" s="92">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
@@ -10826,16 +10804,16 @@
       <c r="AF33" s="35"/>
       <c r="AG33" s="35"/>
       <c r="AH33" s="35"/>
-      <c r="AI33" s="161">
-        <f>H33+K33+N33+Q33</f>
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="161">
-        <f>I33+L33+O33+R33</f>
-        <v>0</v>
-      </c>
-      <c r="AK33" s="161">
-        <f>J33+M33+P33+S33</f>
+      <c r="AI33" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK33" s="92">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10890,16 +10868,16 @@
       <c r="AF34" s="35"/>
       <c r="AG34" s="35"/>
       <c r="AH34" s="35"/>
-      <c r="AI34" s="161">
-        <f>H34+K34+N34+Q34</f>
-        <v>0.5</v>
-      </c>
-      <c r="AJ34" s="161">
-        <f>I34+L34+O34+R34</f>
-        <v>0.5</v>
-      </c>
-      <c r="AK34" s="161">
-        <f>J34+M34+P34+S34</f>
+      <c r="AI34" s="92">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ34" s="92">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK34" s="92">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -10954,16 +10932,16 @@
       <c r="AF35" s="35"/>
       <c r="AG35" s="35"/>
       <c r="AH35" s="35"/>
-      <c r="AI35" s="161">
-        <f>H35+K35+N35+Q35</f>
-        <v>0.5</v>
-      </c>
-      <c r="AJ35" s="161">
-        <f>I35+L35+O35+R35</f>
-        <v>0.5</v>
-      </c>
-      <c r="AK35" s="161">
-        <f>J35+M35+P35+S35</f>
+      <c r="AI35" s="92">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ35" s="92">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK35" s="92">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -11018,16 +10996,16 @@
       <c r="AF36" s="35"/>
       <c r="AG36" s="35"/>
       <c r="AH36" s="35"/>
-      <c r="AI36" s="161">
-        <f>H36+K36+N36+Q36</f>
-        <v>0.5</v>
-      </c>
-      <c r="AJ36" s="161">
-        <f>I36+L36+O36+R36</f>
-        <v>0.5</v>
-      </c>
-      <c r="AK36" s="161">
-        <f>J36+M36+P36+S36</f>
+      <c r="AI36" s="92">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ36" s="92">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK36" s="92">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
@@ -11078,16 +11056,16 @@
       <c r="AF37" s="35"/>
       <c r="AG37" s="35"/>
       <c r="AH37" s="35"/>
-      <c r="AI37" s="161">
-        <f>H37+K37+N37+Q37</f>
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="161">
-        <f>I37+L37+O37+R37</f>
-        <v>0</v>
-      </c>
-      <c r="AK37" s="161">
-        <f>J37+M37+P37+S37</f>
+      <c r="AI37" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK37" s="92">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11142,16 +11120,16 @@
       <c r="AF38" s="35"/>
       <c r="AG38" s="35"/>
       <c r="AH38" s="35"/>
-      <c r="AI38" s="161">
-        <f>H38+K38+N38+Q38</f>
+      <c r="AI38" s="92">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AJ38" s="161">
-        <f>I38+L38+O38+R38</f>
+      <c r="AJ38" s="92">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AK38" s="161">
-        <f>J38+M38+P38+S38</f>
+      <c r="AK38" s="92">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -11206,16 +11184,16 @@
       <c r="AF39" s="35"/>
       <c r="AG39" s="35"/>
       <c r="AH39" s="35"/>
-      <c r="AI39" s="161">
-        <f>H39+K39+N39+Q39</f>
+      <c r="AI39" s="92">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AJ39" s="161">
-        <f>I39+L39+O39+R39</f>
+      <c r="AJ39" s="92">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AK39" s="161">
-        <f>J39+M39+P39+S39</f>
+      <c r="AK39" s="92">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -11270,16 +11248,16 @@
       <c r="AF40" s="35"/>
       <c r="AG40" s="35"/>
       <c r="AH40" s="35"/>
-      <c r="AI40" s="161">
-        <f>H40+K40+N40+Q40</f>
+      <c r="AI40" s="92">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ40" s="161">
-        <f>I40+L40+O40+R40</f>
+      <c r="AJ40" s="92">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AK40" s="161">
-        <f>J40+M40+P40+S40</f>
+      <c r="AK40" s="92">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -11330,16 +11308,16 @@
       <c r="AF41" s="35"/>
       <c r="AG41" s="35"/>
       <c r="AH41" s="35"/>
-      <c r="AI41" s="161">
-        <f>H41+K41+N41+Q41</f>
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="161">
-        <f>I41+L41+O41+R41</f>
-        <v>0</v>
-      </c>
-      <c r="AK41" s="161">
-        <f>J41+M41+P41+S41</f>
+      <c r="AI41" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK41" s="92">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11390,16 +11368,16 @@
       <c r="AF42" s="35"/>
       <c r="AG42" s="35"/>
       <c r="AH42" s="35"/>
-      <c r="AI42" s="161">
-        <f>H42+K42+N42+Q42</f>
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="161">
-        <f>I42+L42+O42+R42</f>
-        <v>0</v>
-      </c>
-      <c r="AK42" s="161">
-        <f>J42+M42+P42+S42</f>
+      <c r="AI42" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK42" s="92">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11454,16 +11432,16 @@
       <c r="AF43" s="35"/>
       <c r="AG43" s="35"/>
       <c r="AH43" s="35"/>
-      <c r="AI43" s="161">
-        <f>H43+K43+N43+Q43</f>
+      <c r="AI43" s="92">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ43" s="161">
-        <f>I43+L43+O43+R43</f>
+      <c r="AJ43" s="92">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AK43" s="161">
-        <f>J43+M43+P43+S43</f>
+      <c r="AK43" s="92">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -11518,16 +11496,16 @@
       <c r="AF44" s="35"/>
       <c r="AG44" s="35"/>
       <c r="AH44" s="35"/>
-      <c r="AI44" s="161">
-        <f>H44+K44+N44+Q44</f>
+      <c r="AI44" s="92">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ44" s="161">
-        <f>I44+L44+O44+R44</f>
+      <c r="AJ44" s="92">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AK44" s="161">
-        <f>J44+M44+P44+S44</f>
+      <c r="AK44" s="92">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -11578,16 +11556,16 @@
       <c r="AF45" s="35"/>
       <c r="AG45" s="35"/>
       <c r="AH45" s="35"/>
-      <c r="AI45" s="161">
-        <f>H45+K45+N45+Q45</f>
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="161">
-        <f>I45+L45+O45+R45</f>
-        <v>0</v>
-      </c>
-      <c r="AK45" s="161">
-        <f>J45+M45+P45+S45</f>
+      <c r="AI45" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK45" s="92">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11642,16 +11620,16 @@
       <c r="AF46" s="35"/>
       <c r="AG46" s="35"/>
       <c r="AH46" s="35"/>
-      <c r="AI46" s="161">
-        <f>H46+K46+N46+Q46</f>
+      <c r="AI46" s="92">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AJ46" s="161">
-        <f>I46+L46+O46+R46</f>
+      <c r="AJ46" s="92">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AK46" s="161">
-        <f>J46+M46+P46+S46</f>
+      <c r="AK46" s="92">
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
     </row>
@@ -11706,16 +11684,16 @@
       <c r="AF47" s="35"/>
       <c r="AG47" s="35"/>
       <c r="AH47" s="35"/>
-      <c r="AI47" s="161">
-        <f>H47+K47+N47+Q47</f>
+      <c r="AI47" s="92">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ47" s="161">
-        <f>I47+L47+O47+R47</f>
+      <c r="AJ47" s="92">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AK47" s="161">
-        <f>J47+M47+P47+S47</f>
+      <c r="AK47" s="92">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -11727,17 +11705,17 @@
         <v>1.2</v>
       </c>
       <c r="C48" s="50" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D48" s="50"/>
       <c r="E48" s="41">
         <v>4.5</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H48" s="46"/>
       <c r="I48" s="46"/>
@@ -11766,16 +11744,16 @@
       <c r="AF48" s="35"/>
       <c r="AG48" s="35"/>
       <c r="AH48" s="35"/>
-      <c r="AI48" s="161">
-        <f>H48+K48+N48+Q48</f>
-        <v>0</v>
-      </c>
-      <c r="AJ48" s="161">
-        <f>I48+L48+O48+R48</f>
-        <v>0</v>
-      </c>
-      <c r="AK48" s="161">
-        <f>J48+M48+P48+S48</f>
+      <c r="AI48" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK48" s="92">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11784,20 +11762,20 @@
         <v>46</v>
       </c>
       <c r="B49" s="49" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C49" s="50" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D49" s="50"/>
       <c r="E49" s="41">
         <v>4.5</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H49" s="46"/>
       <c r="I49" s="46"/>
@@ -11826,16 +11804,16 @@
       <c r="AF49" s="35"/>
       <c r="AG49" s="35"/>
       <c r="AH49" s="35"/>
-      <c r="AI49" s="161">
-        <f>H49+K49+N49+Q49</f>
-        <v>0</v>
-      </c>
-      <c r="AJ49" s="161">
-        <f>I49+L49+O49+R49</f>
-        <v>0</v>
-      </c>
-      <c r="AK49" s="161">
-        <f>J49+M49+P49+S49</f>
+      <c r="AI49" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK49" s="92">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11846,16 +11824,16 @@
       <c r="B50" s="14"/>
       <c r="C50" s="15"/>
       <c r="D50" s="50" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E50" s="41">
         <v>0.5</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H50" s="46"/>
       <c r="I50" s="46"/>
@@ -11890,15 +11868,15 @@
       <c r="AF50" s="35"/>
       <c r="AG50" s="35"/>
       <c r="AH50" s="35"/>
-      <c r="AI50" s="161">
-        <f>H50+K50+N50+Q50</f>
-        <v>0.5</v>
-      </c>
-      <c r="AJ50" s="161">
-        <f>I50+L50+O50+R50</f>
-        <v>0.5</v>
-      </c>
-      <c r="AK50" s="161" t="e">
+      <c r="AI50" s="92">
+        <f t="shared" ref="AI50:AI77" si="3">H50+K50+N50+Q50</f>
+        <v>0.5</v>
+      </c>
+      <c r="AJ50" s="92">
+        <f t="shared" ref="AJ50:AJ77" si="4">I50+L50+O50+R50</f>
+        <v>0.5</v>
+      </c>
+      <c r="AK50" s="92" t="e">
         <f>P50+M50+#REF!+S50</f>
         <v>#REF!</v>
       </c>
@@ -11910,16 +11888,16 @@
       <c r="B51" s="14"/>
       <c r="C51" s="15"/>
       <c r="D51" s="50" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E51" s="41">
         <v>2</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H51" s="46"/>
       <c r="I51" s="46"/>
@@ -11954,15 +11932,15 @@
       <c r="AF51" s="35"/>
       <c r="AG51" s="35"/>
       <c r="AH51" s="35"/>
-      <c r="AI51" s="161">
-        <f>H51+K51+N51+Q51</f>
+      <c r="AI51" s="92">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AJ51" s="161">
-        <f>I51+L51+O51+R51</f>
+      <c r="AJ51" s="92">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AK51" s="161" t="e">
+      <c r="AK51" s="92" t="e">
         <f>P51+M51+#REF!+S51</f>
         <v>#REF!</v>
       </c>
@@ -11974,16 +11952,16 @@
       <c r="B52" s="14"/>
       <c r="C52" s="15"/>
       <c r="D52" s="50" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E52" s="41">
         <v>2</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H52" s="46"/>
       <c r="I52" s="46"/>
@@ -12016,15 +11994,15 @@
       <c r="AF52" s="35"/>
       <c r="AG52" s="35"/>
       <c r="AH52" s="35"/>
-      <c r="AI52" s="161">
-        <f>H52+K52+N52+Q52</f>
+      <c r="AI52" s="92">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AJ52" s="161">
-        <f>I52+L52+O52+R52</f>
-        <v>0</v>
-      </c>
-      <c r="AK52" s="161" t="e">
+      <c r="AJ52" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK52" s="92" t="e">
         <f>P52+M52+#REF!+S52</f>
         <v>#REF!</v>
       </c>
@@ -12044,10 +12022,10 @@
         <v>2</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H53" s="46"/>
       <c r="I53" s="46"/>
@@ -12076,15 +12054,15 @@
       <c r="AF53" s="35"/>
       <c r="AG53" s="35"/>
       <c r="AH53" s="35"/>
-      <c r="AI53" s="161">
-        <f>H53+K53+N53+Q53</f>
-        <v>0</v>
-      </c>
-      <c r="AJ53" s="161">
-        <f>I53+L53+O53+R53</f>
-        <v>0</v>
-      </c>
-      <c r="AK53" s="161" t="e">
+      <c r="AI53" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK53" s="92" t="e">
         <f>P53+M53+#REF!+S53</f>
         <v>#REF!</v>
       </c>
@@ -12097,17 +12075,17 @@
         <v>78</v>
       </c>
       <c r="C54" s="50" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D54" s="50"/>
       <c r="E54" s="41">
         <v>2</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H54" s="46"/>
       <c r="I54" s="46"/>
@@ -12136,15 +12114,15 @@
       <c r="AF54" s="35"/>
       <c r="AG54" s="35"/>
       <c r="AH54" s="35"/>
-      <c r="AI54" s="161">
-        <f>H54+K54+N54+Q54</f>
-        <v>0</v>
-      </c>
-      <c r="AJ54" s="161">
-        <f>I54+L54+O54+R54</f>
-        <v>0</v>
-      </c>
-      <c r="AK54" s="161" t="e">
+      <c r="AI54" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK54" s="92" t="e">
         <f>P54+M54+#REF!+S54</f>
         <v>#REF!</v>
       </c>
@@ -12156,16 +12134,16 @@
       <c r="B55" s="14"/>
       <c r="C55" s="15"/>
       <c r="D55" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E55" s="41">
         <v>1</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H55" s="46"/>
       <c r="I55" s="46"/>
@@ -12194,15 +12172,15 @@
       <c r="AF55" s="35"/>
       <c r="AG55" s="35"/>
       <c r="AH55" s="35"/>
-      <c r="AI55" s="161">
-        <f>H55+K55+N55+Q55</f>
-        <v>0</v>
-      </c>
-      <c r="AJ55" s="161">
-        <f>I55+L55+O55+R55</f>
-        <v>0</v>
-      </c>
-      <c r="AK55" s="161" t="e">
+      <c r="AI55" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ55" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK55" s="92" t="e">
         <f>P55+M55+#REF!+S55</f>
         <v>#REF!</v>
       </c>
@@ -12214,16 +12192,16 @@
       <c r="B56" s="14"/>
       <c r="C56" s="15"/>
       <c r="D56" s="50" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E56" s="41">
         <v>1</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H56" s="46"/>
       <c r="I56" s="46"/>
@@ -12252,15 +12230,15 @@
       <c r="AF56" s="35"/>
       <c r="AG56" s="35"/>
       <c r="AH56" s="35"/>
-      <c r="AI56" s="161">
-        <f>H56+K56+N56+Q56</f>
-        <v>0</v>
-      </c>
-      <c r="AJ56" s="161">
-        <f>I56+L56+O56+R56</f>
-        <v>0</v>
-      </c>
-      <c r="AK56" s="161" t="e">
+      <c r="AI56" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ56" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK56" s="92" t="e">
         <f>P56+M56+#REF!+S56</f>
         <v>#REF!</v>
       </c>
@@ -12280,10 +12258,10 @@
         <v>4</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H57" s="46"/>
       <c r="I57" s="46"/>
@@ -12312,15 +12290,15 @@
       <c r="AF57" s="35"/>
       <c r="AG57" s="35"/>
       <c r="AH57" s="35"/>
-      <c r="AI57" s="161">
-        <f>H57+K57+N57+Q57</f>
-        <v>0</v>
-      </c>
-      <c r="AJ57" s="161">
-        <f>I57+L57+O57+R57</f>
-        <v>0</v>
-      </c>
-      <c r="AK57" s="161" t="e">
+      <c r="AI57" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ57" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK57" s="92" t="e">
         <f>P57+M57+#REF!+S57</f>
         <v>#REF!</v>
       </c>
@@ -12330,20 +12308,20 @@
         <v>55</v>
       </c>
       <c r="B58" s="49" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C58" s="50" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D58" s="50"/>
       <c r="E58" s="41">
         <v>2</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H58" s="46"/>
       <c r="I58" s="46"/>
@@ -12372,15 +12350,15 @@
       <c r="AF58" s="35"/>
       <c r="AG58" s="35"/>
       <c r="AH58" s="35"/>
-      <c r="AI58" s="161">
-        <f>H58+K58+N58+Q58</f>
-        <v>0</v>
-      </c>
-      <c r="AJ58" s="161">
-        <f>I58+L58+O58+R58</f>
-        <v>0</v>
-      </c>
-      <c r="AK58" s="161" t="e">
+      <c r="AI58" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ58" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK58" s="92" t="e">
         <f>P59+M58+#REF!+S58</f>
         <v>#REF!</v>
       </c>
@@ -12392,16 +12370,16 @@
       <c r="B59" s="14"/>
       <c r="C59" s="15"/>
       <c r="D59" s="50" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E59" s="41">
         <v>0.5</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H59" s="46"/>
       <c r="I59" s="46"/>
@@ -12436,15 +12414,15 @@
       <c r="AF59" s="35"/>
       <c r="AG59" s="35"/>
       <c r="AH59" s="35"/>
-      <c r="AI59" s="161">
-        <f>H59+K59+N59+Q59</f>
-        <v>0.5</v>
-      </c>
-      <c r="AJ59" s="161">
-        <f>I59+L59+O59+R59</f>
-        <v>0.5</v>
-      </c>
-      <c r="AK59" s="161" t="e">
+      <c r="AI59" s="92">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ59" s="92">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK59" s="92" t="e">
         <f>P60+M59+#REF!+S59</f>
         <v>#REF!</v>
       </c>
@@ -12456,16 +12434,16 @@
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
       <c r="D60" s="50" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E60" s="41">
         <v>0.5</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H60" s="46"/>
       <c r="I60" s="46"/>
@@ -12500,15 +12478,15 @@
       <c r="AF60" s="35"/>
       <c r="AG60" s="35"/>
       <c r="AH60" s="35"/>
-      <c r="AI60" s="161">
-        <f>H60+K60+N60+Q60</f>
-        <v>0.5</v>
-      </c>
-      <c r="AJ60" s="161">
-        <f>I60+L60+O60+R60</f>
-        <v>0.5</v>
-      </c>
-      <c r="AK60" s="161" t="e">
+      <c r="AI60" s="92">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ60" s="92">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK60" s="92" t="e">
         <f>P61+M60+#REF!+S60</f>
         <v>#REF!</v>
       </c>
@@ -12520,16 +12498,16 @@
       <c r="B61" s="14"/>
       <c r="C61" s="15"/>
       <c r="D61" s="50" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E61" s="41">
         <v>0.5</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H61" s="46"/>
       <c r="I61" s="46"/>
@@ -12564,15 +12542,15 @@
       <c r="AF61" s="35"/>
       <c r="AG61" s="35"/>
       <c r="AH61" s="35"/>
-      <c r="AI61" s="161">
-        <f>H61+K61+N61+Q61</f>
-        <v>0.5</v>
-      </c>
-      <c r="AJ61" s="161">
-        <f>I61+L61+O61+R61</f>
-        <v>0.5</v>
-      </c>
-      <c r="AK61" s="161" t="e">
+      <c r="AI61" s="92">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ61" s="92">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK61" s="92" t="e">
         <f>P62+M61+#REF!+S61</f>
         <v>#REF!</v>
       </c>
@@ -12584,16 +12562,16 @@
       <c r="B62" s="14"/>
       <c r="C62" s="15"/>
       <c r="D62" s="50" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E62" s="41">
         <v>0.5</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H62" s="46"/>
       <c r="I62" s="46"/>
@@ -12628,15 +12606,15 @@
       <c r="AF62" s="35"/>
       <c r="AG62" s="35"/>
       <c r="AH62" s="35"/>
-      <c r="AI62" s="161">
-        <f>H62+K62+N62+Q62</f>
-        <v>0.5</v>
-      </c>
-      <c r="AJ62" s="161">
-        <f>I62+L62+O62+R62</f>
-        <v>0.5</v>
-      </c>
-      <c r="AK62" s="161" t="e">
+      <c r="AI62" s="92">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ62" s="92">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK62" s="92" t="e">
         <f>#REF!+M62+#REF!+S62</f>
         <v>#REF!</v>
       </c>
@@ -12646,20 +12624,20 @@
         <v>60</v>
       </c>
       <c r="B63" s="49" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C63" s="50" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D63" s="50"/>
       <c r="E63" s="41">
         <v>2</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H63" s="46"/>
       <c r="I63" s="46"/>
@@ -12688,16 +12666,16 @@
       <c r="AF63" s="35"/>
       <c r="AG63" s="35"/>
       <c r="AH63" s="35"/>
-      <c r="AI63" s="161">
-        <f>H63+K63+N63+Q63</f>
-        <v>0</v>
-      </c>
-      <c r="AJ63" s="161">
-        <f>I63+L63+O63+R63</f>
-        <v>0</v>
-      </c>
-      <c r="AK63" s="161">
-        <f>J63+M63+P63+S63</f>
+      <c r="AI63" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ63" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK63" s="92">
+        <f t="shared" ref="AK63:AK77" si="5">J63+M63+P63+S63</f>
         <v>0</v>
       </c>
     </row>
@@ -12708,16 +12686,16 @@
       <c r="B64" s="14"/>
       <c r="C64" s="15"/>
       <c r="D64" s="50" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E64" s="41">
         <v>1</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H64" s="46"/>
       <c r="I64" s="46"/>
@@ -12752,16 +12730,16 @@
       <c r="AF64" s="35"/>
       <c r="AG64" s="35"/>
       <c r="AH64" s="35"/>
-      <c r="AI64" s="161">
-        <f>H64+K64+N64+Q64</f>
+      <c r="AI64" s="92">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AJ64" s="161">
-        <f>I64+L64+O64+R64</f>
+      <c r="AJ64" s="92">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AK64" s="161">
-        <f>J64+M64+P64+S64</f>
+      <c r="AK64" s="92">
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
     </row>
@@ -12772,16 +12750,16 @@
       <c r="B65" s="14"/>
       <c r="C65" s="15"/>
       <c r="D65" s="50" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E65" s="41">
         <v>1</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H65" s="46"/>
       <c r="I65" s="46"/>
@@ -12810,16 +12788,16 @@
       <c r="AF65" s="35"/>
       <c r="AG65" s="35"/>
       <c r="AH65" s="35"/>
-      <c r="AI65" s="161">
-        <f>H65+K65+N65+Q65</f>
-        <v>0</v>
-      </c>
-      <c r="AJ65" s="161">
-        <f>I65+L65+O65+R65</f>
-        <v>0</v>
-      </c>
-      <c r="AK65" s="161">
-        <f>J65+M65+P65+S65</f>
+      <c r="AI65" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ65" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK65" s="92">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12838,10 +12816,10 @@
         <v>8</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H66" s="46"/>
       <c r="I66" s="46"/>
@@ -12870,16 +12848,16 @@
       <c r="AF66" s="35"/>
       <c r="AG66" s="35"/>
       <c r="AH66" s="35"/>
-      <c r="AI66" s="161">
-        <f>H66+K66+N66+Q66</f>
-        <v>0</v>
-      </c>
-      <c r="AJ66" s="161">
-        <f>I66+L66+O66+R66</f>
-        <v>0</v>
-      </c>
-      <c r="AK66" s="161">
-        <f>J66+M66+P66+S66</f>
+      <c r="AI66" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ66" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK66" s="92">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12888,22 +12866,22 @@
         <v>64</v>
       </c>
       <c r="B67" s="49" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C67" s="50" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D67" s="50" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E67" s="41">
         <v>2</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H67" s="46"/>
       <c r="I67" s="46"/>
@@ -12932,16 +12910,16 @@
       <c r="AF67" s="35"/>
       <c r="AG67" s="35"/>
       <c r="AH67" s="35"/>
-      <c r="AI67" s="161">
-        <f>H67+K67+N67+Q67</f>
-        <v>0</v>
-      </c>
-      <c r="AJ67" s="161">
-        <f>I67+L67+O67+R67</f>
-        <v>0</v>
-      </c>
-      <c r="AK67" s="161">
-        <f>J67+M67+P67+S67</f>
+      <c r="AI67" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ67" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK67" s="92">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12952,16 +12930,16 @@
       <c r="B68" s="14"/>
       <c r="C68" s="15"/>
       <c r="D68" s="50" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E68" s="41">
         <v>0.5</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H68" s="46"/>
       <c r="I68" s="46"/>
@@ -12996,16 +12974,16 @@
       <c r="AF68" s="35"/>
       <c r="AG68" s="35"/>
       <c r="AH68" s="35"/>
-      <c r="AI68" s="161">
-        <f>H68+K68+N68+Q68</f>
-        <v>0.5</v>
-      </c>
-      <c r="AJ68" s="161">
-        <f>I68+L68+O68+R68</f>
-        <v>0.5</v>
-      </c>
-      <c r="AK68" s="161">
-        <f>J68+M68+P68+S68</f>
+      <c r="AI68" s="92">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ68" s="92">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK68" s="92">
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
     </row>
@@ -13016,16 +12994,16 @@
       <c r="B69" s="1"/>
       <c r="C69" s="15"/>
       <c r="D69" s="50" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E69" s="41">
         <v>0.5</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H69" s="46"/>
       <c r="I69" s="46"/>
@@ -13054,16 +13032,16 @@
       <c r="AF69" s="35"/>
       <c r="AG69" s="35"/>
       <c r="AH69" s="35"/>
-      <c r="AI69" s="161">
-        <f>H69+K69+N69+Q69</f>
-        <v>0</v>
-      </c>
-      <c r="AJ69" s="161">
-        <f>I69+L69+O69+R69</f>
-        <v>0</v>
-      </c>
-      <c r="AK69" s="161">
-        <f>J69+M69+P69+S69</f>
+      <c r="AI69" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ69" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK69" s="92">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13072,20 +13050,20 @@
         <v>67</v>
       </c>
       <c r="B70" s="49" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C70" s="50" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D70" s="50"/>
       <c r="E70" s="41">
         <v>1</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H70" s="46"/>
       <c r="I70" s="46"/>
@@ -13114,16 +13092,16 @@
       <c r="AF70" s="35"/>
       <c r="AG70" s="35"/>
       <c r="AH70" s="35"/>
-      <c r="AI70" s="161">
-        <f>H70+K70+N70+Q70</f>
-        <v>0</v>
-      </c>
-      <c r="AJ70" s="161">
-        <f>I70+L70+O70+R70</f>
-        <v>0</v>
-      </c>
-      <c r="AK70" s="161">
-        <f>J70+M70+P70+S70</f>
+      <c r="AI70" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ70" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK70" s="92">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13134,16 +13112,16 @@
       <c r="B71" s="14"/>
       <c r="C71" s="15"/>
       <c r="D71" s="50" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E71" s="41">
         <v>0.5</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H71" s="46"/>
       <c r="I71" s="46"/>
@@ -13172,16 +13150,16 @@
       <c r="AF71" s="35"/>
       <c r="AG71" s="35"/>
       <c r="AH71" s="35"/>
-      <c r="AI71" s="161">
-        <f>H71+K71+N71+Q71</f>
-        <v>0</v>
-      </c>
-      <c r="AJ71" s="161">
-        <f>I71+L71+O71+R71</f>
-        <v>0</v>
-      </c>
-      <c r="AK71" s="161">
-        <f>J71+M71+P71+S71</f>
+      <c r="AI71" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ71" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK71" s="92">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13192,16 +13170,16 @@
       <c r="B72" s="14"/>
       <c r="C72" s="15"/>
       <c r="D72" s="16" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E72" s="41">
         <v>0.5</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H72" s="46"/>
       <c r="I72" s="46"/>
@@ -13230,16 +13208,16 @@
       <c r="AF72" s="35"/>
       <c r="AG72" s="35"/>
       <c r="AH72" s="35"/>
-      <c r="AI72" s="161">
-        <f>H72+K72+N72+Q72</f>
-        <v>0</v>
-      </c>
-      <c r="AJ72" s="161">
-        <f>I72+L72+O72+R72</f>
-        <v>0</v>
-      </c>
-      <c r="AK72" s="161">
-        <f>J72+M72+P72+S72</f>
+      <c r="AI72" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ72" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK72" s="92">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13248,20 +13226,20 @@
         <v>70</v>
       </c>
       <c r="B73" s="49" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C73" s="50" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D73" s="16"/>
       <c r="E73" s="41">
         <v>5</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H73" s="46"/>
       <c r="I73" s="46"/>
@@ -13290,16 +13268,16 @@
       <c r="AF73" s="35"/>
       <c r="AG73" s="35"/>
       <c r="AH73" s="35"/>
-      <c r="AI73" s="161">
-        <f>H73+K73+N73+Q73</f>
-        <v>0</v>
-      </c>
-      <c r="AJ73" s="161">
-        <f>I73+L73+O73+R73</f>
-        <v>0</v>
-      </c>
-      <c r="AK73" s="161">
-        <f>J73+M73+P73+S73</f>
+      <c r="AI73" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ73" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK73" s="92">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13310,16 +13288,16 @@
       <c r="B74" s="14"/>
       <c r="C74" s="15"/>
       <c r="D74" s="50" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E74" s="41">
         <v>0.5</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H74" s="46"/>
       <c r="I74" s="46"/>
@@ -13354,16 +13332,16 @@
       <c r="AF74" s="35"/>
       <c r="AG74" s="35"/>
       <c r="AH74" s="35"/>
-      <c r="AI74" s="161">
-        <f>H74+K74+N74+Q74</f>
-        <v>0.5</v>
-      </c>
-      <c r="AJ74" s="161">
-        <f>I74+L74+O74+R74</f>
-        <v>0.5</v>
-      </c>
-      <c r="AK74" s="161">
-        <f>J74+M74+P74+S74</f>
+      <c r="AI74" s="92">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ74" s="92">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK74" s="92">
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
@@ -13374,16 +13352,16 @@
       <c r="B75" s="14"/>
       <c r="C75" s="15"/>
       <c r="D75" s="50" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E75" s="41">
         <v>2</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H75" s="46"/>
       <c r="I75" s="46"/>
@@ -13418,16 +13396,16 @@
       <c r="AF75" s="35"/>
       <c r="AG75" s="35"/>
       <c r="AH75" s="35"/>
-      <c r="AI75" s="161">
-        <f>H75+K75+N75+Q75</f>
+      <c r="AI75" s="92">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AJ75" s="161">
-        <f>I75+L75+O75+R75</f>
+      <c r="AJ75" s="92">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AK75" s="161">
-        <f>J75+M75+P75+S75</f>
+      <c r="AK75" s="92">
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
     </row>
@@ -13438,16 +13416,16 @@
       <c r="B76" s="14"/>
       <c r="C76" s="15"/>
       <c r="D76" s="50" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E76" s="41">
         <v>2</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H76" s="46"/>
       <c r="I76" s="46"/>
@@ -13482,16 +13460,16 @@
       <c r="AF76" s="35"/>
       <c r="AG76" s="35"/>
       <c r="AH76" s="35"/>
-      <c r="AI76" s="161">
-        <f>H76+K76+N76+Q76</f>
+      <c r="AI76" s="92">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AJ76" s="161">
-        <f>I76+L76+O76+R76</f>
+      <c r="AJ76" s="92">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AK76" s="161">
-        <f>J76+M76+P76+S76</f>
+      <c r="AK76" s="92">
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
@@ -13502,16 +13480,16 @@
       <c r="B77" s="14"/>
       <c r="C77" s="15"/>
       <c r="D77" s="16" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E77" s="41">
         <v>0.5</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H77" s="46"/>
       <c r="I77" s="46"/>
@@ -13546,16 +13524,16 @@
       <c r="AF77" s="35"/>
       <c r="AG77" s="35"/>
       <c r="AH77" s="35"/>
-      <c r="AI77" s="161">
-        <f>H77+K77+N77+Q77</f>
-        <v>0.5</v>
-      </c>
-      <c r="AJ77" s="161">
-        <f>I77+L77+O77+R77</f>
-        <v>0.5</v>
-      </c>
-      <c r="AK77" s="161">
-        <f>J77+M77+P77+S77</f>
+      <c r="AI77" s="92">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ77" s="92">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK77" s="92">
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
@@ -13564,20 +13542,20 @@
         <v>75</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C78" s="28" t="s">
         <v>74</v>
       </c>
       <c r="D78" s="28"/>
-      <c r="E78" s="28" t="s">
-        <v>126</v>
+      <c r="E78" s="28">
+        <v>1</v>
       </c>
       <c r="F78" s="28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G78" s="28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H78" s="46"/>
       <c r="I78" s="46"/>
@@ -13606,9 +13584,9 @@
       <c r="AF78" s="35"/>
       <c r="AG78" s="35"/>
       <c r="AH78" s="35"/>
-      <c r="AI78" s="161"/>
-      <c r="AJ78" s="161"/>
-      <c r="AK78" s="161"/>
+      <c r="AI78" s="92"/>
+      <c r="AJ78" s="92"/>
+      <c r="AK78" s="92"/>
     </row>
     <row r="79" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A79" s="28">
@@ -13616,17 +13594,17 @@
       </c>
       <c r="B79" s="28"/>
       <c r="C79" s="28" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D79" s="28"/>
-      <c r="E79" s="28" t="s">
-        <v>126</v>
+      <c r="E79" s="28">
+        <v>1</v>
       </c>
       <c r="F79" s="28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G79" s="28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H79" s="46"/>
       <c r="I79" s="46"/>
@@ -13655,9 +13633,9 @@
       <c r="AF79" s="35"/>
       <c r="AG79" s="35"/>
       <c r="AH79" s="35"/>
-      <c r="AI79" s="161"/>
-      <c r="AJ79" s="161"/>
-      <c r="AK79" s="161"/>
+      <c r="AI79" s="92"/>
+      <c r="AJ79" s="92"/>
+      <c r="AK79" s="92"/>
     </row>
     <row r="80" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A80" s="28">
@@ -13666,16 +13644,16 @@
       <c r="B80" s="28"/>
       <c r="C80" s="28"/>
       <c r="D80" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="E80" s="28" t="s">
-        <v>123</v>
+        <v>179</v>
+      </c>
+      <c r="E80" s="28">
+        <v>0.5</v>
       </c>
       <c r="F80" s="28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G80" s="28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H80" s="46"/>
       <c r="I80" s="46"/>
@@ -13704,9 +13682,9 @@
       <c r="AF80" s="35"/>
       <c r="AG80" s="35"/>
       <c r="AH80" s="35"/>
-      <c r="AI80" s="161"/>
-      <c r="AJ80" s="161"/>
-      <c r="AK80" s="161"/>
+      <c r="AI80" s="92"/>
+      <c r="AJ80" s="92"/>
+      <c r="AK80" s="92"/>
     </row>
     <row r="81" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A81" s="28">
@@ -13715,16 +13693,16 @@
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
       <c r="D81" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="E81" s="28" t="s">
-        <v>123</v>
+        <v>180</v>
+      </c>
+      <c r="E81" s="28">
+        <v>0.5</v>
       </c>
       <c r="F81" s="28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G81" s="28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H81" s="46"/>
       <c r="I81" s="46"/>
@@ -13753,29 +13731,29 @@
       <c r="AF81" s="35"/>
       <c r="AG81" s="35"/>
       <c r="AH81" s="35"/>
-      <c r="AI81" s="161"/>
-      <c r="AJ81" s="161"/>
-      <c r="AK81" s="161"/>
+      <c r="AI81" s="92"/>
+      <c r="AJ81" s="92"/>
+      <c r="AK81" s="92"/>
     </row>
     <row r="82" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A82" s="28">
         <v>79</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D82" s="28"/>
-      <c r="E82" s="28" t="s">
-        <v>201</v>
+      <c r="E82" s="28">
+        <v>9</v>
       </c>
       <c r="F82" s="28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G82" s="28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H82" s="46"/>
       <c r="I82" s="46"/>
@@ -13804,29 +13782,29 @@
       <c r="AF82" s="35"/>
       <c r="AG82" s="35"/>
       <c r="AH82" s="35"/>
-      <c r="AI82" s="161"/>
-      <c r="AJ82" s="161"/>
-      <c r="AK82" s="161"/>
+      <c r="AI82" s="92"/>
+      <c r="AJ82" s="92"/>
+      <c r="AK82" s="92"/>
     </row>
     <row r="83" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A83" s="28">
         <v>80</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D83" s="28"/>
-      <c r="E83" s="28" t="s">
-        <v>202</v>
+      <c r="E83" s="28">
+        <v>2.5</v>
       </c>
       <c r="F83" s="28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G83" s="28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H83" s="46"/>
       <c r="I83" s="46"/>
@@ -13855,9 +13833,9 @@
       <c r="AF83" s="35"/>
       <c r="AG83" s="35"/>
       <c r="AH83" s="35"/>
-      <c r="AI83" s="161"/>
-      <c r="AJ83" s="161"/>
-      <c r="AK83" s="161"/>
+      <c r="AI83" s="92"/>
+      <c r="AJ83" s="92"/>
+      <c r="AK83" s="92"/>
     </row>
     <row r="84" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A84" s="28">
@@ -13866,16 +13844,16 @@
       <c r="B84" s="28"/>
       <c r="C84" s="28"/>
       <c r="D84" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="E84" s="28" t="s">
-        <v>126</v>
+        <v>184</v>
+      </c>
+      <c r="E84" s="28">
+        <v>1</v>
       </c>
       <c r="F84" s="28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G84" s="28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H84" s="46"/>
       <c r="I84" s="46"/>
@@ -13904,9 +13882,9 @@
       <c r="AF84" s="35"/>
       <c r="AG84" s="35"/>
       <c r="AH84" s="35"/>
-      <c r="AI84" s="161"/>
-      <c r="AJ84" s="161"/>
-      <c r="AK84" s="161"/>
+      <c r="AI84" s="92"/>
+      <c r="AJ84" s="92"/>
+      <c r="AK84" s="92"/>
     </row>
     <row r="85" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A85" s="28">
@@ -13915,16 +13893,16 @@
       <c r="B85" s="28"/>
       <c r="C85" s="28"/>
       <c r="D85" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="E85" s="28" t="s">
-        <v>126</v>
+        <v>185</v>
+      </c>
+      <c r="E85" s="28">
+        <v>1</v>
       </c>
       <c r="F85" s="28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G85" s="28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H85" s="46"/>
       <c r="I85" s="46"/>
@@ -13953,9 +13931,9 @@
       <c r="AF85" s="35"/>
       <c r="AG85" s="35"/>
       <c r="AH85" s="35"/>
-      <c r="AI85" s="161"/>
-      <c r="AJ85" s="161"/>
-      <c r="AK85" s="161"/>
+      <c r="AI85" s="92"/>
+      <c r="AJ85" s="92"/>
+      <c r="AK85" s="92"/>
     </row>
     <row r="86" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A86" s="28">
@@ -13964,16 +13942,16 @@
       <c r="B86" s="28"/>
       <c r="C86" s="28"/>
       <c r="D86" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="E86" s="28" t="s">
-        <v>123</v>
+        <v>186</v>
+      </c>
+      <c r="E86" s="28">
+        <v>0.5</v>
       </c>
       <c r="F86" s="28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G86" s="28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H86" s="46"/>
       <c r="I86" s="46"/>
@@ -14002,29 +13980,29 @@
       <c r="AF86" s="35"/>
       <c r="AG86" s="35"/>
       <c r="AH86" s="35"/>
-      <c r="AI86" s="161"/>
-      <c r="AJ86" s="161"/>
-      <c r="AK86" s="161"/>
+      <c r="AI86" s="92"/>
+      <c r="AJ86" s="92"/>
+      <c r="AK86" s="92"/>
     </row>
     <row r="87" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A87" s="28">
         <v>84</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C87" s="28" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D87" s="28"/>
-      <c r="E87" s="28" t="s">
-        <v>202</v>
+      <c r="E87" s="28">
+        <v>2.5</v>
       </c>
       <c r="F87" s="28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G87" s="28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H87" s="46"/>
       <c r="I87" s="46"/>
@@ -14053,9 +14031,9 @@
       <c r="AF87" s="35"/>
       <c r="AG87" s="35"/>
       <c r="AH87" s="35"/>
-      <c r="AI87" s="161"/>
-      <c r="AJ87" s="161"/>
-      <c r="AK87" s="161"/>
+      <c r="AI87" s="92"/>
+      <c r="AJ87" s="92"/>
+      <c r="AK87" s="92"/>
     </row>
     <row r="88" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A88" s="28">
@@ -14064,16 +14042,16 @@
       <c r="B88" s="28"/>
       <c r="C88" s="28"/>
       <c r="D88" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="E88" s="28" t="s">
-        <v>123</v>
+        <v>189</v>
+      </c>
+      <c r="E88" s="28">
+        <v>0.5</v>
       </c>
       <c r="F88" s="28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G88" s="28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H88" s="46"/>
       <c r="I88" s="46"/>
@@ -14102,9 +14080,9 @@
       <c r="AF88" s="35"/>
       <c r="AG88" s="35"/>
       <c r="AH88" s="35"/>
-      <c r="AI88" s="161"/>
-      <c r="AJ88" s="161"/>
-      <c r="AK88" s="161"/>
+      <c r="AI88" s="92"/>
+      <c r="AJ88" s="92"/>
+      <c r="AK88" s="92"/>
     </row>
     <row r="89" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A89" s="28">
@@ -14113,16 +14091,16 @@
       <c r="B89" s="28"/>
       <c r="C89" s="28"/>
       <c r="D89" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="E89" s="28" t="s">
-        <v>126</v>
+        <v>190</v>
+      </c>
+      <c r="E89" s="28">
+        <v>1</v>
       </c>
       <c r="F89" s="28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G89" s="28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H89" s="46"/>
       <c r="I89" s="46"/>
@@ -14151,9 +14129,9 @@
       <c r="AF89" s="35"/>
       <c r="AG89" s="35"/>
       <c r="AH89" s="35"/>
-      <c r="AI89" s="161"/>
-      <c r="AJ89" s="161"/>
-      <c r="AK89" s="161"/>
+      <c r="AI89" s="92"/>
+      <c r="AJ89" s="92"/>
+      <c r="AK89" s="92"/>
     </row>
     <row r="90" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A90" s="28">
@@ -14162,16 +14140,16 @@
       <c r="B90" s="28"/>
       <c r="C90" s="28"/>
       <c r="D90" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="E90" s="28">
+        <v>1</v>
+      </c>
+      <c r="F90" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="E90" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="F90" s="28" t="s">
-        <v>205</v>
-      </c>
       <c r="G90" s="28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H90" s="46"/>
       <c r="I90" s="46"/>
@@ -14200,29 +14178,29 @@
       <c r="AF90" s="35"/>
       <c r="AG90" s="35"/>
       <c r="AH90" s="35"/>
-      <c r="AI90" s="161"/>
-      <c r="AJ90" s="161"/>
-      <c r="AK90" s="161"/>
+      <c r="AI90" s="92"/>
+      <c r="AJ90" s="92"/>
+      <c r="AK90" s="92"/>
     </row>
     <row r="91" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A91" s="28">
         <v>88</v>
       </c>
       <c r="B91" s="28" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D91" s="28"/>
-      <c r="E91" s="28" t="s">
-        <v>203</v>
+      <c r="E91" s="28">
+        <v>4</v>
       </c>
       <c r="F91" s="28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G91" s="28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H91" s="46"/>
       <c r="I91" s="46"/>
@@ -14251,9 +14229,9 @@
       <c r="AF91" s="35"/>
       <c r="AG91" s="35"/>
       <c r="AH91" s="35"/>
-      <c r="AI91" s="161"/>
-      <c r="AJ91" s="161"/>
-      <c r="AK91" s="161"/>
+      <c r="AI91" s="92"/>
+      <c r="AJ91" s="92"/>
+      <c r="AK91" s="92"/>
     </row>
     <row r="92" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A92" s="28">
@@ -14262,16 +14240,16 @@
       <c r="B92" s="28"/>
       <c r="C92" s="28"/>
       <c r="D92" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="E92" s="28" t="s">
-        <v>204</v>
+        <v>194</v>
+      </c>
+      <c r="E92" s="28">
+        <v>2</v>
       </c>
       <c r="F92" s="28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G92" s="28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H92" s="46"/>
       <c r="I92" s="46"/>
@@ -14300,9 +14278,9 @@
       <c r="AF92" s="35"/>
       <c r="AG92" s="35"/>
       <c r="AH92" s="35"/>
-      <c r="AI92" s="161"/>
-      <c r="AJ92" s="161"/>
-      <c r="AK92" s="161"/>
+      <c r="AI92" s="92"/>
+      <c r="AJ92" s="92"/>
+      <c r="AK92" s="92"/>
     </row>
     <row r="93" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A93" s="28">
@@ -14311,16 +14289,16 @@
       <c r="B93" s="28"/>
       <c r="C93" s="28"/>
       <c r="D93" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="E93" s="28" t="s">
-        <v>204</v>
+        <v>195</v>
+      </c>
+      <c r="E93" s="28">
+        <v>2</v>
       </c>
       <c r="F93" s="28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G93" s="28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H93" s="46"/>
       <c r="I93" s="46"/>
@@ -14349,27 +14327,29 @@
       <c r="AF93" s="35"/>
       <c r="AG93" s="35"/>
       <c r="AH93" s="35"/>
-      <c r="AI93" s="161"/>
-      <c r="AJ93" s="161"/>
-      <c r="AK93" s="161"/>
+      <c r="AI93" s="92"/>
+      <c r="AJ93" s="92"/>
+      <c r="AK93" s="92"/>
     </row>
     <row r="94" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A94" s="28">
         <v>91</v>
       </c>
       <c r="B94" s="28" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
+      <c r="E94" s="28">
+        <v>8.5</v>
+      </c>
       <c r="F94" s="28" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G94" s="28" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H94" s="46"/>
       <c r="I94" s="46"/>
@@ -14398,27 +14378,29 @@
       <c r="AF94" s="35"/>
       <c r="AG94" s="35"/>
       <c r="AH94" s="35"/>
-      <c r="AI94" s="161"/>
-      <c r="AJ94" s="161"/>
-      <c r="AK94" s="161"/>
+      <c r="AI94" s="92"/>
+      <c r="AJ94" s="92"/>
+      <c r="AK94" s="92"/>
     </row>
     <row r="95" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A95" s="28">
         <v>92</v>
       </c>
       <c r="B95" s="28" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
+      <c r="E95" s="28">
+        <v>3</v>
+      </c>
       <c r="F95" s="28" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G95" s="28" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H95" s="46"/>
       <c r="I95" s="46"/>
@@ -14447,9 +14429,9 @@
       <c r="AF95" s="35"/>
       <c r="AG95" s="35"/>
       <c r="AH95" s="35"/>
-      <c r="AI95" s="161"/>
-      <c r="AJ95" s="161"/>
-      <c r="AK95" s="161"/>
+      <c r="AI95" s="92"/>
+      <c r="AJ95" s="92"/>
+      <c r="AK95" s="92"/>
     </row>
     <row r="96" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A96" s="28">
@@ -14458,14 +14440,16 @@
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
       <c r="D96" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="E96" s="28"/>
+        <v>201</v>
+      </c>
+      <c r="E96" s="28">
+        <v>1</v>
+      </c>
       <c r="F96" s="28" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G96" s="28" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H96" s="46"/>
       <c r="I96" s="46"/>
@@ -14494,9 +14478,9 @@
       <c r="AF96" s="35"/>
       <c r="AG96" s="35"/>
       <c r="AH96" s="35"/>
-      <c r="AI96" s="161"/>
-      <c r="AJ96" s="161"/>
-      <c r="AK96" s="161"/>
+      <c r="AI96" s="92"/>
+      <c r="AJ96" s="92"/>
+      <c r="AK96" s="92"/>
     </row>
     <row r="97" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A97" s="28">
@@ -14505,14 +14489,16 @@
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
       <c r="D97" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="E97" s="28"/>
+        <v>202</v>
+      </c>
+      <c r="E97" s="28">
+        <v>1</v>
+      </c>
       <c r="F97" s="28" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G97" s="28" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H97" s="46"/>
       <c r="I97" s="46"/>
@@ -14541,9 +14527,9 @@
       <c r="AF97" s="35"/>
       <c r="AG97" s="35"/>
       <c r="AH97" s="35"/>
-      <c r="AI97" s="161"/>
-      <c r="AJ97" s="161"/>
-      <c r="AK97" s="161"/>
+      <c r="AI97" s="92"/>
+      <c r="AJ97" s="92"/>
+      <c r="AK97" s="92"/>
     </row>
     <row r="98" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A98" s="28">
@@ -14552,14 +14538,16 @@
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
       <c r="D98" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="E98" s="28"/>
+        <v>203</v>
+      </c>
+      <c r="E98" s="28">
+        <v>1</v>
+      </c>
       <c r="F98" s="28" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G98" s="28" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H98" s="46"/>
       <c r="I98" s="46"/>
@@ -14588,27 +14576,29 @@
       <c r="AF98" s="35"/>
       <c r="AG98" s="35"/>
       <c r="AH98" s="35"/>
-      <c r="AI98" s="161"/>
-      <c r="AJ98" s="161"/>
-      <c r="AK98" s="161"/>
+      <c r="AI98" s="92"/>
+      <c r="AJ98" s="92"/>
+      <c r="AK98" s="92"/>
     </row>
     <row r="99" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A99" s="28">
         <v>96</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D99" s="28"/>
-      <c r="E99" s="28"/>
+      <c r="E99" s="28">
+        <v>3.5</v>
+      </c>
       <c r="F99" s="28" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G99" s="28" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H99" s="46"/>
       <c r="I99" s="46"/>
@@ -14637,9 +14627,9 @@
       <c r="AF99" s="35"/>
       <c r="AG99" s="35"/>
       <c r="AH99" s="35"/>
-      <c r="AI99" s="161"/>
-      <c r="AJ99" s="161"/>
-      <c r="AK99" s="161"/>
+      <c r="AI99" s="92"/>
+      <c r="AJ99" s="92"/>
+      <c r="AK99" s="92"/>
     </row>
     <row r="100" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A100" s="28">
@@ -14648,14 +14638,16 @@
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
       <c r="D100" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="E100" s="28"/>
+        <v>206</v>
+      </c>
+      <c r="E100" s="28">
+        <v>2.5</v>
+      </c>
       <c r="F100" s="28" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G100" s="28" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H100" s="46"/>
       <c r="I100" s="46"/>
@@ -14684,9 +14676,9 @@
       <c r="AF100" s="35"/>
       <c r="AG100" s="35"/>
       <c r="AH100" s="35"/>
-      <c r="AI100" s="161"/>
-      <c r="AJ100" s="161"/>
-      <c r="AK100" s="161"/>
+      <c r="AI100" s="92"/>
+      <c r="AJ100" s="92"/>
+      <c r="AK100" s="92"/>
     </row>
     <row r="101" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A101" s="28">
@@ -14695,14 +14687,16 @@
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
       <c r="D101" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="E101" s="28"/>
+        <v>207</v>
+      </c>
+      <c r="E101" s="28">
+        <v>1</v>
+      </c>
       <c r="F101" s="28" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G101" s="28" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H101" s="46"/>
       <c r="I101" s="46"/>
@@ -14731,27 +14725,29 @@
       <c r="AF101" s="35"/>
       <c r="AG101" s="35"/>
       <c r="AH101" s="35"/>
-      <c r="AI101" s="161"/>
-      <c r="AJ101" s="161"/>
-      <c r="AK101" s="161"/>
+      <c r="AI101" s="92"/>
+      <c r="AJ101" s="92"/>
+      <c r="AK101" s="92"/>
     </row>
     <row r="102" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A102" s="28">
         <v>99</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
+      <c r="E102" s="28">
+        <v>2</v>
+      </c>
       <c r="F102" s="28" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G102" s="28" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H102" s="46"/>
       <c r="I102" s="46"/>
@@ -14780,9 +14776,9 @@
       <c r="AF102" s="35"/>
       <c r="AG102" s="35"/>
       <c r="AH102" s="35"/>
-      <c r="AI102" s="161"/>
-      <c r="AJ102" s="161"/>
-      <c r="AK102" s="161"/>
+      <c r="AI102" s="92"/>
+      <c r="AJ102" s="92"/>
+      <c r="AK102" s="92"/>
     </row>
     <row r="103" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A103" s="28">
@@ -14791,14 +14787,16 @@
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
       <c r="D103" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="E103" s="28"/>
+        <v>210</v>
+      </c>
+      <c r="E103" s="28">
+        <v>1</v>
+      </c>
       <c r="F103" s="28" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G103" s="28" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H103" s="46"/>
       <c r="I103" s="46"/>
@@ -14827,9 +14825,9 @@
       <c r="AF103" s="35"/>
       <c r="AG103" s="35"/>
       <c r="AH103" s="35"/>
-      <c r="AI103" s="161"/>
-      <c r="AJ103" s="161"/>
-      <c r="AK103" s="161"/>
+      <c r="AI103" s="92"/>
+      <c r="AJ103" s="92"/>
+      <c r="AK103" s="92"/>
     </row>
     <row r="104" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A104" s="28">
@@ -14838,14 +14836,16 @@
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
       <c r="D104" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="E104" s="28"/>
+        <v>211</v>
+      </c>
+      <c r="E104" s="28">
+        <v>1</v>
+      </c>
       <c r="F104" s="28" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G104" s="28" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H104" s="46"/>
       <c r="I104" s="46"/>
@@ -14874,27 +14874,29 @@
       <c r="AF104" s="35"/>
       <c r="AG104" s="35"/>
       <c r="AH104" s="35"/>
-      <c r="AI104" s="161"/>
-      <c r="AJ104" s="161"/>
-      <c r="AK104" s="161"/>
+      <c r="AI104" s="92"/>
+      <c r="AJ104" s="92"/>
+      <c r="AK104" s="92"/>
     </row>
     <row r="105" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A105" s="28">
         <v>102</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C105" s="28" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D105" s="28"/>
-      <c r="E105" s="28"/>
+      <c r="E105" s="28">
+        <v>10</v>
+      </c>
       <c r="F105" s="28" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G105" s="28" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H105" s="46"/>
       <c r="I105" s="46"/>
@@ -14923,9 +14925,9 @@
       <c r="AF105" s="35"/>
       <c r="AG105" s="35"/>
       <c r="AH105" s="35"/>
-      <c r="AI105" s="161"/>
-      <c r="AJ105" s="161"/>
-      <c r="AK105" s="161"/>
+      <c r="AI105" s="92"/>
+      <c r="AJ105" s="92"/>
+      <c r="AK105" s="92"/>
     </row>
     <row r="106" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A106" s="28">
@@ -14934,14 +14936,16 @@
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
       <c r="D106" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="E106" s="28"/>
+        <v>214</v>
+      </c>
+      <c r="E106" s="28">
+        <v>5</v>
+      </c>
       <c r="F106" s="28" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G106" s="28" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H106" s="46"/>
       <c r="I106" s="46"/>
@@ -14970,9 +14974,9 @@
       <c r="AF106" s="35"/>
       <c r="AG106" s="35"/>
       <c r="AH106" s="35"/>
-      <c r="AI106" s="161"/>
-      <c r="AJ106" s="161"/>
-      <c r="AK106" s="161"/>
+      <c r="AI106" s="92"/>
+      <c r="AJ106" s="92"/>
+      <c r="AK106" s="92"/>
     </row>
     <row r="107" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A107" s="28">
@@ -14981,14 +14985,16 @@
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
       <c r="D107" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="E107" s="28"/>
+        <v>215</v>
+      </c>
+      <c r="E107" s="28">
+        <v>5</v>
+      </c>
       <c r="F107" s="28" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G107" s="28" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H107" s="46"/>
       <c r="I107" s="46"/>
@@ -15017,27 +15023,29 @@
       <c r="AF107" s="35"/>
       <c r="AG107" s="35"/>
       <c r="AH107" s="35"/>
-      <c r="AI107" s="161"/>
-      <c r="AJ107" s="161"/>
-      <c r="AK107" s="161"/>
+      <c r="AI107" s="92"/>
+      <c r="AJ107" s="92"/>
+      <c r="AK107" s="92"/>
     </row>
     <row r="108" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A108" s="28">
         <v>105</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D108" s="28"/>
-      <c r="E108" s="28"/>
+      <c r="E108" s="28">
+        <v>2</v>
+      </c>
       <c r="F108" s="28" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="G108" s="28" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="H108" s="46"/>
       <c r="I108" s="46"/>
@@ -15066,9 +15074,9 @@
       <c r="AF108" s="35"/>
       <c r="AG108" s="35"/>
       <c r="AH108" s="35"/>
-      <c r="AI108" s="161"/>
-      <c r="AJ108" s="161"/>
-      <c r="AK108" s="161"/>
+      <c r="AI108" s="92"/>
+      <c r="AJ108" s="92"/>
+      <c r="AK108" s="92"/>
     </row>
     <row r="109" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A109" s="28">
@@ -15077,14 +15085,16 @@
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
       <c r="D109" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="E109" s="28"/>
+        <v>219</v>
+      </c>
+      <c r="E109" s="28">
+        <v>1</v>
+      </c>
       <c r="F109" s="28" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="G109" s="28" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="H109" s="46"/>
       <c r="I109" s="46"/>
@@ -15113,9 +15123,9 @@
       <c r="AF109" s="35"/>
       <c r="AG109" s="35"/>
       <c r="AH109" s="35"/>
-      <c r="AI109" s="161"/>
-      <c r="AJ109" s="161"/>
-      <c r="AK109" s="161"/>
+      <c r="AI109" s="92"/>
+      <c r="AJ109" s="92"/>
+      <c r="AK109" s="92"/>
     </row>
     <row r="110" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A110" s="28">
@@ -15124,14 +15134,16 @@
       <c r="B110" s="28"/>
       <c r="C110" s="28"/>
       <c r="D110" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="E110" s="28"/>
+        <v>218</v>
+      </c>
+      <c r="E110" s="28">
+        <v>1</v>
+      </c>
       <c r="F110" s="28" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="G110" s="28" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="H110" s="46"/>
       <c r="I110" s="46"/>
@@ -15160,27 +15172,29 @@
       <c r="AF110" s="35"/>
       <c r="AG110" s="35"/>
       <c r="AH110" s="35"/>
-      <c r="AI110" s="161"/>
-      <c r="AJ110" s="161"/>
-      <c r="AK110" s="161"/>
+      <c r="AI110" s="92"/>
+      <c r="AJ110" s="92"/>
+      <c r="AK110" s="92"/>
     </row>
     <row r="111" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A111" s="28">
         <v>108</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C111" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D111" s="28"/>
+      <c r="E111" s="28">
+        <v>7</v>
+      </c>
+      <c r="F111" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="D111" s="28"/>
-      <c r="E111" s="28"/>
-      <c r="F111" s="28" t="s">
-        <v>239</v>
-      </c>
       <c r="G111" s="28" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="H111" s="46"/>
       <c r="I111" s="46"/>
@@ -15209,9 +15223,9 @@
       <c r="AF111" s="35"/>
       <c r="AG111" s="35"/>
       <c r="AH111" s="35"/>
-      <c r="AI111" s="161"/>
-      <c r="AJ111" s="161"/>
-      <c r="AK111" s="161"/>
+      <c r="AI111" s="92"/>
+      <c r="AJ111" s="92"/>
+      <c r="AK111" s="92"/>
     </row>
     <row r="112" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A112" s="28">
@@ -15220,14 +15234,16 @@
       <c r="B112" s="28"/>
       <c r="C112" s="28"/>
       <c r="D112" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="E112" s="28"/>
+        <v>222</v>
+      </c>
+      <c r="E112" s="28">
+        <v>5</v>
+      </c>
       <c r="F112" s="28" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="G112" s="28" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="H112" s="46"/>
       <c r="I112" s="46"/>
@@ -15256,9 +15272,9 @@
       <c r="AF112" s="35"/>
       <c r="AG112" s="35"/>
       <c r="AH112" s="35"/>
-      <c r="AI112" s="161"/>
-      <c r="AJ112" s="161"/>
-      <c r="AK112" s="161"/>
+      <c r="AI112" s="92"/>
+      <c r="AJ112" s="92"/>
+      <c r="AK112" s="92"/>
     </row>
     <row r="113" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A113" s="28">
@@ -15267,14 +15283,16 @@
       <c r="B113" s="28"/>
       <c r="C113" s="28"/>
       <c r="D113" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="E113" s="28"/>
+        <v>223</v>
+      </c>
+      <c r="E113" s="28">
+        <v>2</v>
+      </c>
       <c r="F113" s="28" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="G113" s="28" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="H113" s="46"/>
       <c r="I113" s="46"/>
@@ -15303,27 +15321,29 @@
       <c r="AF113" s="35"/>
       <c r="AG113" s="35"/>
       <c r="AH113" s="35"/>
-      <c r="AI113" s="161"/>
-      <c r="AJ113" s="161"/>
-      <c r="AK113" s="161"/>
+      <c r="AI113" s="92"/>
+      <c r="AJ113" s="92"/>
+      <c r="AK113" s="92"/>
     </row>
     <row r="114" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A114" s="28">
         <v>111</v>
       </c>
       <c r="B114" s="28" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C114" s="28" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D114" s="28"/>
-      <c r="E114" s="28"/>
+      <c r="E114" s="28">
+        <v>7</v>
+      </c>
       <c r="F114" s="28" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="G114" s="28" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="H114" s="46"/>
       <c r="I114" s="46"/>
@@ -15352,9 +15372,9 @@
       <c r="AF114" s="35"/>
       <c r="AG114" s="35"/>
       <c r="AH114" s="35"/>
-      <c r="AI114" s="161"/>
-      <c r="AJ114" s="161"/>
-      <c r="AK114" s="161"/>
+      <c r="AI114" s="92"/>
+      <c r="AJ114" s="92"/>
+      <c r="AK114" s="92"/>
     </row>
     <row r="115" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A115" s="28">
@@ -15363,14 +15383,16 @@
       <c r="B115" s="28"/>
       <c r="C115" s="28"/>
       <c r="D115" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="E115" s="28"/>
+        <v>226</v>
+      </c>
+      <c r="E115" s="28">
+        <v>2</v>
+      </c>
       <c r="F115" s="28" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="G115" s="28" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="H115" s="46"/>
       <c r="I115" s="46"/>
@@ -15399,9 +15421,9 @@
       <c r="AF115" s="35"/>
       <c r="AG115" s="35"/>
       <c r="AH115" s="35"/>
-      <c r="AI115" s="161"/>
-      <c r="AJ115" s="161"/>
-      <c r="AK115" s="161"/>
+      <c r="AI115" s="92"/>
+      <c r="AJ115" s="92"/>
+      <c r="AK115" s="92"/>
     </row>
     <row r="116" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A116" s="28">
@@ -15410,14 +15432,16 @@
       <c r="B116" s="28"/>
       <c r="C116" s="28"/>
       <c r="D116" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="E116" s="28"/>
+        <v>227</v>
+      </c>
+      <c r="E116" s="28">
+        <v>5</v>
+      </c>
       <c r="F116" s="28" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="G116" s="28" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="H116" s="46"/>
       <c r="I116" s="46"/>
@@ -15446,9 +15470,9 @@
       <c r="AF116" s="35"/>
       <c r="AG116" s="35"/>
       <c r="AH116" s="35"/>
-      <c r="AI116" s="161"/>
-      <c r="AJ116" s="161"/>
-      <c r="AK116" s="161"/>
+      <c r="AI116" s="92"/>
+      <c r="AJ116" s="92"/>
+      <c r="AK116" s="92"/>
     </row>
     <row r="117" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B117" s="1"/>
@@ -15519,19 +15543,19 @@
         <f>E129-E127</f>
         <v>0</v>
       </c>
-      <c r="I123" s="92" t="s">
+      <c r="I123" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="J123" s="92"/>
-      <c r="K123" s="117" t="s">
-        <v>161</v>
-      </c>
-      <c r="L123" s="118"/>
-      <c r="M123" s="118"/>
-      <c r="N123" s="118"/>
-      <c r="O123" s="118"/>
-      <c r="P123" s="118"/>
-      <c r="Q123" s="119"/>
+      <c r="J123" s="93"/>
+      <c r="K123" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="L123" s="119"/>
+      <c r="M123" s="119"/>
+      <c r="N123" s="119"/>
+      <c r="O123" s="119"/>
+      <c r="P123" s="119"/>
+      <c r="Q123" s="120"/>
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
       <c r="U123" s="1"/>
@@ -15551,19 +15575,19 @@
         <f>E129-E128</f>
         <v>0</v>
       </c>
-      <c r="I124" s="92" t="s">
+      <c r="I124" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="J124" s="92"/>
-      <c r="K124" s="117" t="s">
-        <v>162</v>
-      </c>
-      <c r="L124" s="118"/>
-      <c r="M124" s="118"/>
-      <c r="N124" s="118"/>
-      <c r="O124" s="118"/>
-      <c r="P124" s="118"/>
-      <c r="Q124" s="119"/>
+      <c r="J124" s="93"/>
+      <c r="K124" s="118" t="s">
+        <v>157</v>
+      </c>
+      <c r="L124" s="119"/>
+      <c r="M124" s="119"/>
+      <c r="N124" s="119"/>
+      <c r="O124" s="119"/>
+      <c r="P124" s="119"/>
+      <c r="Q124" s="120"/>
       <c r="R124" s="1"/>
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
@@ -15572,10 +15596,10 @@
       <c r="W124" s="1"/>
     </row>
     <row r="125" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="D125" s="115" t="s">
-        <v>163</v>
-      </c>
-      <c r="E125" s="116"/>
+      <c r="D125" s="94" t="s">
+        <v>158</v>
+      </c>
+      <c r="E125" s="95"/>
       <c r="F125" s="1"/>
       <c r="G125" s="74" t="s">
         <v>23</v>
@@ -15584,19 +15608,19 @@
         <f>E129/E127</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I125" s="92" t="s">
+      <c r="I125" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="J125" s="92"/>
-      <c r="K125" s="117" t="s">
-        <v>164</v>
-      </c>
-      <c r="L125" s="118"/>
-      <c r="M125" s="118"/>
-      <c r="N125" s="118"/>
-      <c r="O125" s="118"/>
-      <c r="P125" s="118"/>
-      <c r="Q125" s="119"/>
+      <c r="J125" s="93"/>
+      <c r="K125" s="118" t="s">
+        <v>159</v>
+      </c>
+      <c r="L125" s="119"/>
+      <c r="M125" s="119"/>
+      <c r="N125" s="119"/>
+      <c r="O125" s="119"/>
+      <c r="P125" s="119"/>
+      <c r="Q125" s="120"/>
     </row>
     <row r="126" spans="1:37" x14ac:dyDescent="0.2">
       <c r="D126" s="25" t="s">
@@ -15613,19 +15637,19 @@
         <f>E129/E128</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I126" s="92" t="s">
+      <c r="I126" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="J126" s="92"/>
-      <c r="K126" s="117" t="s">
-        <v>165</v>
-      </c>
-      <c r="L126" s="118"/>
-      <c r="M126" s="118"/>
-      <c r="N126" s="118"/>
-      <c r="O126" s="118"/>
-      <c r="P126" s="118"/>
-      <c r="Q126" s="119"/>
+      <c r="J126" s="93"/>
+      <c r="K126" s="118" t="s">
+        <v>160</v>
+      </c>
+      <c r="L126" s="119"/>
+      <c r="M126" s="119"/>
+      <c r="N126" s="119"/>
+      <c r="O126" s="119"/>
+      <c r="P126" s="119"/>
+      <c r="Q126" s="120"/>
     </row>
     <row r="127" spans="1:37" x14ac:dyDescent="0.2">
       <c r="D127" s="74" t="s">
@@ -15643,19 +15667,19 @@
         <f>E126-E129</f>
         <v>225</v>
       </c>
-      <c r="I127" s="92" t="s">
+      <c r="I127" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="J127" s="92"/>
-      <c r="K127" s="117" t="s">
-        <v>166</v>
-      </c>
-      <c r="L127" s="118"/>
-      <c r="M127" s="118"/>
-      <c r="N127" s="118"/>
-      <c r="O127" s="118"/>
-      <c r="P127" s="118"/>
-      <c r="Q127" s="119"/>
+      <c r="J127" s="93"/>
+      <c r="K127" s="118" t="s">
+        <v>161</v>
+      </c>
+      <c r="L127" s="119"/>
+      <c r="M127" s="119"/>
+      <c r="N127" s="119"/>
+      <c r="O127" s="119"/>
+      <c r="P127" s="119"/>
+      <c r="Q127" s="120"/>
     </row>
     <row r="128" spans="1:37" x14ac:dyDescent="0.2">
       <c r="D128" s="34" t="s">
@@ -15673,19 +15697,19 @@
         <f>(E126-E129)/(H125*H126)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I128" s="92" t="s">
+      <c r="I128" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="J128" s="92"/>
-      <c r="K128" s="117" t="s">
-        <v>167</v>
-      </c>
-      <c r="L128" s="118"/>
-      <c r="M128" s="118"/>
-      <c r="N128" s="118"/>
-      <c r="O128" s="118"/>
-      <c r="P128" s="118"/>
-      <c r="Q128" s="119"/>
+      <c r="J128" s="93"/>
+      <c r="K128" s="118" t="s">
+        <v>162</v>
+      </c>
+      <c r="L128" s="119"/>
+      <c r="M128" s="119"/>
+      <c r="N128" s="119"/>
+      <c r="O128" s="119"/>
+      <c r="P128" s="119"/>
+      <c r="Q128" s="120"/>
     </row>
     <row r="129" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D129" s="74" t="s">
@@ -15703,19 +15727,19 @@
         <f>E128+(E126-E129)</f>
         <v>225</v>
       </c>
-      <c r="I129" s="92" t="s">
+      <c r="I129" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="J129" s="92"/>
-      <c r="K129" s="117" t="s">
-        <v>166</v>
-      </c>
-      <c r="L129" s="118"/>
-      <c r="M129" s="118"/>
-      <c r="N129" s="118"/>
-      <c r="O129" s="118"/>
-      <c r="P129" s="118"/>
-      <c r="Q129" s="119"/>
+      <c r="J129" s="93"/>
+      <c r="K129" s="118" t="s">
+        <v>161</v>
+      </c>
+      <c r="L129" s="119"/>
+      <c r="M129" s="119"/>
+      <c r="N129" s="119"/>
+      <c r="O129" s="119"/>
+      <c r="P129" s="119"/>
+      <c r="Q129" s="120"/>
     </row>
     <row r="130" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D130" s="1"/>
@@ -15728,19 +15752,19 @@
         <f>E126/H126</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I130" s="92" t="s">
+      <c r="I130" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="J130" s="93"/>
-      <c r="K130" s="117" t="s">
-        <v>167</v>
-      </c>
-      <c r="L130" s="118"/>
-      <c r="M130" s="118"/>
-      <c r="N130" s="118"/>
-      <c r="O130" s="118"/>
-      <c r="P130" s="118"/>
-      <c r="Q130" s="119"/>
+      <c r="J130" s="117"/>
+      <c r="K130" s="118" t="s">
+        <v>162</v>
+      </c>
+      <c r="L130" s="119"/>
+      <c r="M130" s="119"/>
+      <c r="N130" s="119"/>
+      <c r="O130" s="119"/>
+      <c r="P130" s="119"/>
+      <c r="Q130" s="120"/>
     </row>
     <row r="131" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D131" s="1"/>
@@ -15753,19 +15777,19 @@
         <f>E128+(E126-E129)/(H125*H126)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I131" s="92" t="s">
+      <c r="I131" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="J131" s="93"/>
-      <c r="K131" s="117" t="s">
-        <v>168</v>
-      </c>
-      <c r="L131" s="118"/>
-      <c r="M131" s="118"/>
-      <c r="N131" s="118"/>
-      <c r="O131" s="118"/>
-      <c r="P131" s="118"/>
-      <c r="Q131" s="119"/>
+      <c r="J131" s="117"/>
+      <c r="K131" s="118" t="s">
+        <v>163</v>
+      </c>
+      <c r="L131" s="119"/>
+      <c r="M131" s="119"/>
+      <c r="N131" s="119"/>
+      <c r="O131" s="119"/>
+      <c r="P131" s="119"/>
+      <c r="Q131" s="120"/>
     </row>
     <row r="132" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D132" s="1"/>
@@ -15778,19 +15802,19 @@
         <f>(E126-E129)/(E126-E128)</f>
         <v>1</v>
       </c>
-      <c r="I132" s="92" t="s">
+      <c r="I132" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="J132" s="93"/>
-      <c r="K132" s="117" t="s">
-        <v>169</v>
-      </c>
-      <c r="L132" s="118"/>
-      <c r="M132" s="118"/>
-      <c r="N132" s="118"/>
-      <c r="O132" s="118"/>
-      <c r="P132" s="118"/>
-      <c r="Q132" s="119"/>
+      <c r="J132" s="117"/>
+      <c r="K132" s="118" t="s">
+        <v>164</v>
+      </c>
+      <c r="L132" s="119"/>
+      <c r="M132" s="119"/>
+      <c r="N132" s="119"/>
+      <c r="O132" s="119"/>
+      <c r="P132" s="119"/>
+      <c r="Q132" s="120"/>
     </row>
     <row r="133" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D133" s="1"/>
@@ -16139,26 +16163,13 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="I132:J132"/>
-    <mergeCell ref="K132:Q132"/>
-    <mergeCell ref="I129:J129"/>
-    <mergeCell ref="K129:Q129"/>
-    <mergeCell ref="I130:J130"/>
-    <mergeCell ref="K130:Q130"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="K131:Q131"/>
-    <mergeCell ref="I126:J126"/>
-    <mergeCell ref="K126:Q126"/>
-    <mergeCell ref="I127:J127"/>
-    <mergeCell ref="K127:Q127"/>
-    <mergeCell ref="I128:J128"/>
-    <mergeCell ref="K128:Q128"/>
-    <mergeCell ref="K123:Q123"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="K124:Q124"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:S1"/>
@@ -16169,13 +16180,26 @@
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="I126:J126"/>
+    <mergeCell ref="K126:Q126"/>
+    <mergeCell ref="I127:J127"/>
+    <mergeCell ref="K127:Q127"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="I130:J130"/>
+    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -16200,105 +16224,105 @@
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="142" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
     </row>
     <row r="3" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="150" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="132"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="152"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="150" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="132"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="152"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="150" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="132"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="152"/>
     </row>
     <row r="25" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="133" t="s">
-        <v>173</v>
-      </c>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="134"/>
-      <c r="J26" s="134"/>
-      <c r="K26" s="135"/>
+      <c r="B26" s="125" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="126"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="126"/>
+      <c r="J26" s="126"/>
+      <c r="K26" s="127"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="136"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="137"/>
-      <c r="G27" s="137"/>
-      <c r="H27" s="137"/>
-      <c r="I27" s="137"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="138"/>
+      <c r="B27" s="128"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="129"/>
+      <c r="K27" s="130"/>
     </row>
     <row r="28" spans="2:11" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="139"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="140"/>
-      <c r="K28" s="141"/>
+      <c r="B28" s="131"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="133"/>
     </row>
     <row r="29" spans="2:11" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="60"/>
@@ -16312,18 +16336,18 @@
       <c r="J29" s="60"/>
     </row>
     <row r="30" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="142" t="s">
+      <c r="B30" s="153" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="143"/>
-      <c r="D30" s="143"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="143"/>
-      <c r="J30" s="143"/>
-      <c r="K30" s="144"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="154"/>
+      <c r="K30" s="155"/>
     </row>
     <row r="31" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="61"/>
@@ -16360,22 +16384,22 @@
       <c r="K33" s="61"/>
     </row>
     <row r="34" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="123" t="s">
+      <c r="B34" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="124"/>
-      <c r="D34" s="123" t="s">
+      <c r="C34" s="144"/>
+      <c r="D34" s="143" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="124"/>
-      <c r="F34" s="123" t="s">
+      <c r="E34" s="144"/>
+      <c r="F34" s="143" t="s">
         <v>106</v>
       </c>
-      <c r="G34" s="129"/>
-      <c r="H34" s="129"/>
-      <c r="I34" s="129"/>
-      <c r="J34" s="129"/>
-      <c r="K34" s="124"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="144"/>
     </row>
     <row r="35" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="62" t="s">
@@ -16384,16 +16408,16 @@
       <c r="C35" s="71">
         <v>225</v>
       </c>
-      <c r="D35" s="125" t="s">
-        <v>170</v>
-      </c>
-      <c r="E35" s="126"/>
-      <c r="F35" s="145"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="146"/>
+      <c r="D35" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" s="146"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="135"/>
+      <c r="H35" s="135"/>
+      <c r="I35" s="135"/>
+      <c r="J35" s="135"/>
+      <c r="K35" s="136"/>
     </row>
     <row r="36" spans="2:11" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="62" t="s">
@@ -16402,14 +16426,14 @@
       <c r="C36" s="70">
         <v>8.5</v>
       </c>
-      <c r="D36" s="127"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="145"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="146"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="134"/>
+      <c r="G36" s="135"/>
+      <c r="H36" s="135"/>
+      <c r="I36" s="135"/>
+      <c r="J36" s="135"/>
+      <c r="K36" s="136"/>
     </row>
     <row r="37" spans="2:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="62" t="s">
@@ -16418,16 +16442,16 @@
       <c r="C37" s="63">
         <v>6.75</v>
       </c>
-      <c r="D37" s="145"/>
-      <c r="E37" s="146"/>
-      <c r="F37" s="147" t="s">
+      <c r="D37" s="134"/>
+      <c r="E37" s="136"/>
+      <c r="F37" s="139" t="s">
         <v>111</v>
       </c>
-      <c r="G37" s="148"/>
-      <c r="H37" s="148"/>
-      <c r="I37" s="148"/>
-      <c r="J37" s="148"/>
-      <c r="K37" s="149"/>
+      <c r="G37" s="140"/>
+      <c r="H37" s="140"/>
+      <c r="I37" s="140"/>
+      <c r="J37" s="140"/>
+      <c r="K37" s="141"/>
     </row>
     <row r="38" spans="2:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="62" t="s">
@@ -16436,16 +16460,16 @@
       <c r="C38" s="63">
         <v>8.5</v>
       </c>
-      <c r="D38" s="145"/>
-      <c r="E38" s="146"/>
-      <c r="F38" s="147" t="s">
+      <c r="D38" s="134"/>
+      <c r="E38" s="136"/>
+      <c r="F38" s="139" t="s">
         <v>112</v>
       </c>
-      <c r="G38" s="148"/>
-      <c r="H38" s="148"/>
-      <c r="I38" s="148"/>
-      <c r="J38" s="148"/>
-      <c r="K38" s="149"/>
+      <c r="G38" s="140"/>
+      <c r="H38" s="140"/>
+      <c r="I38" s="140"/>
+      <c r="J38" s="140"/>
+      <c r="K38" s="141"/>
     </row>
     <row r="39" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="62" t="s">
@@ -16454,18 +16478,18 @@
       <c r="C39" s="63">
         <v>0</v>
       </c>
-      <c r="D39" s="121" t="s">
+      <c r="D39" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="122"/>
-      <c r="F39" s="147" t="s">
+      <c r="E39" s="138"/>
+      <c r="F39" s="139" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="148"/>
-      <c r="H39" s="148"/>
-      <c r="I39" s="148"/>
-      <c r="J39" s="148"/>
-      <c r="K39" s="149"/>
+      <c r="G39" s="140"/>
+      <c r="H39" s="140"/>
+      <c r="I39" s="140"/>
+      <c r="J39" s="140"/>
+      <c r="K39" s="141"/>
     </row>
     <row r="40" spans="2:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="62" t="s">
@@ -16474,18 +16498,18 @@
       <c r="C40" s="63">
         <v>1.75</v>
       </c>
-      <c r="D40" s="121" t="s">
+      <c r="D40" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="122"/>
-      <c r="F40" s="147" t="s">
+      <c r="E40" s="138"/>
+      <c r="F40" s="139" t="s">
         <v>117</v>
       </c>
-      <c r="G40" s="148"/>
-      <c r="H40" s="148"/>
-      <c r="I40" s="148"/>
-      <c r="J40" s="148"/>
-      <c r="K40" s="149"/>
+      <c r="G40" s="140"/>
+      <c r="H40" s="140"/>
+      <c r="I40" s="140"/>
+      <c r="J40" s="140"/>
+      <c r="K40" s="141"/>
     </row>
     <row r="41" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="62" t="s">
@@ -16494,18 +16518,18 @@
       <c r="C41" s="63">
         <v>1</v>
       </c>
-      <c r="D41" s="121" t="s">
+      <c r="D41" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="122"/>
-      <c r="F41" s="147" t="s">
+      <c r="E41" s="138"/>
+      <c r="F41" s="139" t="s">
         <v>110</v>
       </c>
-      <c r="G41" s="148"/>
-      <c r="H41" s="148"/>
-      <c r="I41" s="148"/>
-      <c r="J41" s="148"/>
-      <c r="K41" s="149"/>
+      <c r="G41" s="140"/>
+      <c r="H41" s="140"/>
+      <c r="I41" s="140"/>
+      <c r="J41" s="140"/>
+      <c r="K41" s="141"/>
     </row>
     <row r="42" spans="2:11" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="62" t="s">
@@ -16514,18 +16538,18 @@
       <c r="C42" s="63">
         <v>1.26</v>
       </c>
-      <c r="D42" s="121" t="s">
+      <c r="D42" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="122"/>
-      <c r="F42" s="147" t="s">
+      <c r="E42" s="138"/>
+      <c r="F42" s="139" t="s">
         <v>118</v>
       </c>
-      <c r="G42" s="148"/>
-      <c r="H42" s="148"/>
-      <c r="I42" s="148"/>
-      <c r="J42" s="148"/>
-      <c r="K42" s="149"/>
+      <c r="G42" s="140"/>
+      <c r="H42" s="140"/>
+      <c r="I42" s="140"/>
+      <c r="J42" s="140"/>
+      <c r="K42" s="141"/>
     </row>
     <row r="43" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="62" t="s">
@@ -16534,18 +16558,18 @@
       <c r="C43" s="63">
         <v>15.5</v>
       </c>
-      <c r="D43" s="121" t="s">
+      <c r="D43" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="122"/>
-      <c r="F43" s="147" t="s">
+      <c r="E43" s="138"/>
+      <c r="F43" s="139" t="s">
         <v>119</v>
       </c>
-      <c r="G43" s="148"/>
-      <c r="H43" s="148"/>
-      <c r="I43" s="148"/>
-      <c r="J43" s="148"/>
-      <c r="K43" s="149"/>
+      <c r="G43" s="140"/>
+      <c r="H43" s="140"/>
+      <c r="I43" s="140"/>
+      <c r="J43" s="140"/>
+      <c r="K43" s="141"/>
     </row>
     <row r="44" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="62" t="s">
@@ -16554,18 +16578,18 @@
       <c r="C44" s="63">
         <v>12.31</v>
       </c>
-      <c r="D44" s="121" t="s">
+      <c r="D44" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="122"/>
-      <c r="F44" s="147" t="s">
+      <c r="E44" s="138"/>
+      <c r="F44" s="139" t="s">
         <v>120</v>
       </c>
-      <c r="G44" s="148"/>
-      <c r="H44" s="148"/>
-      <c r="I44" s="148"/>
-      <c r="J44" s="148"/>
-      <c r="K44" s="149"/>
+      <c r="G44" s="140"/>
+      <c r="H44" s="140"/>
+      <c r="I44" s="140"/>
+      <c r="J44" s="140"/>
+      <c r="K44" s="141"/>
     </row>
     <row r="45" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="62" t="s">
@@ -16574,18 +16598,18 @@
       <c r="C45" s="63">
         <v>22.25</v>
       </c>
-      <c r="D45" s="121" t="s">
+      <c r="D45" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="122"/>
-      <c r="F45" s="145" t="s">
+      <c r="E45" s="138"/>
+      <c r="F45" s="134" t="s">
         <v>121</v>
       </c>
-      <c r="G45" s="150"/>
-      <c r="H45" s="150"/>
-      <c r="I45" s="150"/>
-      <c r="J45" s="150"/>
-      <c r="K45" s="146"/>
+      <c r="G45" s="135"/>
+      <c r="H45" s="135"/>
+      <c r="I45" s="135"/>
+      <c r="J45" s="135"/>
+      <c r="K45" s="136"/>
     </row>
     <row r="46" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="62" t="s">
@@ -16594,18 +16618,18 @@
       <c r="C46" s="63">
         <v>19.059999999999999</v>
       </c>
-      <c r="D46" s="121" t="s">
+      <c r="D46" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="122"/>
-      <c r="F46" s="145" t="s">
+      <c r="E46" s="138"/>
+      <c r="F46" s="134" t="s">
         <v>121</v>
       </c>
-      <c r="G46" s="150"/>
-      <c r="H46" s="150"/>
-      <c r="I46" s="150"/>
-      <c r="J46" s="150"/>
-      <c r="K46" s="146"/>
+      <c r="G46" s="135"/>
+      <c r="H46" s="135"/>
+      <c r="I46" s="135"/>
+      <c r="J46" s="135"/>
+      <c r="K46" s="136"/>
     </row>
     <row r="47" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="62" t="s">
@@ -16614,18 +16638,18 @@
       <c r="C47" s="63">
         <v>19.059999999999999</v>
       </c>
-      <c r="D47" s="121" t="s">
+      <c r="D47" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="122"/>
-      <c r="F47" s="145" t="s">
+      <c r="E47" s="138"/>
+      <c r="F47" s="134" t="s">
         <v>121</v>
       </c>
-      <c r="G47" s="150"/>
-      <c r="H47" s="150"/>
-      <c r="I47" s="150"/>
-      <c r="J47" s="150"/>
-      <c r="K47" s="146"/>
+      <c r="G47" s="135"/>
+      <c r="H47" s="135"/>
+      <c r="I47" s="135"/>
+      <c r="J47" s="135"/>
+      <c r="K47" s="136"/>
     </row>
     <row r="48" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="62" t="s">
@@ -16634,66 +16658,66 @@
       <c r="C48" s="63">
         <v>0.9</v>
       </c>
-      <c r="D48" s="121" t="s">
+      <c r="D48" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="122"/>
-      <c r="F48" s="145"/>
-      <c r="G48" s="150"/>
-      <c r="H48" s="150"/>
-      <c r="I48" s="150"/>
-      <c r="J48" s="150"/>
-      <c r="K48" s="146"/>
+      <c r="E48" s="138"/>
+      <c r="F48" s="134"/>
+      <c r="G48" s="135"/>
+      <c r="H48" s="135"/>
+      <c r="I48" s="135"/>
+      <c r="J48" s="135"/>
+      <c r="K48" s="136"/>
     </row>
     <row r="49" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="60"/>
       <c r="C49" s="60"/>
       <c r="D49" s="60"/>
       <c r="E49" s="60"/>
-      <c r="F49" s="151"/>
-      <c r="G49" s="152"/>
-      <c r="H49" s="152"/>
-      <c r="I49" s="152"/>
-      <c r="J49" s="152"/>
-      <c r="K49" s="153"/>
+      <c r="F49" s="122"/>
+      <c r="G49" s="123"/>
+      <c r="H49" s="123"/>
+      <c r="I49" s="123"/>
+      <c r="J49" s="123"/>
+      <c r="K49" s="124"/>
     </row>
     <row r="50" spans="2:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="133" t="s">
+      <c r="B50" s="125" t="s">
         <v>113</v>
       </c>
-      <c r="C50" s="134"/>
-      <c r="D50" s="134"/>
-      <c r="E50" s="134"/>
-      <c r="F50" s="134"/>
-      <c r="G50" s="134"/>
-      <c r="H50" s="134"/>
-      <c r="I50" s="134"/>
-      <c r="J50" s="134"/>
-      <c r="K50" s="135"/>
+      <c r="C50" s="126"/>
+      <c r="D50" s="126"/>
+      <c r="E50" s="126"/>
+      <c r="F50" s="126"/>
+      <c r="G50" s="126"/>
+      <c r="H50" s="126"/>
+      <c r="I50" s="126"/>
+      <c r="J50" s="126"/>
+      <c r="K50" s="127"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B51" s="136"/>
-      <c r="C51" s="137"/>
-      <c r="D51" s="137"/>
-      <c r="E51" s="137"/>
-      <c r="F51" s="137"/>
-      <c r="G51" s="137"/>
-      <c r="H51" s="137"/>
-      <c r="I51" s="137"/>
-      <c r="J51" s="137"/>
-      <c r="K51" s="138"/>
+      <c r="B51" s="128"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="129"/>
+      <c r="E51" s="129"/>
+      <c r="F51" s="129"/>
+      <c r="G51" s="129"/>
+      <c r="H51" s="129"/>
+      <c r="I51" s="129"/>
+      <c r="J51" s="129"/>
+      <c r="K51" s="130"/>
     </row>
     <row r="52" spans="2:11" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="139"/>
-      <c r="C52" s="140"/>
-      <c r="D52" s="140"/>
-      <c r="E52" s="140"/>
-      <c r="F52" s="140"/>
-      <c r="G52" s="140"/>
-      <c r="H52" s="140"/>
-      <c r="I52" s="140"/>
-      <c r="J52" s="140"/>
-      <c r="K52" s="141"/>
+      <c r="B52" s="131"/>
+      <c r="C52" s="132"/>
+      <c r="D52" s="132"/>
+      <c r="E52" s="132"/>
+      <c r="F52" s="132"/>
+      <c r="G52" s="132"/>
+      <c r="H52" s="132"/>
+      <c r="I52" s="132"/>
+      <c r="J52" s="132"/>
+      <c r="K52" s="133"/>
     </row>
     <row r="53" spans="2:11" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="61"/>
@@ -16748,31 +16772,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="F49:K49"/>
-    <mergeCell ref="B50:K52"/>
-    <mergeCell ref="F47:K47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:K48"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:K43"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="F36:K36"/>
-    <mergeCell ref="F38:K38"/>
-    <mergeCell ref="F39:K39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F40:K40"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="F37:K37"/>
-    <mergeCell ref="F44:K44"/>
-    <mergeCell ref="F45:K45"/>
-    <mergeCell ref="F46:K46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="B34:C34"/>
@@ -16787,6 +16786,31 @@
     <mergeCell ref="B30:K30"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F44:K44"/>
+    <mergeCell ref="F45:K45"/>
+    <mergeCell ref="F46:K46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:K43"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="F38:K38"/>
+    <mergeCell ref="F39:K39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F40:K40"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="F37:K37"/>
+    <mergeCell ref="F49:K49"/>
+    <mergeCell ref="B50:K52"/>
+    <mergeCell ref="F47:K47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:K48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -16815,98 +16839,98 @@
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
+      <c r="A2" s="142" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
     </row>
     <row r="3" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="150" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="132"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="152"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="130" t="s">
-        <v>172</v>
-      </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="132"/>
+      <c r="B4" s="150" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="152"/>
     </row>
     <row r="5" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="150" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="132"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="152"/>
     </row>
     <row r="25" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="133" t="s">
-        <v>174</v>
-      </c>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="134"/>
-      <c r="J26" s="135"/>
+      <c r="B26" s="125" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="126"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="126"/>
+      <c r="J26" s="127"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="136"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="137"/>
-      <c r="G27" s="137"/>
-      <c r="H27" s="137"/>
-      <c r="I27" s="137"/>
-      <c r="J27" s="138"/>
+      <c r="B27" s="128"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="130"/>
     </row>
     <row r="28" spans="2:10" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="139"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="141"/>
+      <c r="B28" s="131"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="133"/>
     </row>
     <row r="29" spans="2:10" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="60"/>
@@ -16919,17 +16943,17 @@
       <c r="I29" s="60"/>
     </row>
     <row r="30" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="142" t="s">
-        <v>171</v>
-      </c>
-      <c r="C30" s="143"/>
-      <c r="D30" s="143"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="143"/>
-      <c r="J30" s="144"/>
+      <c r="B30" s="153" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="154"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="155"/>
     </row>
     <row r="31" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="61"/>
@@ -16963,21 +16987,21 @@
       <c r="J33" s="61"/>
     </row>
     <row r="34" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="123" t="s">
+      <c r="B34" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="124"/>
+      <c r="C34" s="144"/>
       <c r="D34" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="123" t="s">
+      <c r="E34" s="143" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="129"/>
-      <c r="G34" s="129"/>
-      <c r="H34" s="129"/>
-      <c r="I34" s="129"/>
-      <c r="J34" s="124"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="144"/>
     </row>
     <row r="35" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="84" t="s">
@@ -16987,14 +17011,14 @@
         <v>225</v>
       </c>
       <c r="D35" s="84" t="s">
-        <v>170</v>
-      </c>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="156"/>
-      <c r="H35" s="156"/>
-      <c r="I35" s="156"/>
-      <c r="J35" s="156"/>
+        <v>165</v>
+      </c>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="159"/>
+      <c r="H35" s="159"/>
+      <c r="I35" s="159"/>
+      <c r="J35" s="159"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="84" t="s">
@@ -17005,12 +17029,12 @@
         <v>0</v>
       </c>
       <c r="D36" s="87"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="156"/>
-      <c r="G36" s="156"/>
-      <c r="H36" s="156"/>
-      <c r="I36" s="156"/>
-      <c r="J36" s="156"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="159"/>
+      <c r="I36" s="159"/>
+      <c r="J36" s="159"/>
     </row>
     <row r="37" spans="2:10" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="84" t="s">
@@ -17021,14 +17045,14 @@
         <v>0</v>
       </c>
       <c r="D37" s="88"/>
-      <c r="E37" s="154" t="s">
-        <v>176</v>
-      </c>
-      <c r="F37" s="155"/>
-      <c r="G37" s="155"/>
-      <c r="H37" s="155"/>
-      <c r="I37" s="155"/>
-      <c r="J37" s="155"/>
+      <c r="E37" s="160" t="s">
+        <v>171</v>
+      </c>
+      <c r="F37" s="161"/>
+      <c r="G37" s="161"/>
+      <c r="H37" s="161"/>
+      <c r="I37" s="161"/>
+      <c r="J37" s="161"/>
     </row>
     <row r="38" spans="2:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="84" t="s">
@@ -17039,14 +17063,14 @@
         <v>0</v>
       </c>
       <c r="D38" s="88"/>
-      <c r="E38" s="154" t="s">
-        <v>179</v>
-      </c>
-      <c r="F38" s="155"/>
-      <c r="G38" s="155"/>
-      <c r="H38" s="155"/>
-      <c r="I38" s="155"/>
-      <c r="J38" s="155"/>
+      <c r="E38" s="160" t="s">
+        <v>174</v>
+      </c>
+      <c r="F38" s="161"/>
+      <c r="G38" s="161"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="161"/>
+      <c r="J38" s="161"/>
     </row>
     <row r="39" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="84" t="s">
@@ -17059,14 +17083,14 @@
       <c r="D39" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="154" t="s">
+      <c r="E39" s="160" t="s">
         <v>109</v>
       </c>
-      <c r="F39" s="155"/>
-      <c r="G39" s="155"/>
-      <c r="H39" s="155"/>
-      <c r="I39" s="155"/>
-      <c r="J39" s="155"/>
+      <c r="F39" s="161"/>
+      <c r="G39" s="161"/>
+      <c r="H39" s="161"/>
+      <c r="I39" s="161"/>
+      <c r="J39" s="161"/>
     </row>
     <row r="40" spans="2:10" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="84" t="s">
@@ -17079,14 +17103,14 @@
       <c r="D40" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="154" t="s">
-        <v>178</v>
-      </c>
-      <c r="F40" s="155"/>
-      <c r="G40" s="155"/>
-      <c r="H40" s="155"/>
-      <c r="I40" s="155"/>
-      <c r="J40" s="155"/>
+      <c r="E40" s="160" t="s">
+        <v>173</v>
+      </c>
+      <c r="F40" s="161"/>
+      <c r="G40" s="161"/>
+      <c r="H40" s="161"/>
+      <c r="I40" s="161"/>
+      <c r="J40" s="161"/>
     </row>
     <row r="41" spans="2:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="84" t="s">
@@ -17099,14 +17123,14 @@
       <c r="D41" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="154" t="s">
-        <v>177</v>
-      </c>
-      <c r="F41" s="155"/>
-      <c r="G41" s="155"/>
-      <c r="H41" s="155"/>
-      <c r="I41" s="155"/>
-      <c r="J41" s="155"/>
+      <c r="E41" s="160" t="s">
+        <v>172</v>
+      </c>
+      <c r="F41" s="161"/>
+      <c r="G41" s="161"/>
+      <c r="H41" s="161"/>
+      <c r="I41" s="161"/>
+      <c r="J41" s="161"/>
     </row>
     <row r="42" spans="2:10" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="84" t="s">
@@ -17119,14 +17143,14 @@
       <c r="D42" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="154" t="s">
-        <v>180</v>
-      </c>
-      <c r="F42" s="155"/>
-      <c r="G42" s="155"/>
-      <c r="H42" s="155"/>
-      <c r="I42" s="155"/>
-      <c r="J42" s="155"/>
+      <c r="E42" s="160" t="s">
+        <v>175</v>
+      </c>
+      <c r="F42" s="161"/>
+      <c r="G42" s="161"/>
+      <c r="H42" s="161"/>
+      <c r="I42" s="161"/>
+      <c r="J42" s="161"/>
     </row>
     <row r="43" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="84" t="s">
@@ -17139,14 +17163,14 @@
       <c r="D43" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="154" t="s">
-        <v>181</v>
-      </c>
-      <c r="F43" s="155"/>
-      <c r="G43" s="155"/>
-      <c r="H43" s="155"/>
-      <c r="I43" s="155"/>
-      <c r="J43" s="155"/>
+      <c r="E43" s="160" t="s">
+        <v>176</v>
+      </c>
+      <c r="F43" s="161"/>
+      <c r="G43" s="161"/>
+      <c r="H43" s="161"/>
+      <c r="I43" s="161"/>
+      <c r="J43" s="161"/>
     </row>
     <row r="44" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="84" t="s">
@@ -17158,14 +17182,14 @@
       <c r="D44" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="154" t="s">
+      <c r="E44" s="160" t="s">
         <v>120</v>
       </c>
-      <c r="F44" s="155"/>
-      <c r="G44" s="155"/>
-      <c r="H44" s="155"/>
-      <c r="I44" s="155"/>
-      <c r="J44" s="155"/>
+      <c r="F44" s="161"/>
+      <c r="G44" s="161"/>
+      <c r="H44" s="161"/>
+      <c r="I44" s="161"/>
+      <c r="J44" s="161"/>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="84" t="s">
@@ -17178,14 +17202,14 @@
       <c r="D45" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="156" t="s">
+      <c r="E45" s="159" t="s">
         <v>121</v>
       </c>
-      <c r="F45" s="156"/>
-      <c r="G45" s="156"/>
-      <c r="H45" s="156"/>
-      <c r="I45" s="156"/>
-      <c r="J45" s="156"/>
+      <c r="F45" s="159"/>
+      <c r="G45" s="159"/>
+      <c r="H45" s="159"/>
+      <c r="I45" s="159"/>
+      <c r="J45" s="159"/>
     </row>
     <row r="46" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="84" t="s">
@@ -17197,14 +17221,14 @@
       <c r="D46" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="156" t="s">
+      <c r="E46" s="159" t="s">
         <v>121</v>
       </c>
-      <c r="F46" s="156"/>
-      <c r="G46" s="156"/>
-      <c r="H46" s="156"/>
-      <c r="I46" s="156"/>
-      <c r="J46" s="156"/>
+      <c r="F46" s="159"/>
+      <c r="G46" s="159"/>
+      <c r="H46" s="159"/>
+      <c r="I46" s="159"/>
+      <c r="J46" s="159"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="84" t="s">
@@ -17216,14 +17240,14 @@
       <c r="D47" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="156" t="s">
+      <c r="E47" s="159" t="s">
         <v>121</v>
       </c>
-      <c r="F47" s="156"/>
-      <c r="G47" s="156"/>
-      <c r="H47" s="156"/>
-      <c r="I47" s="156"/>
-      <c r="J47" s="156"/>
+      <c r="F47" s="159"/>
+      <c r="G47" s="159"/>
+      <c r="H47" s="159"/>
+      <c r="I47" s="159"/>
+      <c r="J47" s="159"/>
     </row>
     <row r="48" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="84" t="s">
@@ -17236,58 +17260,58 @@
       <c r="D48" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="156"/>
-      <c r="F48" s="156"/>
-      <c r="G48" s="156"/>
-      <c r="H48" s="156"/>
-      <c r="I48" s="156"/>
-      <c r="J48" s="156"/>
+      <c r="E48" s="159"/>
+      <c r="F48" s="159"/>
+      <c r="G48" s="159"/>
+      <c r="H48" s="159"/>
+      <c r="I48" s="159"/>
+      <c r="J48" s="159"/>
     </row>
     <row r="49" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="83"/>
       <c r="C49" s="83"/>
       <c r="D49" s="83"/>
-      <c r="E49" s="157"/>
-      <c r="F49" s="158"/>
-      <c r="G49" s="158"/>
-      <c r="H49" s="158"/>
-      <c r="I49" s="158"/>
-      <c r="J49" s="159"/>
+      <c r="E49" s="156"/>
+      <c r="F49" s="157"/>
+      <c r="G49" s="157"/>
+      <c r="H49" s="157"/>
+      <c r="I49" s="157"/>
+      <c r="J49" s="158"/>
     </row>
     <row r="50" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="133" t="s">
-        <v>175</v>
-      </c>
-      <c r="C50" s="134"/>
-      <c r="D50" s="134"/>
-      <c r="E50" s="134"/>
-      <c r="F50" s="134"/>
-      <c r="G50" s="134"/>
-      <c r="H50" s="134"/>
-      <c r="I50" s="134"/>
-      <c r="J50" s="135"/>
+      <c r="B50" s="125" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" s="126"/>
+      <c r="D50" s="126"/>
+      <c r="E50" s="126"/>
+      <c r="F50" s="126"/>
+      <c r="G50" s="126"/>
+      <c r="H50" s="126"/>
+      <c r="I50" s="126"/>
+      <c r="J50" s="127"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="136"/>
-      <c r="C51" s="137"/>
-      <c r="D51" s="137"/>
-      <c r="E51" s="137"/>
-      <c r="F51" s="137"/>
-      <c r="G51" s="137"/>
-      <c r="H51" s="137"/>
-      <c r="I51" s="137"/>
-      <c r="J51" s="138"/>
+      <c r="B51" s="128"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="129"/>
+      <c r="E51" s="129"/>
+      <c r="F51" s="129"/>
+      <c r="G51" s="129"/>
+      <c r="H51" s="129"/>
+      <c r="I51" s="129"/>
+      <c r="J51" s="130"/>
     </row>
     <row r="52" spans="2:10" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="139"/>
-      <c r="C52" s="140"/>
-      <c r="D52" s="140"/>
-      <c r="E52" s="140"/>
-      <c r="F52" s="140"/>
-      <c r="G52" s="140"/>
-      <c r="H52" s="140"/>
-      <c r="I52" s="140"/>
-      <c r="J52" s="141"/>
+      <c r="B52" s="131"/>
+      <c r="C52" s="132"/>
+      <c r="D52" s="132"/>
+      <c r="E52" s="132"/>
+      <c r="F52" s="132"/>
+      <c r="G52" s="132"/>
+      <c r="H52" s="132"/>
+      <c r="I52" s="132"/>
+      <c r="J52" s="133"/>
     </row>
     <row r="53" spans="2:10" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="61"/>
@@ -17336,17 +17360,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="B50:J52"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="E48:J48"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="E45:J45"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B26:J28"/>
     <mergeCell ref="E37:J37"/>
     <mergeCell ref="E38:J38"/>
     <mergeCell ref="E39:J39"/>
@@ -17354,12 +17373,17 @@
     <mergeCell ref="E34:J34"/>
     <mergeCell ref="E35:J35"/>
     <mergeCell ref="E36:J36"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B26:J28"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="E45:J45"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="B50:J52"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="E48:J48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Planificación del proyecto/EV2, EV3 Equipo 01.xlsx
+++ b/Planificación del proyecto/EV2, EV3 Equipo 01.xlsx
@@ -22,17 +22,17 @@
     <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="cc">'CI S3'!$G$123:$H$132</definedName>
-    <definedName name="Formula1">'CI S3'!$D$126:$E$129</definedName>
-    <definedName name="Formulas">'CI S3'!$G$123:$H$132</definedName>
-    <definedName name="TablaFormulas">'CI S3'!$H$123:$J$132</definedName>
+    <definedName name="cc">'CI S3'!$G$124:$H$133</definedName>
+    <definedName name="Formula1">'CI S3'!$D$127:$E$130</definedName>
+    <definedName name="Formulas">'CI S3'!$G$124:$H$133</definedName>
+    <definedName name="TablaFormulas">'CI S3'!$H$124:$J$133</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="238">
   <si>
     <t>Semana 3</t>
   </si>
@@ -769,6 +769,9 @@
   </si>
   <si>
     <t>0,5.</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
   </si>
 </sst>
 </file>
@@ -936,7 +939,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1493,13 +1496,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1711,6 +1725,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1891,6 +1906,11 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2934,13 +2954,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>754380</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3322,59 +3342,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="109" t="s">
+      <c r="C1" s="113"/>
+      <c r="D1" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="115" t="s">
+      <c r="E1" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="115" t="s">
+      <c r="F1" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="115" t="s">
+      <c r="G1" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="101" t="s">
+      <c r="H1" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="102"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="104" t="s">
+      <c r="I1" s="103"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="102"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="102"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="102"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="101" t="s">
+      <c r="L1" s="103"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="103"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="103"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="102"/>
-      <c r="V1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="104"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="110"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
       <c r="H2" s="2">
         <v>44081</v>
       </c>
@@ -3419,17 +3439,17 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="110"/>
+      <c r="A3" s="111"/>
       <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
       <c r="H3" s="19" t="s">
         <v>12</v>
       </c>
@@ -4895,13 +4915,13 @@
       <c r="D36" s="39"/>
       <c r="E36" s="26"/>
       <c r="F36" s="37"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="96"/>
-      <c r="J36" s="96"/>
-      <c r="K36" s="96"/>
-      <c r="L36" s="96"/>
-      <c r="M36" s="96"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="97"/>
+      <c r="K36" s="97"/>
+      <c r="L36" s="97"/>
+      <c r="M36" s="97"/>
       <c r="N36" s="37"/>
       <c r="O36" s="37"/>
       <c r="P36" s="37"/>
@@ -4946,58 +4966,58 @@
       <c r="G38" s="24"/>
     </row>
     <row r="39" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="105"/>
-      <c r="B39" s="105"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
+      <c r="A39" s="106"/>
+      <c r="B39" s="106"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="106"/>
       <c r="F39" s="24"/>
-      <c r="G39" s="106" t="s">
+      <c r="G39" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="H39" s="107"/>
-      <c r="I39" s="107"/>
-      <c r="J39" s="107"/>
-      <c r="K39" s="107"/>
-      <c r="L39" s="107"/>
-      <c r="M39" s="108"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="108"/>
+      <c r="K39" s="108"/>
+      <c r="L39" s="108"/>
+      <c r="M39" s="109"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="99"/>
-      <c r="B40" s="100"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="100"/>
+      <c r="A40" s="100"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="101"/>
       <c r="F40" s="24"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="96"/>
-      <c r="J40" s="96"/>
-      <c r="K40" s="96"/>
-      <c r="L40" s="96"/>
-      <c r="M40" s="96"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="97"/>
+      <c r="J40" s="97"/>
+      <c r="K40" s="97"/>
+      <c r="L40" s="97"/>
+      <c r="M40" s="97"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A41" s="99"/>
-      <c r="B41" s="100"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
+      <c r="A41" s="100"/>
+      <c r="B41" s="101"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="101"/>
       <c r="F41" s="24"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="96"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="96"/>
-      <c r="M41" s="96"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="97"/>
+      <c r="J41" s="97"/>
+      <c r="K41" s="97"/>
+      <c r="L41" s="97"/>
+      <c r="M41" s="97"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="99"/>
-      <c r="B42" s="100"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="100"/>
+      <c r="A42" s="100"/>
+      <c r="B42" s="101"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="101"/>
       <c r="F42" s="24"/>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
@@ -5006,29 +5026,29 @@
       <c r="K42" s="22"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="97"/>
       <c r="I43" s="22"/>
       <c r="J43" s="22"/>
       <c r="K43" s="22"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="G44" s="96"/>
-      <c r="H44" s="96"/>
-      <c r="I44" s="96"/>
-      <c r="J44" s="96"/>
-      <c r="K44" s="96"/>
-      <c r="L44" s="96"/>
-      <c r="M44" s="96"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="97"/>
+      <c r="K44" s="97"/>
+      <c r="L44" s="97"/>
+      <c r="M44" s="97"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="G45" s="96"/>
-      <c r="H45" s="96"/>
-      <c r="I45" s="96"/>
-      <c r="J45" s="96"/>
-      <c r="K45" s="96"/>
-      <c r="L45" s="96"/>
-      <c r="M45" s="96"/>
+      <c r="G45" s="97"/>
+      <c r="H45" s="97"/>
+      <c r="I45" s="97"/>
+      <c r="J45" s="97"/>
+      <c r="K45" s="97"/>
+      <c r="L45" s="97"/>
+      <c r="M45" s="97"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D47" s="24"/>
@@ -5048,17 +5068,17 @@
         <f>E56-E54</f>
         <v>0</v>
       </c>
-      <c r="I50" s="93" t="s">
+      <c r="I50" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="J50" s="93"/>
-      <c r="K50" s="97"/>
-      <c r="L50" s="98"/>
-      <c r="M50" s="98"/>
-      <c r="N50" s="98"/>
-      <c r="O50" s="98"/>
-      <c r="P50" s="98"/>
-      <c r="Q50" s="98"/>
+      <c r="J50" s="94"/>
+      <c r="K50" s="98"/>
+      <c r="L50" s="99"/>
+      <c r="M50" s="99"/>
+      <c r="N50" s="99"/>
+      <c r="O50" s="99"/>
+      <c r="P50" s="99"/>
+      <c r="Q50" s="99"/>
     </row>
     <row r="51" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D51" s="53"/>
@@ -5069,23 +5089,23 @@
         <f>E56-E55</f>
         <v>0</v>
       </c>
-      <c r="I51" s="93" t="s">
+      <c r="I51" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="J51" s="93"/>
-      <c r="K51" s="97"/>
-      <c r="L51" s="98"/>
-      <c r="M51" s="98"/>
-      <c r="N51" s="98"/>
-      <c r="O51" s="98"/>
-      <c r="P51" s="98"/>
-      <c r="Q51" s="98"/>
+      <c r="J51" s="94"/>
+      <c r="K51" s="98"/>
+      <c r="L51" s="99"/>
+      <c r="M51" s="99"/>
+      <c r="N51" s="99"/>
+      <c r="O51" s="99"/>
+      <c r="P51" s="99"/>
+      <c r="Q51" s="99"/>
     </row>
     <row r="52" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="D52" s="94" t="s">
+      <c r="D52" s="95" t="s">
         <v>105</v>
       </c>
-      <c r="E52" s="95"/>
+      <c r="E52" s="96"/>
       <c r="G52" s="32" t="s">
         <v>23</v>
       </c>
@@ -5093,17 +5113,17 @@
         <f>E56/E54</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I52" s="93" t="s">
+      <c r="I52" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="J52" s="93"/>
-      <c r="K52" s="97"/>
-      <c r="L52" s="98"/>
-      <c r="M52" s="98"/>
-      <c r="N52" s="98"/>
-      <c r="O52" s="98"/>
-      <c r="P52" s="98"/>
-      <c r="Q52" s="98"/>
+      <c r="J52" s="94"/>
+      <c r="K52" s="98"/>
+      <c r="L52" s="99"/>
+      <c r="M52" s="99"/>
+      <c r="N52" s="99"/>
+      <c r="O52" s="99"/>
+      <c r="P52" s="99"/>
+      <c r="Q52" s="99"/>
     </row>
     <row r="53" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D53" s="25" t="s">
@@ -5118,17 +5138,17 @@
         <f>E56/E55</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I53" s="93" t="s">
+      <c r="I53" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="J53" s="93"/>
-      <c r="K53" s="97"/>
-      <c r="L53" s="98"/>
-      <c r="M53" s="98"/>
-      <c r="N53" s="98"/>
-      <c r="O53" s="98"/>
-      <c r="P53" s="98"/>
-      <c r="Q53" s="98"/>
+      <c r="J53" s="94"/>
+      <c r="K53" s="98"/>
+      <c r="L53" s="99"/>
+      <c r="M53" s="99"/>
+      <c r="N53" s="99"/>
+      <c r="O53" s="99"/>
+      <c r="P53" s="99"/>
+      <c r="Q53" s="99"/>
       <c r="R53" s="26"/>
       <c r="S53" s="26"/>
     </row>
@@ -5145,17 +5165,17 @@
         <f>E53-E56</f>
         <v>0</v>
       </c>
-      <c r="I54" s="93" t="s">
+      <c r="I54" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="J54" s="93"/>
-      <c r="K54" s="97"/>
-      <c r="L54" s="98"/>
-      <c r="M54" s="98"/>
-      <c r="N54" s="98"/>
-      <c r="O54" s="98"/>
-      <c r="P54" s="98"/>
-      <c r="Q54" s="98"/>
+      <c r="J54" s="94"/>
+      <c r="K54" s="98"/>
+      <c r="L54" s="99"/>
+      <c r="M54" s="99"/>
+      <c r="N54" s="99"/>
+      <c r="O54" s="99"/>
+      <c r="P54" s="99"/>
+      <c r="Q54" s="99"/>
       <c r="R54" s="26"/>
       <c r="S54" s="26"/>
     </row>
@@ -5172,17 +5192,17 @@
         <f>(E53-E56)/(H52*H53)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I55" s="93" t="s">
+      <c r="I55" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="J55" s="93"/>
-      <c r="K55" s="97"/>
-      <c r="L55" s="98"/>
-      <c r="M55" s="98"/>
-      <c r="N55" s="98"/>
-      <c r="O55" s="98"/>
-      <c r="P55" s="98"/>
-      <c r="Q55" s="98"/>
+      <c r="J55" s="94"/>
+      <c r="K55" s="98"/>
+      <c r="L55" s="99"/>
+      <c r="M55" s="99"/>
+      <c r="N55" s="99"/>
+      <c r="O55" s="99"/>
+      <c r="P55" s="99"/>
+      <c r="Q55" s="99"/>
       <c r="R55" s="26"/>
       <c r="S55" s="26"/>
     </row>
@@ -5199,17 +5219,17 @@
         <f>E55+(E53-E56)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="93" t="s">
+      <c r="I56" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="J56" s="93"/>
-      <c r="K56" s="97"/>
-      <c r="L56" s="98"/>
-      <c r="M56" s="98"/>
-      <c r="N56" s="98"/>
-      <c r="O56" s="98"/>
-      <c r="P56" s="98"/>
-      <c r="Q56" s="98"/>
+      <c r="J56" s="94"/>
+      <c r="K56" s="98"/>
+      <c r="L56" s="99"/>
+      <c r="M56" s="99"/>
+      <c r="N56" s="99"/>
+      <c r="O56" s="99"/>
+      <c r="P56" s="99"/>
+      <c r="Q56" s="99"/>
       <c r="R56" s="26"/>
       <c r="S56" s="26"/>
     </row>
@@ -5222,17 +5242,17 @@
         <f>E53/H53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I57" s="93" t="s">
+      <c r="I57" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="J57" s="117"/>
-      <c r="K57" s="97"/>
-      <c r="L57" s="98"/>
-      <c r="M57" s="98"/>
-      <c r="N57" s="98"/>
-      <c r="O57" s="98"/>
-      <c r="P57" s="98"/>
-      <c r="Q57" s="98"/>
+      <c r="J57" s="118"/>
+      <c r="K57" s="98"/>
+      <c r="L57" s="99"/>
+      <c r="M57" s="99"/>
+      <c r="N57" s="99"/>
+      <c r="O57" s="99"/>
+      <c r="P57" s="99"/>
+      <c r="Q57" s="99"/>
       <c r="R57" s="26"/>
       <c r="S57" s="26"/>
     </row>
@@ -5245,17 +5265,17 @@
         <f>E55+(E53-E56)/(H52*H53)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I58" s="93" t="s">
+      <c r="I58" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="J58" s="117"/>
-      <c r="K58" s="97"/>
-      <c r="L58" s="98"/>
-      <c r="M58" s="98"/>
-      <c r="N58" s="98"/>
-      <c r="O58" s="98"/>
-      <c r="P58" s="98"/>
-      <c r="Q58" s="98"/>
+      <c r="J58" s="118"/>
+      <c r="K58" s="98"/>
+      <c r="L58" s="99"/>
+      <c r="M58" s="99"/>
+      <c r="N58" s="99"/>
+      <c r="O58" s="99"/>
+      <c r="P58" s="99"/>
+      <c r="Q58" s="99"/>
       <c r="R58" s="26"/>
       <c r="S58" s="26"/>
     </row>
@@ -5269,17 +5289,17 @@
         <f>(E53-E56)/(E53-E55)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I59" s="93" t="s">
+      <c r="I59" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="J59" s="117"/>
-      <c r="K59" s="97"/>
-      <c r="L59" s="98"/>
-      <c r="M59" s="98"/>
-      <c r="N59" s="98"/>
-      <c r="O59" s="98"/>
-      <c r="P59" s="98"/>
-      <c r="Q59" s="98"/>
+      <c r="J59" s="118"/>
+      <c r="K59" s="98"/>
+      <c r="L59" s="99"/>
+      <c r="M59" s="99"/>
+      <c r="N59" s="99"/>
+      <c r="O59" s="99"/>
+      <c r="P59" s="99"/>
+      <c r="Q59" s="99"/>
       <c r="R59" s="26"/>
       <c r="S59" s="26"/>
     </row>
@@ -5557,59 +5577,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="109" t="s">
+      <c r="C1" s="113"/>
+      <c r="D1" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="115" t="s">
+      <c r="E1" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="115" t="s">
+      <c r="F1" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="115" t="s">
+      <c r="G1" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="101" t="s">
+      <c r="H1" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="102"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="104" t="s">
+      <c r="I1" s="103"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="102"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="102"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="102"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="101" t="s">
+      <c r="L1" s="103"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="103"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="103"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="102"/>
-      <c r="V1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="104"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="110"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
       <c r="H2" s="2">
         <v>44081</v>
       </c>
@@ -5654,17 +5674,17 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="110"/>
+      <c r="A3" s="111"/>
       <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
       <c r="H3" s="19" t="s">
         <v>12</v>
       </c>
@@ -7904,15 +7924,15 @@
       <c r="D52" s="39"/>
       <c r="E52" s="26"/>
       <c r="F52" s="37"/>
-      <c r="G52" s="106" t="s">
+      <c r="G52" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="H52" s="107"/>
-      <c r="I52" s="107"/>
-      <c r="J52" s="107"/>
-      <c r="K52" s="107"/>
-      <c r="L52" s="107"/>
-      <c r="M52" s="108"/>
+      <c r="H52" s="108"/>
+      <c r="I52" s="108"/>
+      <c r="J52" s="108"/>
+      <c r="K52" s="108"/>
+      <c r="L52" s="108"/>
+      <c r="M52" s="109"/>
       <c r="N52" s="37"/>
       <c r="O52" s="37"/>
       <c r="P52" s="37"/>
@@ -7939,11 +7959,11 @@
       <c r="M53" s="24"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A54" s="105"/>
-      <c r="B54" s="105"/>
-      <c r="C54" s="105"/>
-      <c r="D54" s="105"/>
-      <c r="E54" s="105"/>
+      <c r="A54" s="106"/>
+      <c r="B54" s="106"/>
+      <c r="C54" s="106"/>
+      <c r="D54" s="106"/>
+      <c r="E54" s="106"/>
       <c r="F54" s="24"/>
       <c r="G54" s="73"/>
       <c r="H54" s="73"/>
@@ -7954,11 +7974,11 @@
       <c r="M54" s="73"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A55" s="99"/>
-      <c r="B55" s="100"/>
-      <c r="C55" s="100"/>
-      <c r="D55" s="100"/>
-      <c r="E55" s="100"/>
+      <c r="A55" s="100"/>
+      <c r="B55" s="101"/>
+      <c r="C55" s="101"/>
+      <c r="D55" s="101"/>
+      <c r="E55" s="101"/>
       <c r="F55" s="24"/>
       <c r="G55" s="73"/>
       <c r="H55" s="73"/>
@@ -7969,11 +7989,11 @@
       <c r="M55" s="73"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A56" s="99"/>
-      <c r="B56" s="100"/>
-      <c r="C56" s="100"/>
-      <c r="D56" s="100"/>
-      <c r="E56" s="100"/>
+      <c r="A56" s="100"/>
+      <c r="B56" s="101"/>
+      <c r="C56" s="101"/>
+      <c r="D56" s="101"/>
+      <c r="E56" s="101"/>
       <c r="F56" s="24"/>
       <c r="G56" s="73"/>
       <c r="H56" s="73"/>
@@ -7984,11 +8004,11 @@
       <c r="M56" s="73"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A57" s="99"/>
-      <c r="B57" s="100"/>
-      <c r="C57" s="100"/>
-      <c r="D57" s="100"/>
-      <c r="E57" s="100"/>
+      <c r="A57" s="100"/>
+      <c r="B57" s="101"/>
+      <c r="C57" s="101"/>
+      <c r="D57" s="101"/>
+      <c r="E57" s="101"/>
       <c r="F57" s="24"/>
       <c r="G57" s="73"/>
       <c r="H57" s="73"/>
@@ -8005,8 +8025,8 @@
       <c r="D58" s="24"/>
       <c r="E58" s="24"/>
       <c r="F58" s="24"/>
-      <c r="G58" s="100"/>
-      <c r="H58" s="100"/>
+      <c r="G58" s="101"/>
+      <c r="H58" s="101"/>
       <c r="I58" s="73"/>
       <c r="J58" s="73"/>
       <c r="K58" s="73"/>
@@ -8091,17 +8111,17 @@
         <f>E71-E69</f>
         <v>0</v>
       </c>
-      <c r="I65" s="93" t="s">
+      <c r="I65" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="J65" s="93"/>
-      <c r="K65" s="97"/>
-      <c r="L65" s="98"/>
-      <c r="M65" s="98"/>
-      <c r="N65" s="98"/>
-      <c r="O65" s="98"/>
-      <c r="P65" s="98"/>
-      <c r="Q65" s="98"/>
+      <c r="J65" s="94"/>
+      <c r="K65" s="98"/>
+      <c r="L65" s="99"/>
+      <c r="M65" s="99"/>
+      <c r="N65" s="99"/>
+      <c r="O65" s="99"/>
+      <c r="P65" s="99"/>
+      <c r="Q65" s="99"/>
     </row>
     <row r="66" spans="4:19" x14ac:dyDescent="0.2">
       <c r="G66" s="30" t="s">
@@ -8111,23 +8131,23 @@
         <f>E71-E70</f>
         <v>1.75</v>
       </c>
-      <c r="I66" s="93" t="s">
+      <c r="I66" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="J66" s="93"/>
-      <c r="K66" s="97"/>
-      <c r="L66" s="98"/>
-      <c r="M66" s="98"/>
-      <c r="N66" s="98"/>
-      <c r="O66" s="98"/>
-      <c r="P66" s="98"/>
-      <c r="Q66" s="98"/>
+      <c r="J66" s="94"/>
+      <c r="K66" s="98"/>
+      <c r="L66" s="99"/>
+      <c r="M66" s="99"/>
+      <c r="N66" s="99"/>
+      <c r="O66" s="99"/>
+      <c r="P66" s="99"/>
+      <c r="Q66" s="99"/>
     </row>
     <row r="67" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="D67" s="94" t="s">
+      <c r="D67" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="E67" s="95"/>
+      <c r="E67" s="96"/>
       <c r="G67" s="30" t="s">
         <v>23</v>
       </c>
@@ -8135,17 +8155,17 @@
         <f>E71/E69</f>
         <v>1</v>
       </c>
-      <c r="I67" s="93" t="s">
+      <c r="I67" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="J67" s="93"/>
-      <c r="K67" s="97"/>
-      <c r="L67" s="98"/>
-      <c r="M67" s="98"/>
-      <c r="N67" s="98"/>
-      <c r="O67" s="98"/>
-      <c r="P67" s="98"/>
-      <c r="Q67" s="98"/>
+      <c r="J67" s="94"/>
+      <c r="K67" s="98"/>
+      <c r="L67" s="99"/>
+      <c r="M67" s="99"/>
+      <c r="N67" s="99"/>
+      <c r="O67" s="99"/>
+      <c r="P67" s="99"/>
+      <c r="Q67" s="99"/>
     </row>
     <row r="68" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D68" s="25" t="s">
@@ -8162,17 +8182,17 @@
         <f>E71/E70</f>
         <v>1.2592592592592593</v>
       </c>
-      <c r="I68" s="93" t="s">
+      <c r="I68" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="J68" s="93"/>
-      <c r="K68" s="97"/>
-      <c r="L68" s="98"/>
-      <c r="M68" s="98"/>
-      <c r="N68" s="98"/>
-      <c r="O68" s="98"/>
-      <c r="P68" s="98"/>
-      <c r="Q68" s="98"/>
+      <c r="J68" s="94"/>
+      <c r="K68" s="98"/>
+      <c r="L68" s="99"/>
+      <c r="M68" s="99"/>
+      <c r="N68" s="99"/>
+      <c r="O68" s="99"/>
+      <c r="P68" s="99"/>
+      <c r="Q68" s="99"/>
       <c r="R68" s="26"/>
       <c r="S68" s="26"/>
     </row>
@@ -8192,17 +8212,17 @@
         <f>E68-E71</f>
         <v>216.5</v>
       </c>
-      <c r="I69" s="93" t="s">
+      <c r="I69" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="J69" s="93"/>
-      <c r="K69" s="97"/>
-      <c r="L69" s="98"/>
-      <c r="M69" s="98"/>
-      <c r="N69" s="98"/>
-      <c r="O69" s="98"/>
-      <c r="P69" s="98"/>
-      <c r="Q69" s="98"/>
+      <c r="J69" s="94"/>
+      <c r="K69" s="98"/>
+      <c r="L69" s="99"/>
+      <c r="M69" s="99"/>
+      <c r="N69" s="99"/>
+      <c r="O69" s="99"/>
+      <c r="P69" s="99"/>
+      <c r="Q69" s="99"/>
       <c r="R69" s="26"/>
       <c r="S69" s="26"/>
     </row>
@@ -8222,17 +8242,17 @@
         <f>(E68-E71)/(H67*H68)</f>
         <v>171.92647058823528</v>
       </c>
-      <c r="I70" s="93" t="s">
+      <c r="I70" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="J70" s="93"/>
-      <c r="K70" s="97"/>
-      <c r="L70" s="98"/>
-      <c r="M70" s="98"/>
-      <c r="N70" s="98"/>
-      <c r="O70" s="98"/>
-      <c r="P70" s="98"/>
-      <c r="Q70" s="98"/>
+      <c r="J70" s="94"/>
+      <c r="K70" s="98"/>
+      <c r="L70" s="99"/>
+      <c r="M70" s="99"/>
+      <c r="N70" s="99"/>
+      <c r="O70" s="99"/>
+      <c r="P70" s="99"/>
+      <c r="Q70" s="99"/>
       <c r="R70" s="26"/>
       <c r="S70" s="26"/>
     </row>
@@ -8252,17 +8272,17 @@
         <f>E70+(E68-E71)</f>
         <v>223.25</v>
       </c>
-      <c r="I71" s="93" t="s">
+      <c r="I71" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="J71" s="93"/>
-      <c r="K71" s="97"/>
-      <c r="L71" s="98"/>
-      <c r="M71" s="98"/>
-      <c r="N71" s="98"/>
-      <c r="O71" s="98"/>
-      <c r="P71" s="98"/>
-      <c r="Q71" s="98"/>
+      <c r="J71" s="94"/>
+      <c r="K71" s="98"/>
+      <c r="L71" s="99"/>
+      <c r="M71" s="99"/>
+      <c r="N71" s="99"/>
+      <c r="O71" s="99"/>
+      <c r="P71" s="99"/>
+      <c r="Q71" s="99"/>
       <c r="R71" s="26"/>
       <c r="S71" s="26"/>
     </row>
@@ -8275,17 +8295,17 @@
         <f>E68/H68</f>
         <v>178.67647058823528</v>
       </c>
-      <c r="I72" s="93" t="s">
+      <c r="I72" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="J72" s="117"/>
-      <c r="K72" s="97"/>
-      <c r="L72" s="98"/>
-      <c r="M72" s="98"/>
-      <c r="N72" s="98"/>
-      <c r="O72" s="98"/>
-      <c r="P72" s="98"/>
-      <c r="Q72" s="98"/>
+      <c r="J72" s="118"/>
+      <c r="K72" s="98"/>
+      <c r="L72" s="99"/>
+      <c r="M72" s="99"/>
+      <c r="N72" s="99"/>
+      <c r="O72" s="99"/>
+      <c r="P72" s="99"/>
+      <c r="Q72" s="99"/>
       <c r="R72" s="26"/>
       <c r="S72" s="26"/>
     </row>
@@ -8299,17 +8319,17 @@
         <f>E70+(E68-E71)/(H67*H68)</f>
         <v>178.67647058823528</v>
       </c>
-      <c r="I73" s="93" t="s">
+      <c r="I73" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="J73" s="117"/>
-      <c r="K73" s="97"/>
-      <c r="L73" s="98"/>
-      <c r="M73" s="98"/>
-      <c r="N73" s="98"/>
-      <c r="O73" s="98"/>
-      <c r="P73" s="98"/>
-      <c r="Q73" s="98"/>
+      <c r="J73" s="118"/>
+      <c r="K73" s="98"/>
+      <c r="L73" s="99"/>
+      <c r="M73" s="99"/>
+      <c r="N73" s="99"/>
+      <c r="O73" s="99"/>
+      <c r="P73" s="99"/>
+      <c r="Q73" s="99"/>
       <c r="R73" s="26"/>
       <c r="S73" s="26"/>
     </row>
@@ -8323,17 +8343,17 @@
         <f>(E68-E71)/(E68-E70)</f>
         <v>0.99198167239404356</v>
       </c>
-      <c r="I74" s="93" t="s">
+      <c r="I74" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="J74" s="117"/>
-      <c r="K74" s="97"/>
-      <c r="L74" s="98"/>
-      <c r="M74" s="98"/>
-      <c r="N74" s="98"/>
-      <c r="O74" s="98"/>
-      <c r="P74" s="98"/>
-      <c r="Q74" s="98"/>
+      <c r="J74" s="118"/>
+      <c r="K74" s="98"/>
+      <c r="L74" s="99"/>
+      <c r="M74" s="99"/>
+      <c r="N74" s="99"/>
+      <c r="O74" s="99"/>
+      <c r="P74" s="99"/>
+      <c r="Q74" s="99"/>
       <c r="R74" s="26"/>
       <c r="S74" s="26"/>
     </row>
@@ -8622,10 +8642,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK151"/>
+  <dimension ref="A1:AK152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="S88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AK119" sqref="AK119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8636,84 +8656,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="109" t="s">
+      <c r="C1" s="113"/>
+      <c r="D1" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="115" t="s">
+      <c r="E1" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="115" t="s">
+      <c r="F1" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="115" t="s">
+      <c r="G1" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="101" t="s">
+      <c r="H1" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="102"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="104" t="s">
+      <c r="I1" s="103"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="102"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="102"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="102"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="104" t="s">
+      <c r="L1" s="103"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="103"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="103"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="105" t="s">
         <v>231</v>
       </c>
-      <c r="U1" s="102"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="104" t="s">
+      <c r="U1" s="103"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="105" t="s">
         <v>232</v>
       </c>
-      <c r="X1" s="102"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="104" t="s">
+      <c r="X1" s="103"/>
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="105" t="s">
         <v>233</v>
       </c>
-      <c r="AA1" s="102"/>
-      <c r="AB1" s="103"/>
-      <c r="AC1" s="104" t="s">
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="105" t="s">
         <v>234</v>
       </c>
-      <c r="AD1" s="102"/>
-      <c r="AE1" s="103"/>
-      <c r="AF1" s="104" t="s">
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="105" t="s">
         <v>235</v>
       </c>
-      <c r="AG1" s="102"/>
-      <c r="AH1" s="103"/>
-      <c r="AI1" s="101" t="s">
+      <c r="AG1" s="103"/>
+      <c r="AH1" s="104"/>
+      <c r="AI1" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="AJ1" s="102"/>
-      <c r="AK1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="104"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A2" s="121"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
+      <c r="A2" s="122"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
       <c r="H2" s="2">
         <v>44081</v>
       </c>
@@ -8803,17 +8823,17 @@
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A3" s="121"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="76" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
       <c r="H3" s="19" t="s">
         <v>12</v>
       </c>
@@ -8949,15 +8969,15 @@
       <c r="AG4" s="35"/>
       <c r="AH4" s="35"/>
       <c r="AI4" s="92">
-        <f t="shared" ref="AI4:AI49" si="0">H4+K4+N4+Q4</f>
+        <f>H4+K4+N4+Q4+T4+W4+Z4+AC4+AF4</f>
         <v>0</v>
       </c>
       <c r="AJ4" s="92">
-        <f t="shared" ref="AJ4:AJ49" si="1">I4+L4+O4+R4</f>
+        <f>I4+L4+O4+R4+U4+X4+AA4+AD4+AG4</f>
         <v>0</v>
       </c>
       <c r="AK4" s="92">
-        <f t="shared" ref="AK4:AK49" si="2">J4+M4+P4+S4</f>
+        <f>J4+M4+P4+S4+V4+Y4+AB4+AE4+AH4</f>
         <v>0</v>
       </c>
     </row>
@@ -9009,15 +9029,15 @@
       <c r="AG5" s="35"/>
       <c r="AH5" s="35"/>
       <c r="AI5" s="92">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AI5:AI68" si="0">H5+K5+N5+Q5+T5+W5+Z5+AC5+AF5</f>
         <v>0</v>
       </c>
       <c r="AJ5" s="92">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AJ5:AJ68" si="1">I5+L5+O5+R5+U5+X5+AA5+AD5+AG5</f>
         <v>0</v>
       </c>
       <c r="AK5" s="92">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AK5:AK68" si="2">J5+M5+P5+S5+V5+Y5+AB5+AE5+AH5</f>
         <v>0</v>
       </c>
     </row>
@@ -9101,20 +9121,14 @@
         <v>15</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" s="47">
-        <v>0</v>
-      </c>
-      <c r="I7" s="47">
-        <v>0</v>
-      </c>
-      <c r="J7" s="45">
-        <v>0</v>
-      </c>
-      <c r="K7" s="58">
-        <v>0.5</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="47"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="58"/>
       <c r="L7" s="21">
         <v>0.5</v>
       </c>
@@ -9235,20 +9249,14 @@
         <v>15</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" s="47">
-        <v>0</v>
-      </c>
-      <c r="I9" s="47">
-        <v>0</v>
-      </c>
-      <c r="J9" s="45">
-        <v>0</v>
-      </c>
-      <c r="K9" s="58">
-        <v>0.5</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="47"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="58"/>
       <c r="L9" s="21">
         <v>0.5</v>
       </c>
@@ -9493,20 +9501,14 @@
         <v>15</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H13" s="47">
-        <v>0</v>
-      </c>
-      <c r="I13" s="47">
-        <v>0</v>
-      </c>
-      <c r="J13" s="45">
-        <v>0</v>
-      </c>
-      <c r="K13" s="58">
-        <v>0.5</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="47"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="58"/>
       <c r="L13" s="21">
         <v>0.5</v>
       </c>
@@ -9627,20 +9629,14 @@
         <v>15</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" s="47">
-        <v>0</v>
-      </c>
-      <c r="I15" s="47">
-        <v>0</v>
-      </c>
-      <c r="J15" s="45">
-        <v>0</v>
-      </c>
-      <c r="K15" s="58">
-        <v>0.5</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="47"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="58"/>
       <c r="L15" s="21">
         <v>0.5</v>
       </c>
@@ -9885,20 +9881,14 @@
         <v>15</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H19" s="47">
-        <v>0</v>
-      </c>
-      <c r="I19" s="47">
-        <v>0</v>
-      </c>
-      <c r="J19" s="46">
-        <v>0</v>
-      </c>
-      <c r="K19" s="58">
-        <v>0.5</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="47"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="58"/>
       <c r="L19" s="21">
         <v>0.5</v>
       </c>
@@ -10019,20 +10009,14 @@
         <v>15</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H21" s="47">
-        <v>0</v>
-      </c>
-      <c r="I21" s="47">
-        <v>0</v>
-      </c>
-      <c r="J21" s="45">
-        <v>0</v>
-      </c>
-      <c r="K21" s="58">
-        <v>0.5</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="I21" s="47"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="58"/>
       <c r="L21" s="58">
         <v>0.5</v>
       </c>
@@ -11869,16 +11853,16 @@
       <c r="AG50" s="35"/>
       <c r="AH50" s="35"/>
       <c r="AI50" s="92">
-        <f t="shared" ref="AI50:AI77" si="3">H50+K50+N50+Q50</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="AJ50" s="92">
-        <f t="shared" ref="AJ50:AJ77" si="4">I50+L50+O50+R50</f>
-        <v>0.5</v>
-      </c>
-      <c r="AK50" s="92" t="e">
-        <f>P50+M50+#REF!+S50</f>
-        <v>#REF!</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK50" s="92">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.2">
@@ -11933,16 +11917,16 @@
       <c r="AG51" s="35"/>
       <c r="AH51" s="35"/>
       <c r="AI51" s="92">
-        <f t="shared" si="3"/>
+        <f>H51+K51+N51+Q51+T51+W51+Z51+AC51+AF51</f>
         <v>2</v>
       </c>
       <c r="AJ51" s="92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AK51" s="92" t="e">
-        <f>P51+M51+#REF!+S51</f>
-        <v>#REF!</v>
+      <c r="AK51" s="92">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
       </c>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.2">
@@ -11972,9 +11956,7 @@
       <c r="N52" s="82">
         <v>2</v>
       </c>
-      <c r="O52" s="36">
-        <v>0</v>
-      </c>
+      <c r="O52" s="36"/>
       <c r="P52" s="46"/>
       <c r="Q52" s="77"/>
       <c r="R52" s="77"/>
@@ -11995,16 +11977,16 @@
       <c r="AG52" s="35"/>
       <c r="AH52" s="35"/>
       <c r="AI52" s="92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AJ52" s="92">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AK52" s="92" t="e">
-        <f>P52+M52+#REF!+S52</f>
-        <v>#REF!</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK52" s="92">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.2">
@@ -12055,16 +12037,16 @@
       <c r="AG53" s="35"/>
       <c r="AH53" s="35"/>
       <c r="AI53" s="92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ53" s="92">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AK53" s="92" t="e">
-        <f>P53+M53+#REF!+S53</f>
-        <v>#REF!</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK53" s="92">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.2">
@@ -12115,16 +12097,16 @@
       <c r="AG54" s="35"/>
       <c r="AH54" s="35"/>
       <c r="AI54" s="92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ54" s="92">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AK54" s="92" t="e">
-        <f>P54+M54+#REF!+S54</f>
-        <v>#REF!</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK54" s="92">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.2">
@@ -12151,7 +12133,9 @@
       <c r="K55" s="41"/>
       <c r="L55" s="77"/>
       <c r="M55" s="77"/>
-      <c r="N55" s="82"/>
+      <c r="N55" s="82">
+        <v>1</v>
+      </c>
       <c r="O55" s="36"/>
       <c r="P55" s="46"/>
       <c r="Q55" s="77"/>
@@ -12173,16 +12157,16 @@
       <c r="AG55" s="35"/>
       <c r="AH55" s="35"/>
       <c r="AI55" s="92">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AJ55" s="92">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AK55" s="92" t="e">
-        <f>P55+M55+#REF!+S55</f>
-        <v>#REF!</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK55" s="92">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.2">
@@ -12209,7 +12193,9 @@
       <c r="K56" s="41"/>
       <c r="L56" s="77"/>
       <c r="M56" s="77"/>
-      <c r="N56" s="82"/>
+      <c r="N56" s="82">
+        <v>1</v>
+      </c>
       <c r="O56" s="36"/>
       <c r="P56" s="46"/>
       <c r="Q56" s="77"/>
@@ -12231,16 +12217,16 @@
       <c r="AG56" s="35"/>
       <c r="AH56" s="35"/>
       <c r="AI56" s="92">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AJ56" s="92">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AK56" s="92" t="e">
-        <f>P56+M56+#REF!+S56</f>
-        <v>#REF!</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK56" s="92">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.2">
@@ -12291,16 +12277,16 @@
       <c r="AG57" s="35"/>
       <c r="AH57" s="35"/>
       <c r="AI57" s="92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ57" s="92">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AK57" s="92" t="e">
-        <f>P57+M57+#REF!+S57</f>
-        <v>#REF!</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK57" s="92">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.2">
@@ -12351,16 +12337,16 @@
       <c r="AG58" s="35"/>
       <c r="AH58" s="35"/>
       <c r="AI58" s="92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ58" s="92">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AK58" s="92" t="e">
-        <f>P59+M58+#REF!+S58</f>
-        <v>#REF!</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK58" s="92">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.2">
@@ -12415,16 +12401,16 @@
       <c r="AG59" s="35"/>
       <c r="AH59" s="35"/>
       <c r="AI59" s="92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="AJ59" s="92">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="AK59" s="92" t="e">
-        <f>P60+M59+#REF!+S59</f>
-        <v>#REF!</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK59" s="92">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.2">
@@ -12479,16 +12465,16 @@
       <c r="AG60" s="35"/>
       <c r="AH60" s="35"/>
       <c r="AI60" s="92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="AJ60" s="92">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="AK60" s="92" t="e">
-        <f>P61+M60+#REF!+S60</f>
-        <v>#REF!</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK60" s="92">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.2">
@@ -12543,16 +12529,16 @@
       <c r="AG61" s="35"/>
       <c r="AH61" s="35"/>
       <c r="AI61" s="92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="AJ61" s="92">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="AK61" s="92" t="e">
-        <f>P62+M61+#REF!+S61</f>
-        <v>#REF!</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK61" s="92">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.2">
@@ -12607,16 +12593,16 @@
       <c r="AG62" s="35"/>
       <c r="AH62" s="35"/>
       <c r="AI62" s="92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="AJ62" s="92">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="AK62" s="92" t="e">
-        <f>#REF!+M62+#REF!+S62</f>
-        <v>#REF!</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK62" s="92">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.2">
@@ -12667,15 +12653,15 @@
       <c r="AG63" s="35"/>
       <c r="AH63" s="35"/>
       <c r="AI63" s="92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ63" s="92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK63" s="92">
-        <f t="shared" ref="AK63:AK77" si="5">J63+M63+P63+S63</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12731,15 +12717,15 @@
       <c r="AG64" s="35"/>
       <c r="AH64" s="35"/>
       <c r="AI64" s="92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AJ64" s="92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AK64" s="92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
     </row>
@@ -12767,7 +12753,9 @@
       <c r="K65" s="77"/>
       <c r="L65" s="77"/>
       <c r="M65" s="77"/>
-      <c r="N65" s="82"/>
+      <c r="N65" s="82">
+        <v>1</v>
+      </c>
       <c r="O65" s="36"/>
       <c r="P65" s="36"/>
       <c r="Q65" s="77"/>
@@ -12789,15 +12777,15 @@
       <c r="AG65" s="35"/>
       <c r="AH65" s="35"/>
       <c r="AI65" s="92">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AJ65" s="92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK65" s="92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12849,91 +12837,81 @@
       <c r="AG66" s="35"/>
       <c r="AH66" s="35"/>
       <c r="AI66" s="92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ66" s="92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK66" s="92">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A67" s="28">
-        <v>64</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="28"/>
       <c r="B67" s="49" t="s">
         <v>142</v>
       </c>
       <c r="C67" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="D67" s="50" t="s">
-        <v>144</v>
-      </c>
+      <c r="D67" s="50"/>
       <c r="E67" s="41">
-        <v>2</v>
-      </c>
-      <c r="F67" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>123</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F67" s="12"/>
+      <c r="G67" s="11"/>
       <c r="H67" s="46"/>
       <c r="I67" s="46"/>
       <c r="J67" s="46"/>
-      <c r="K67" s="77"/>
-      <c r="L67" s="77"/>
-      <c r="M67" s="77"/>
+      <c r="K67" s="93"/>
+      <c r="L67" s="93"/>
+      <c r="M67" s="93"/>
       <c r="N67" s="82"/>
       <c r="O67" s="36"/>
       <c r="P67" s="36"/>
-      <c r="Q67" s="77"/>
-      <c r="R67" s="77"/>
-      <c r="S67" s="77"/>
+      <c r="Q67" s="93"/>
+      <c r="R67" s="93"/>
+      <c r="S67" s="93"/>
       <c r="T67" s="35"/>
       <c r="U67" s="35"/>
       <c r="V67" s="35"/>
-      <c r="W67" s="90"/>
-      <c r="X67" s="90"/>
-      <c r="Y67" s="90"/>
+      <c r="W67" s="93"/>
+      <c r="X67" s="93"/>
+      <c r="Y67" s="93"/>
       <c r="Z67" s="35"/>
       <c r="AA67" s="35"/>
       <c r="AB67" s="35"/>
-      <c r="AC67" s="90"/>
-      <c r="AD67" s="90"/>
-      <c r="AE67" s="90"/>
+      <c r="AC67" s="93"/>
+      <c r="AD67" s="93"/>
+      <c r="AE67" s="93"/>
       <c r="AF67" s="35"/>
       <c r="AG67" s="35"/>
       <c r="AH67" s="35"/>
       <c r="AI67" s="92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ67" s="92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK67" s="92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A68" s="28">
-        <v>65</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="15"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="50"/>
       <c r="D68" s="50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E68" s="41">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F68" s="12" t="s">
         <v>123</v>
@@ -12948,14 +12926,10 @@
       <c r="L68" s="77"/>
       <c r="M68" s="77"/>
       <c r="N68" s="82">
-        <v>0.5</v>
-      </c>
-      <c r="O68" s="82">
-        <v>0.5</v>
-      </c>
-      <c r="P68" s="82">
-        <v>1.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O68" s="36"/>
+      <c r="P68" s="36"/>
       <c r="Q68" s="77"/>
       <c r="R68" s="77"/>
       <c r="S68" s="77"/>
@@ -12975,26 +12949,24 @@
       <c r="AG68" s="35"/>
       <c r="AH68" s="35"/>
       <c r="AI68" s="92">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="AJ68" s="92">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AK68" s="92">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A69" s="28">
-        <v>66</v>
-      </c>
-      <c r="B69" s="1"/>
+      <c r="A69" s="28"/>
+      <c r="B69" s="14"/>
       <c r="C69" s="15"/>
       <c r="D69" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E69" s="41">
         <v>0.5</v>
@@ -13011,9 +12983,15 @@
       <c r="K69" s="77"/>
       <c r="L69" s="77"/>
       <c r="M69" s="77"/>
-      <c r="N69" s="82"/>
-      <c r="O69" s="36"/>
-      <c r="P69" s="36"/>
+      <c r="N69" s="82">
+        <v>0.5</v>
+      </c>
+      <c r="O69" s="82">
+        <v>0.5</v>
+      </c>
+      <c r="P69" s="82">
+        <v>1.5</v>
+      </c>
       <c r="Q69" s="77"/>
       <c r="R69" s="77"/>
       <c r="S69" s="77"/>
@@ -13033,31 +13011,27 @@
       <c r="AG69" s="35"/>
       <c r="AH69" s="35"/>
       <c r="AI69" s="92">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="AI69:AI117" si="3">H69+K69+N69+Q69+T69+W69+Z69+AC69+AF69</f>
+        <v>0.5</v>
       </c>
       <c r="AJ69" s="92">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="AJ69:AJ117" si="4">I69+L69+O69+R69+U69+X69+AA69+AD69+AG69</f>
+        <v>0.5</v>
       </c>
       <c r="AK69" s="92">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>J69+M69+P69+S69+V69+Y69+AB69+AE69+AH69</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A70" s="28">
-        <v>67</v>
-      </c>
-      <c r="B70" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="C70" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="D70" s="50"/>
+      <c r="A70" s="28"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="50" t="s">
+        <v>146</v>
+      </c>
       <c r="E70" s="41">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F70" s="12" t="s">
         <v>123</v>
@@ -13071,7 +13045,9 @@
       <c r="K70" s="77"/>
       <c r="L70" s="77"/>
       <c r="M70" s="77"/>
-      <c r="N70" s="82"/>
+      <c r="N70" s="82">
+        <v>0.5</v>
+      </c>
       <c r="O70" s="36"/>
       <c r="P70" s="36"/>
       <c r="Q70" s="77"/>
@@ -13094,28 +13070,28 @@
       <c r="AH70" s="35"/>
       <c r="AI70" s="92">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AJ70" s="92">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AK70" s="92">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AK69:AK117" si="5">J70+M70+P70+S70+V70+Y70+AB70+AE70+AH70</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A71" s="28">
-        <v>68</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="50" t="s">
-        <v>149</v>
-      </c>
+      <c r="A71" s="28"/>
+      <c r="B71" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="D71" s="50"/>
       <c r="E71" s="41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F71" s="12" t="s">
         <v>123</v>
@@ -13164,13 +13140,11 @@
       </c>
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A72" s="28">
-        <v>69</v>
-      </c>
+      <c r="A72" s="28"/>
       <c r="B72" s="14"/>
       <c r="C72" s="15"/>
-      <c r="D72" s="16" t="s">
-        <v>150</v>
+      <c r="D72" s="50" t="s">
+        <v>149</v>
       </c>
       <c r="E72" s="41">
         <v>0.5</v>
@@ -13187,9 +13161,11 @@
       <c r="K72" s="77"/>
       <c r="L72" s="77"/>
       <c r="M72" s="77"/>
-      <c r="N72" s="82"/>
+      <c r="N72" s="82">
+        <v>0.5</v>
+      </c>
       <c r="O72" s="36"/>
-      <c r="P72" s="46"/>
+      <c r="P72" s="36"/>
       <c r="Q72" s="77"/>
       <c r="R72" s="77"/>
       <c r="S72" s="77"/>
@@ -13210,7 +13186,7 @@
       <c r="AH72" s="35"/>
       <c r="AI72" s="92">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AJ72" s="92">
         <f t="shared" si="4"/>
@@ -13222,18 +13198,14 @@
       </c>
     </row>
     <row r="73" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A73" s="28">
-        <v>70</v>
-      </c>
-      <c r="B73" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="C73" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="D73" s="16"/>
+      <c r="A73" s="28"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="16" t="s">
+        <v>150</v>
+      </c>
       <c r="E73" s="41">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="F73" s="12" t="s">
         <v>123</v>
@@ -13247,7 +13219,9 @@
       <c r="K73" s="77"/>
       <c r="L73" s="77"/>
       <c r="M73" s="77"/>
-      <c r="N73" s="82"/>
+      <c r="N73" s="82">
+        <v>0.5</v>
+      </c>
       <c r="O73" s="36"/>
       <c r="P73" s="46"/>
       <c r="Q73" s="77"/>
@@ -13270,7 +13244,7 @@
       <c r="AH73" s="35"/>
       <c r="AI73" s="92">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AJ73" s="92">
         <f t="shared" si="4"/>
@@ -13282,16 +13256,16 @@
       </c>
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A74" s="28">
-        <v>71</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="50" t="s">
-        <v>153</v>
-      </c>
+      <c r="A74" s="28"/>
+      <c r="B74" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="D74" s="16"/>
       <c r="E74" s="41">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="F74" s="12" t="s">
         <v>123</v>
@@ -13305,15 +13279,9 @@
       <c r="K74" s="77"/>
       <c r="L74" s="77"/>
       <c r="M74" s="77"/>
-      <c r="N74" s="82">
-        <v>0.5</v>
-      </c>
-      <c r="O74" s="82">
-        <v>0.5</v>
-      </c>
-      <c r="P74" s="46">
-        <v>0.5</v>
-      </c>
+      <c r="N74" s="82"/>
+      <c r="O74" s="36"/>
+      <c r="P74" s="46"/>
       <c r="Q74" s="77"/>
       <c r="R74" s="77"/>
       <c r="S74" s="77"/>
@@ -13334,28 +13302,26 @@
       <c r="AH74" s="35"/>
       <c r="AI74" s="92">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AJ74" s="92">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AK74" s="92">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A75" s="28">
-        <v>72</v>
-      </c>
+      <c r="A75" s="28"/>
       <c r="B75" s="14"/>
       <c r="C75" s="15"/>
       <c r="D75" s="50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E75" s="41">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F75" s="12" t="s">
         <v>123</v>
@@ -13370,13 +13336,13 @@
       <c r="L75" s="77"/>
       <c r="M75" s="77"/>
       <c r="N75" s="82">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="O75" s="82">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="P75" s="46">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q75" s="77"/>
       <c r="R75" s="77"/>
@@ -13398,25 +13364,23 @@
       <c r="AH75" s="35"/>
       <c r="AI75" s="92">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AJ75" s="92">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AK75" s="92">
         <f t="shared" si="5"/>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A76" s="28">
-        <v>73</v>
-      </c>
+      <c r="A76" s="28"/>
       <c r="B76" s="14"/>
       <c r="C76" s="15"/>
       <c r="D76" s="50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E76" s="41">
         <v>2</v>
@@ -13440,7 +13404,7 @@
         <v>2</v>
       </c>
       <c r="P76" s="46">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q76" s="77"/>
       <c r="R76" s="77"/>
@@ -13470,20 +13434,18 @@
       </c>
       <c r="AK76" s="92">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="77" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A77" s="28">
-        <v>74</v>
-      </c>
+      <c r="A77" s="28"/>
       <c r="B77" s="14"/>
       <c r="C77" s="15"/>
-      <c r="D77" s="16" t="s">
-        <v>150</v>
+      <c r="D77" s="50" t="s">
+        <v>155</v>
       </c>
       <c r="E77" s="41">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F77" s="12" t="s">
         <v>123</v>
@@ -13498,12 +13460,12 @@
       <c r="L77" s="77"/>
       <c r="M77" s="77"/>
       <c r="N77" s="82">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="O77" s="82">
-        <v>0.5</v>
-      </c>
-      <c r="P77" s="82">
+        <v>2</v>
+      </c>
+      <c r="P77" s="46">
         <v>0.5</v>
       </c>
       <c r="Q77" s="77"/>
@@ -13526,11 +13488,11 @@
       <c r="AH77" s="35"/>
       <c r="AI77" s="92">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AJ77" s="92">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AK77" s="92">
         <f t="shared" si="5"/>
@@ -13538,63 +13500,74 @@
       </c>
     </row>
     <row r="78" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A78" s="28">
-        <v>75</v>
-      </c>
-      <c r="B78" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="C78" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28">
-        <v>1</v>
-      </c>
-      <c r="F78" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="G78" s="28" t="s">
-        <v>196</v>
+      <c r="A78" s="28"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="E78" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="H78" s="46"/>
       <c r="I78" s="46"/>
       <c r="J78" s="46"/>
-      <c r="K78" s="54"/>
-      <c r="L78" s="54"/>
-      <c r="M78" s="54"/>
-      <c r="N78" s="82"/>
-      <c r="O78" s="82"/>
-      <c r="P78" s="82"/>
-      <c r="Q78" s="56"/>
-      <c r="R78" s="56"/>
-      <c r="S78" s="56"/>
+      <c r="K78" s="77"/>
+      <c r="L78" s="77"/>
+      <c r="M78" s="77"/>
+      <c r="N78" s="82">
+        <v>0.5</v>
+      </c>
+      <c r="O78" s="82">
+        <v>0.5</v>
+      </c>
+      <c r="P78" s="82">
+        <v>0.5</v>
+      </c>
+      <c r="Q78" s="77"/>
+      <c r="R78" s="77"/>
+      <c r="S78" s="77"/>
       <c r="T78" s="35"/>
       <c r="U78" s="35"/>
       <c r="V78" s="35"/>
-      <c r="W78" s="56"/>
-      <c r="X78" s="56"/>
-      <c r="Y78" s="56"/>
+      <c r="W78" s="90"/>
+      <c r="X78" s="90"/>
+      <c r="Y78" s="90"/>
       <c r="Z78" s="35"/>
       <c r="AA78" s="35"/>
       <c r="AB78" s="35"/>
-      <c r="AC78" s="56"/>
-      <c r="AD78" s="56"/>
-      <c r="AE78" s="56"/>
+      <c r="AC78" s="90"/>
+      <c r="AD78" s="90"/>
+      <c r="AE78" s="90"/>
       <c r="AF78" s="35"/>
       <c r="AG78" s="35"/>
       <c r="AH78" s="35"/>
-      <c r="AI78" s="92"/>
-      <c r="AJ78" s="92"/>
-      <c r="AK78" s="92"/>
+      <c r="AI78" s="92">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ78" s="92">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK78" s="92">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="79" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A79" s="28">
-        <v>76</v>
-      </c>
-      <c r="B79" s="28"/>
+      <c r="A79" s="28"/>
+      <c r="B79" s="28" t="s">
+        <v>177</v>
+      </c>
       <c r="C79" s="28" t="s">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="D79" s="28"/>
       <c r="E79" s="28">
@@ -13609,45 +13582,54 @@
       <c r="H79" s="46"/>
       <c r="I79" s="46"/>
       <c r="J79" s="46"/>
-      <c r="K79" s="79"/>
-      <c r="L79" s="79"/>
-      <c r="M79" s="79"/>
+      <c r="K79" s="54"/>
+      <c r="L79" s="54"/>
+      <c r="M79" s="54"/>
       <c r="N79" s="82"/>
       <c r="O79" s="82"/>
       <c r="P79" s="82"/>
-      <c r="Q79" s="80"/>
-      <c r="R79" s="80"/>
-      <c r="S79" s="80"/>
+      <c r="Q79" s="69"/>
+      <c r="R79" s="56"/>
+      <c r="S79" s="56"/>
       <c r="T79" s="35"/>
       <c r="U79" s="35"/>
       <c r="V79" s="35"/>
-      <c r="W79" s="80"/>
-      <c r="X79" s="80"/>
-      <c r="Y79" s="80"/>
+      <c r="W79" s="56"/>
+      <c r="X79" s="56"/>
+      <c r="Y79" s="56"/>
       <c r="Z79" s="35"/>
       <c r="AA79" s="35"/>
       <c r="AB79" s="35"/>
-      <c r="AC79" s="80"/>
-      <c r="AD79" s="80"/>
-      <c r="AE79" s="80"/>
+      <c r="AC79" s="56"/>
+      <c r="AD79" s="56"/>
+      <c r="AE79" s="56"/>
       <c r="AF79" s="35"/>
       <c r="AG79" s="35"/>
       <c r="AH79" s="35"/>
-      <c r="AI79" s="92"/>
-      <c r="AJ79" s="92"/>
-      <c r="AK79" s="92"/>
+      <c r="AI79" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ79" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK79" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A80" s="28">
-        <v>77</v>
-      </c>
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28" t="s">
-        <v>179</v>
-      </c>
+      <c r="A80" s="28"/>
+      <c r="B80" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="C80" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D80" s="28"/>
       <c r="E80" s="28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F80" s="28" t="s">
         <v>196</v>
@@ -13664,7 +13646,7 @@
       <c r="N80" s="82"/>
       <c r="O80" s="82"/>
       <c r="P80" s="82"/>
-      <c r="Q80" s="80"/>
+      <c r="Q80" s="69"/>
       <c r="R80" s="80"/>
       <c r="S80" s="80"/>
       <c r="T80" s="35"/>
@@ -13682,18 +13664,25 @@
       <c r="AF80" s="35"/>
       <c r="AG80" s="35"/>
       <c r="AH80" s="35"/>
-      <c r="AI80" s="92"/>
-      <c r="AJ80" s="92"/>
-      <c r="AK80" s="92"/>
+      <c r="AI80" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ80" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK80" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A81" s="28">
-        <v>78</v>
-      </c>
+      <c r="A81" s="28"/>
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
       <c r="D81" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E81" s="28">
         <v>0.5</v>
@@ -13713,7 +13702,9 @@
       <c r="N81" s="82"/>
       <c r="O81" s="82"/>
       <c r="P81" s="82"/>
-      <c r="Q81" s="80"/>
+      <c r="Q81" s="69">
+        <v>0.5</v>
+      </c>
       <c r="R81" s="80"/>
       <c r="S81" s="80"/>
       <c r="T81" s="35"/>
@@ -13731,23 +13722,28 @@
       <c r="AF81" s="35"/>
       <c r="AG81" s="35"/>
       <c r="AH81" s="35"/>
-      <c r="AI81" s="92"/>
-      <c r="AJ81" s="92"/>
-      <c r="AK81" s="92"/>
+      <c r="AI81" s="92">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ81" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK81" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A82" s="28">
-        <v>79</v>
-      </c>
-      <c r="B82" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="C82" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="D82" s="28"/>
+      <c r="A82" s="28"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28" t="s">
+        <v>180</v>
+      </c>
       <c r="E82" s="28">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="F82" s="28" t="s">
         <v>196</v>
@@ -13764,7 +13760,9 @@
       <c r="N82" s="82"/>
       <c r="O82" s="82"/>
       <c r="P82" s="82"/>
-      <c r="Q82" s="80"/>
+      <c r="Q82" s="69">
+        <v>0.5</v>
+      </c>
       <c r="R82" s="80"/>
       <c r="S82" s="80"/>
       <c r="T82" s="35"/>
@@ -13782,23 +13780,30 @@
       <c r="AF82" s="35"/>
       <c r="AG82" s="35"/>
       <c r="AH82" s="35"/>
-      <c r="AI82" s="92"/>
-      <c r="AJ82" s="92"/>
-      <c r="AK82" s="92"/>
+      <c r="AI82" s="92">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ82" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK82" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A83" s="28">
-        <v>80</v>
-      </c>
+      <c r="A83" s="28"/>
       <c r="B83" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="D83" s="28"/>
       <c r="E83" s="28">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="F83" s="28" t="s">
         <v>196</v>
@@ -13815,7 +13820,7 @@
       <c r="N83" s="82"/>
       <c r="O83" s="82"/>
       <c r="P83" s="82"/>
-      <c r="Q83" s="80"/>
+      <c r="Q83" s="69"/>
       <c r="R83" s="80"/>
       <c r="S83" s="80"/>
       <c r="T83" s="35"/>
@@ -13833,21 +13838,30 @@
       <c r="AF83" s="35"/>
       <c r="AG83" s="35"/>
       <c r="AH83" s="35"/>
-      <c r="AI83" s="92"/>
-      <c r="AJ83" s="92"/>
-      <c r="AK83" s="92"/>
+      <c r="AI83" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ83" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK83" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A84" s="28">
-        <v>81</v>
-      </c>
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28" t="s">
-        <v>184</v>
-      </c>
+      <c r="A84" s="28"/>
+      <c r="B84" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C84" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D84" s="28"/>
       <c r="E84" s="28">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="F84" s="28" t="s">
         <v>196</v>
@@ -13864,7 +13878,7 @@
       <c r="N84" s="82"/>
       <c r="O84" s="82"/>
       <c r="P84" s="82"/>
-      <c r="Q84" s="80"/>
+      <c r="Q84" s="69"/>
       <c r="R84" s="80"/>
       <c r="S84" s="80"/>
       <c r="T84" s="35"/>
@@ -13882,18 +13896,25 @@
       <c r="AF84" s="35"/>
       <c r="AG84" s="35"/>
       <c r="AH84" s="35"/>
-      <c r="AI84" s="92"/>
-      <c r="AJ84" s="92"/>
-      <c r="AK84" s="92"/>
+      <c r="AI84" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ84" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK84" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A85" s="28">
-        <v>82</v>
-      </c>
+      <c r="A85" s="28"/>
       <c r="B85" s="28"/>
       <c r="C85" s="28"/>
       <c r="D85" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E85" s="28">
         <v>1</v>
@@ -13913,7 +13934,9 @@
       <c r="N85" s="82"/>
       <c r="O85" s="82"/>
       <c r="P85" s="82"/>
-      <c r="Q85" s="80"/>
+      <c r="Q85" s="69">
+        <v>1</v>
+      </c>
       <c r="R85" s="80"/>
       <c r="S85" s="80"/>
       <c r="T85" s="35"/>
@@ -13931,21 +13954,28 @@
       <c r="AF85" s="35"/>
       <c r="AG85" s="35"/>
       <c r="AH85" s="35"/>
-      <c r="AI85" s="92"/>
-      <c r="AJ85" s="92"/>
-      <c r="AK85" s="92"/>
+      <c r="AI85" s="92">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AJ85" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK85" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A86" s="28">
-        <v>83</v>
-      </c>
+      <c r="A86" s="28"/>
       <c r="B86" s="28"/>
       <c r="C86" s="28"/>
       <c r="D86" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E86" s="28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F86" s="28" t="s">
         <v>196</v>
@@ -13962,7 +13992,9 @@
       <c r="N86" s="82"/>
       <c r="O86" s="82"/>
       <c r="P86" s="82"/>
-      <c r="Q86" s="80"/>
+      <c r="Q86" s="69">
+        <v>1</v>
+      </c>
       <c r="R86" s="80"/>
       <c r="S86" s="80"/>
       <c r="T86" s="35"/>
@@ -13980,23 +14012,28 @@
       <c r="AF86" s="35"/>
       <c r="AG86" s="35"/>
       <c r="AH86" s="35"/>
-      <c r="AI86" s="92"/>
-      <c r="AJ86" s="92"/>
-      <c r="AK86" s="92"/>
+      <c r="AI86" s="92">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AJ86" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK86" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A87" s="28">
-        <v>84</v>
-      </c>
-      <c r="B87" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="C87" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="D87" s="28"/>
+      <c r="A87" s="28"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28" t="s">
+        <v>186</v>
+      </c>
       <c r="E87" s="28">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="F87" s="28" t="s">
         <v>196</v>
@@ -14013,7 +14050,9 @@
       <c r="N87" s="82"/>
       <c r="O87" s="82"/>
       <c r="P87" s="82"/>
-      <c r="Q87" s="80"/>
+      <c r="Q87" s="69">
+        <v>0.5</v>
+      </c>
       <c r="R87" s="80"/>
       <c r="S87" s="80"/>
       <c r="T87" s="35"/>
@@ -14031,21 +14070,30 @@
       <c r="AF87" s="35"/>
       <c r="AG87" s="35"/>
       <c r="AH87" s="35"/>
-      <c r="AI87" s="92"/>
-      <c r="AJ87" s="92"/>
-      <c r="AK87" s="92"/>
+      <c r="AI87" s="92">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ87" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK87" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A88" s="28">
-        <v>85</v>
-      </c>
-      <c r="B88" s="28"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28" t="s">
-        <v>189</v>
-      </c>
+      <c r="A88" s="28"/>
+      <c r="B88" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C88" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D88" s="28"/>
       <c r="E88" s="28">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="F88" s="28" t="s">
         <v>196</v>
@@ -14062,7 +14110,7 @@
       <c r="N88" s="82"/>
       <c r="O88" s="82"/>
       <c r="P88" s="82"/>
-      <c r="Q88" s="80"/>
+      <c r="Q88" s="69"/>
       <c r="R88" s="80"/>
       <c r="S88" s="80"/>
       <c r="T88" s="35"/>
@@ -14080,21 +14128,28 @@
       <c r="AF88" s="35"/>
       <c r="AG88" s="35"/>
       <c r="AH88" s="35"/>
-      <c r="AI88" s="92"/>
-      <c r="AJ88" s="92"/>
-      <c r="AK88" s="92"/>
+      <c r="AI88" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ88" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK88" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A89" s="28">
-        <v>86</v>
-      </c>
+      <c r="A89" s="28"/>
       <c r="B89" s="28"/>
       <c r="C89" s="28"/>
       <c r="D89" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E89" s="28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F89" s="28" t="s">
         <v>196</v>
@@ -14111,7 +14166,9 @@
       <c r="N89" s="82"/>
       <c r="O89" s="82"/>
       <c r="P89" s="82"/>
-      <c r="Q89" s="80"/>
+      <c r="Q89" s="69">
+        <v>0.5</v>
+      </c>
       <c r="R89" s="80"/>
       <c r="S89" s="80"/>
       <c r="T89" s="35"/>
@@ -14129,18 +14186,25 @@
       <c r="AF89" s="35"/>
       <c r="AG89" s="35"/>
       <c r="AH89" s="35"/>
-      <c r="AI89" s="92"/>
-      <c r="AJ89" s="92"/>
-      <c r="AK89" s="92"/>
+      <c r="AI89" s="92">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ89" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK89" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A90" s="28">
-        <v>87</v>
-      </c>
+      <c r="A90" s="28"/>
       <c r="B90" s="28"/>
       <c r="C90" s="28"/>
       <c r="D90" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E90" s="28">
         <v>1</v>
@@ -14160,7 +14224,9 @@
       <c r="N90" s="82"/>
       <c r="O90" s="82"/>
       <c r="P90" s="82"/>
-      <c r="Q90" s="80"/>
+      <c r="Q90" s="69">
+        <v>1</v>
+      </c>
       <c r="R90" s="80"/>
       <c r="S90" s="80"/>
       <c r="T90" s="35"/>
@@ -14178,23 +14244,28 @@
       <c r="AF90" s="35"/>
       <c r="AG90" s="35"/>
       <c r="AH90" s="35"/>
-      <c r="AI90" s="92"/>
-      <c r="AJ90" s="92"/>
-      <c r="AK90" s="92"/>
+      <c r="AI90" s="92">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AJ90" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK90" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A91" s="28">
-        <v>88</v>
-      </c>
-      <c r="B91" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="C91" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="D91" s="28"/>
+      <c r="A91" s="28"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28" t="s">
+        <v>191</v>
+      </c>
       <c r="E91" s="28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F91" s="28" t="s">
         <v>196</v>
@@ -14211,7 +14282,9 @@
       <c r="N91" s="82"/>
       <c r="O91" s="82"/>
       <c r="P91" s="82"/>
-      <c r="Q91" s="80"/>
+      <c r="Q91" s="69">
+        <v>1</v>
+      </c>
       <c r="R91" s="80"/>
       <c r="S91" s="80"/>
       <c r="T91" s="35"/>
@@ -14229,21 +14302,30 @@
       <c r="AF91" s="35"/>
       <c r="AG91" s="35"/>
       <c r="AH91" s="35"/>
-      <c r="AI91" s="92"/>
-      <c r="AJ91" s="92"/>
-      <c r="AK91" s="92"/>
+      <c r="AI91" s="92">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AJ91" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK91" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A92" s="28">
-        <v>89</v>
-      </c>
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28" t="s">
-        <v>194</v>
-      </c>
+      <c r="A92" s="28"/>
+      <c r="B92" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="C92" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="D92" s="28"/>
       <c r="E92" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F92" s="28" t="s">
         <v>196</v>
@@ -14260,7 +14342,7 @@
       <c r="N92" s="82"/>
       <c r="O92" s="82"/>
       <c r="P92" s="82"/>
-      <c r="Q92" s="80"/>
+      <c r="Q92" s="69"/>
       <c r="R92" s="80"/>
       <c r="S92" s="80"/>
       <c r="T92" s="35"/>
@@ -14278,18 +14360,25 @@
       <c r="AF92" s="35"/>
       <c r="AG92" s="35"/>
       <c r="AH92" s="35"/>
-      <c r="AI92" s="92"/>
-      <c r="AJ92" s="92"/>
-      <c r="AK92" s="92"/>
+      <c r="AI92" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ92" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK92" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A93" s="28">
-        <v>90</v>
-      </c>
+      <c r="A93" s="28"/>
       <c r="B93" s="28"/>
       <c r="C93" s="28"/>
       <c r="D93" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E93" s="28">
         <v>2</v>
@@ -14309,7 +14398,9 @@
       <c r="N93" s="82"/>
       <c r="O93" s="82"/>
       <c r="P93" s="82"/>
-      <c r="Q93" s="80"/>
+      <c r="Q93" s="69">
+        <v>2</v>
+      </c>
       <c r="R93" s="80"/>
       <c r="S93" s="80"/>
       <c r="T93" s="35"/>
@@ -14327,29 +14418,34 @@
       <c r="AF93" s="35"/>
       <c r="AG93" s="35"/>
       <c r="AH93" s="35"/>
-      <c r="AI93" s="92"/>
-      <c r="AJ93" s="92"/>
-      <c r="AK93" s="92"/>
+      <c r="AI93" s="92">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AJ93" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK93" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A94" s="28">
-        <v>91</v>
-      </c>
-      <c r="B94" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="D94" s="28"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28" t="s">
+        <v>195</v>
+      </c>
       <c r="E94" s="28">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="F94" s="28" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="G94" s="28" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H94" s="46"/>
       <c r="I94" s="46"/>
@@ -14360,7 +14456,9 @@
       <c r="N94" s="82"/>
       <c r="O94" s="82"/>
       <c r="P94" s="82"/>
-      <c r="Q94" s="80"/>
+      <c r="Q94" s="69">
+        <v>2</v>
+      </c>
       <c r="R94" s="80"/>
       <c r="S94" s="80"/>
       <c r="T94" s="35"/>
@@ -14378,23 +14476,30 @@
       <c r="AF94" s="35"/>
       <c r="AG94" s="35"/>
       <c r="AH94" s="35"/>
-      <c r="AI94" s="92"/>
-      <c r="AJ94" s="92"/>
-      <c r="AK94" s="92"/>
+      <c r="AI94" s="92">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AJ94" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK94" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A95" s="28">
-        <v>92</v>
-      </c>
+      <c r="A95" s="28"/>
       <c r="B95" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D95" s="28"/>
       <c r="E95" s="28">
-        <v>3</v>
+        <v>8.5</v>
       </c>
       <c r="F95" s="28" t="s">
         <v>228</v>
@@ -14411,13 +14516,13 @@
       <c r="N95" s="82"/>
       <c r="O95" s="82"/>
       <c r="P95" s="82"/>
-      <c r="Q95" s="80"/>
+      <c r="Q95" s="163"/>
       <c r="R95" s="80"/>
       <c r="S95" s="80"/>
       <c r="T95" s="35"/>
       <c r="U95" s="35"/>
       <c r="V95" s="35"/>
-      <c r="W95" s="80"/>
+      <c r="W95" s="28"/>
       <c r="X95" s="80"/>
       <c r="Y95" s="80"/>
       <c r="Z95" s="35"/>
@@ -14429,21 +14534,30 @@
       <c r="AF95" s="35"/>
       <c r="AG95" s="35"/>
       <c r="AH95" s="35"/>
-      <c r="AI95" s="92"/>
-      <c r="AJ95" s="92"/>
-      <c r="AK95" s="92"/>
+      <c r="AI95" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ95" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK95" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A96" s="28">
-        <v>93</v>
-      </c>
-      <c r="B96" s="28"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28" t="s">
-        <v>201</v>
-      </c>
+      <c r="A96" s="28"/>
+      <c r="B96" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C96" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="D96" s="28"/>
       <c r="E96" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F96" s="28" t="s">
         <v>228</v>
@@ -14460,13 +14574,13 @@
       <c r="N96" s="82"/>
       <c r="O96" s="82"/>
       <c r="P96" s="82"/>
-      <c r="Q96" s="80"/>
+      <c r="Q96" s="163"/>
       <c r="R96" s="80"/>
       <c r="S96" s="80"/>
       <c r="T96" s="35"/>
       <c r="U96" s="35"/>
       <c r="V96" s="35"/>
-      <c r="W96" s="80"/>
+      <c r="W96" s="69"/>
       <c r="X96" s="80"/>
       <c r="Y96" s="80"/>
       <c r="Z96" s="35"/>
@@ -14478,18 +14592,25 @@
       <c r="AF96" s="35"/>
       <c r="AG96" s="35"/>
       <c r="AH96" s="35"/>
-      <c r="AI96" s="92"/>
-      <c r="AJ96" s="92"/>
-      <c r="AK96" s="92"/>
+      <c r="AI96" s="92">
+        <f>H96+K96+N96+Q96+T96+W96+Z96+AC96+AF96</f>
+        <v>0</v>
+      </c>
+      <c r="AJ96" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK96" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A97" s="28">
-        <v>94</v>
-      </c>
+      <c r="A97" s="28"/>
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
       <c r="D97" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E97" s="28">
         <v>1</v>
@@ -14509,13 +14630,15 @@
       <c r="N97" s="82"/>
       <c r="O97" s="82"/>
       <c r="P97" s="82"/>
-      <c r="Q97" s="80"/>
+      <c r="Q97" s="163"/>
       <c r="R97" s="80"/>
       <c r="S97" s="80"/>
       <c r="T97" s="35"/>
       <c r="U97" s="35"/>
       <c r="V97" s="35"/>
-      <c r="W97" s="80"/>
+      <c r="W97" s="69">
+        <v>1</v>
+      </c>
       <c r="X97" s="80"/>
       <c r="Y97" s="80"/>
       <c r="Z97" s="35"/>
@@ -14527,18 +14650,25 @@
       <c r="AF97" s="35"/>
       <c r="AG97" s="35"/>
       <c r="AH97" s="35"/>
-      <c r="AI97" s="92"/>
-      <c r="AJ97" s="92"/>
-      <c r="AK97" s="92"/>
+      <c r="AI97" s="92">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AJ97" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK97" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A98" s="28">
-        <v>95</v>
-      </c>
+      <c r="A98" s="28"/>
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
       <c r="D98" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E98" s="28">
         <v>1</v>
@@ -14564,7 +14694,9 @@
       <c r="T98" s="35"/>
       <c r="U98" s="35"/>
       <c r="V98" s="35"/>
-      <c r="W98" s="80"/>
+      <c r="W98" s="69">
+        <v>1</v>
+      </c>
       <c r="X98" s="80"/>
       <c r="Y98" s="80"/>
       <c r="Z98" s="35"/>
@@ -14576,23 +14708,28 @@
       <c r="AF98" s="35"/>
       <c r="AG98" s="35"/>
       <c r="AH98" s="35"/>
-      <c r="AI98" s="92"/>
-      <c r="AJ98" s="92"/>
-      <c r="AK98" s="92"/>
+      <c r="AI98" s="92">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AJ98" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK98" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A99" s="28">
-        <v>96</v>
-      </c>
-      <c r="B99" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="C99" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="D99" s="28"/>
+      <c r="A99" s="28"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="28" t="s">
+        <v>203</v>
+      </c>
       <c r="E99" s="28">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="F99" s="28" t="s">
         <v>228</v>
@@ -14615,7 +14752,9 @@
       <c r="T99" s="35"/>
       <c r="U99" s="35"/>
       <c r="V99" s="35"/>
-      <c r="W99" s="80"/>
+      <c r="W99" s="69">
+        <v>1</v>
+      </c>
       <c r="X99" s="80"/>
       <c r="Y99" s="80"/>
       <c r="Z99" s="35"/>
@@ -14627,21 +14766,30 @@
       <c r="AF99" s="35"/>
       <c r="AG99" s="35"/>
       <c r="AH99" s="35"/>
-      <c r="AI99" s="92"/>
-      <c r="AJ99" s="92"/>
-      <c r="AK99" s="92"/>
+      <c r="AI99" s="92">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AJ99" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK99" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A100" s="28">
-        <v>97</v>
-      </c>
-      <c r="B100" s="28"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28" t="s">
-        <v>206</v>
-      </c>
+      <c r="A100" s="28"/>
+      <c r="B100" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="D100" s="28"/>
       <c r="E100" s="28">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F100" s="28" t="s">
         <v>228</v>
@@ -14664,7 +14812,7 @@
       <c r="T100" s="35"/>
       <c r="U100" s="35"/>
       <c r="V100" s="35"/>
-      <c r="W100" s="80"/>
+      <c r="W100" s="69"/>
       <c r="X100" s="80"/>
       <c r="Y100" s="80"/>
       <c r="Z100" s="35"/>
@@ -14676,21 +14824,28 @@
       <c r="AF100" s="35"/>
       <c r="AG100" s="35"/>
       <c r="AH100" s="35"/>
-      <c r="AI100" s="92"/>
-      <c r="AJ100" s="92"/>
-      <c r="AK100" s="92"/>
+      <c r="AI100" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ100" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK100" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A101" s="28">
-        <v>98</v>
-      </c>
+      <c r="A101" s="28"/>
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
       <c r="D101" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E101" s="28">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="F101" s="28" t="s">
         <v>228</v>
@@ -14713,7 +14868,9 @@
       <c r="T101" s="35"/>
       <c r="U101" s="35"/>
       <c r="V101" s="35"/>
-      <c r="W101" s="80"/>
+      <c r="W101" s="69">
+        <v>2.5</v>
+      </c>
       <c r="X101" s="80"/>
       <c r="Y101" s="80"/>
       <c r="Z101" s="35"/>
@@ -14725,23 +14882,28 @@
       <c r="AF101" s="35"/>
       <c r="AG101" s="35"/>
       <c r="AH101" s="35"/>
-      <c r="AI101" s="92"/>
-      <c r="AJ101" s="92"/>
-      <c r="AK101" s="92"/>
+      <c r="AI101" s="92">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="AJ101" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK101" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A102" s="28">
-        <v>99</v>
-      </c>
-      <c r="B102" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="C102" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="D102" s="28"/>
+      <c r="A102" s="28"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="28" t="s">
+        <v>207</v>
+      </c>
       <c r="E102" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F102" s="28" t="s">
         <v>228</v>
@@ -14764,7 +14926,9 @@
       <c r="T102" s="35"/>
       <c r="U102" s="35"/>
       <c r="V102" s="35"/>
-      <c r="W102" s="80"/>
+      <c r="W102" s="69">
+        <v>1</v>
+      </c>
       <c r="X102" s="80"/>
       <c r="Y102" s="80"/>
       <c r="Z102" s="35"/>
@@ -14776,21 +14940,30 @@
       <c r="AF102" s="35"/>
       <c r="AG102" s="35"/>
       <c r="AH102" s="35"/>
-      <c r="AI102" s="92"/>
-      <c r="AJ102" s="92"/>
-      <c r="AK102" s="92"/>
+      <c r="AI102" s="92">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AJ102" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK102" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A103" s="28">
-        <v>100</v>
-      </c>
-      <c r="B103" s="28"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="28" t="s">
-        <v>210</v>
-      </c>
+      <c r="A103" s="28"/>
+      <c r="B103" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="C103" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="D103" s="28"/>
       <c r="E103" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F103" s="28" t="s">
         <v>228</v>
@@ -14813,7 +14986,7 @@
       <c r="T103" s="35"/>
       <c r="U103" s="35"/>
       <c r="V103" s="35"/>
-      <c r="W103" s="80"/>
+      <c r="W103" s="69"/>
       <c r="X103" s="80"/>
       <c r="Y103" s="80"/>
       <c r="Z103" s="35"/>
@@ -14825,18 +14998,25 @@
       <c r="AF103" s="35"/>
       <c r="AG103" s="35"/>
       <c r="AH103" s="35"/>
-      <c r="AI103" s="92"/>
-      <c r="AJ103" s="92"/>
-      <c r="AK103" s="92"/>
+      <c r="AI103" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ103" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK103" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A104" s="28">
-        <v>101</v>
-      </c>
+      <c r="A104" s="28"/>
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
       <c r="D104" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E104" s="28">
         <v>1</v>
@@ -14862,7 +15042,9 @@
       <c r="T104" s="35"/>
       <c r="U104" s="35"/>
       <c r="V104" s="35"/>
-      <c r="W104" s="80"/>
+      <c r="W104" s="69">
+        <v>1</v>
+      </c>
       <c r="X104" s="80"/>
       <c r="Y104" s="80"/>
       <c r="Z104" s="35"/>
@@ -14874,23 +15056,28 @@
       <c r="AF104" s="35"/>
       <c r="AG104" s="35"/>
       <c r="AH104" s="35"/>
-      <c r="AI104" s="92"/>
-      <c r="AJ104" s="92"/>
-      <c r="AK104" s="92"/>
+      <c r="AI104" s="92">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AJ104" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK104" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A105" s="28">
-        <v>102</v>
-      </c>
-      <c r="B105" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="C105" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="D105" s="28"/>
+      <c r="A105" s="28"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="28" t="s">
+        <v>211</v>
+      </c>
       <c r="E105" s="28">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F105" s="28" t="s">
         <v>228</v>
@@ -14913,7 +15100,9 @@
       <c r="T105" s="35"/>
       <c r="U105" s="35"/>
       <c r="V105" s="35"/>
-      <c r="W105" s="80"/>
+      <c r="W105" s="69">
+        <v>1</v>
+      </c>
       <c r="X105" s="80"/>
       <c r="Y105" s="80"/>
       <c r="Z105" s="35"/>
@@ -14925,21 +15114,30 @@
       <c r="AF105" s="35"/>
       <c r="AG105" s="35"/>
       <c r="AH105" s="35"/>
-      <c r="AI105" s="92"/>
-      <c r="AJ105" s="92"/>
-      <c r="AK105" s="92"/>
+      <c r="AI105" s="92">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AJ105" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK105" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A106" s="28">
-        <v>103</v>
-      </c>
-      <c r="B106" s="28"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28" t="s">
-        <v>214</v>
-      </c>
+      <c r="A106" s="28"/>
+      <c r="B106" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="C106" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="D106" s="28"/>
       <c r="E106" s="28">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F106" s="28" t="s">
         <v>228</v>
@@ -14962,7 +15160,7 @@
       <c r="T106" s="35"/>
       <c r="U106" s="35"/>
       <c r="V106" s="35"/>
-      <c r="W106" s="80"/>
+      <c r="W106" s="69"/>
       <c r="X106" s="80"/>
       <c r="Y106" s="80"/>
       <c r="Z106" s="35"/>
@@ -14974,18 +15172,25 @@
       <c r="AF106" s="35"/>
       <c r="AG106" s="35"/>
       <c r="AH106" s="35"/>
-      <c r="AI106" s="92"/>
-      <c r="AJ106" s="92"/>
-      <c r="AK106" s="92"/>
+      <c r="AI106" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ106" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK106" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A107" s="28">
-        <v>104</v>
-      </c>
+      <c r="A107" s="28"/>
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
       <c r="D107" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E107" s="28">
         <v>5</v>
@@ -15011,7 +15216,9 @@
       <c r="T107" s="35"/>
       <c r="U107" s="35"/>
       <c r="V107" s="35"/>
-      <c r="W107" s="80"/>
+      <c r="W107" s="69">
+        <v>5</v>
+      </c>
       <c r="X107" s="80"/>
       <c r="Y107" s="80"/>
       <c r="Z107" s="35"/>
@@ -15023,29 +15230,34 @@
       <c r="AF107" s="35"/>
       <c r="AG107" s="35"/>
       <c r="AH107" s="35"/>
-      <c r="AI107" s="92"/>
-      <c r="AJ107" s="92"/>
-      <c r="AK107" s="92"/>
+      <c r="AI107" s="92">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AJ107" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK107" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A108" s="28">
-        <v>105</v>
-      </c>
-      <c r="B108" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="C108" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="D108" s="28"/>
+      <c r="A108" s="28"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="28" t="s">
+        <v>215</v>
+      </c>
       <c r="E108" s="28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F108" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G108" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H108" s="46"/>
       <c r="I108" s="46"/>
@@ -15062,7 +15274,9 @@
       <c r="T108" s="35"/>
       <c r="U108" s="35"/>
       <c r="V108" s="35"/>
-      <c r="W108" s="80"/>
+      <c r="W108" s="69">
+        <v>5</v>
+      </c>
       <c r="X108" s="80"/>
       <c r="Y108" s="80"/>
       <c r="Z108" s="35"/>
@@ -15074,21 +15288,30 @@
       <c r="AF108" s="35"/>
       <c r="AG108" s="35"/>
       <c r="AH108" s="35"/>
-      <c r="AI108" s="92"/>
-      <c r="AJ108" s="92"/>
-      <c r="AK108" s="92"/>
+      <c r="AI108" s="92">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AJ108" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK108" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A109" s="28">
-        <v>106</v>
-      </c>
-      <c r="B109" s="28"/>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28" t="s">
-        <v>219</v>
-      </c>
+      <c r="A109" s="28"/>
+      <c r="B109" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="C109" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D109" s="28"/>
       <c r="E109" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F109" s="28" t="s">
         <v>229</v>
@@ -15111,7 +15334,7 @@
       <c r="T109" s="35"/>
       <c r="U109" s="35"/>
       <c r="V109" s="35"/>
-      <c r="W109" s="80"/>
+      <c r="W109" s="163"/>
       <c r="X109" s="80"/>
       <c r="Y109" s="80"/>
       <c r="Z109" s="35"/>
@@ -15123,18 +15346,25 @@
       <c r="AF109" s="35"/>
       <c r="AG109" s="35"/>
       <c r="AH109" s="35"/>
-      <c r="AI109" s="92"/>
-      <c r="AJ109" s="92"/>
-      <c r="AK109" s="92"/>
+      <c r="AI109" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ109" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK109" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A110" s="28">
-        <v>107</v>
-      </c>
+      <c r="A110" s="28"/>
       <c r="B110" s="28"/>
       <c r="C110" s="28"/>
       <c r="D110" s="28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E110" s="28">
         <v>1</v>
@@ -15163,7 +15393,9 @@
       <c r="W110" s="80"/>
       <c r="X110" s="80"/>
       <c r="Y110" s="80"/>
-      <c r="Z110" s="35"/>
+      <c r="Z110" s="35">
+        <v>1</v>
+      </c>
       <c r="AA110" s="35"/>
       <c r="AB110" s="35"/>
       <c r="AC110" s="80"/>
@@ -15172,29 +15404,34 @@
       <c r="AF110" s="35"/>
       <c r="AG110" s="35"/>
       <c r="AH110" s="35"/>
-      <c r="AI110" s="92"/>
-      <c r="AJ110" s="92"/>
-      <c r="AK110" s="92"/>
+      <c r="AI110" s="92">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AJ110" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK110" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A111" s="28">
-        <v>108</v>
-      </c>
-      <c r="B111" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="C111" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="D111" s="28"/>
+      <c r="A111" s="28"/>
+      <c r="B111" s="28"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="28" t="s">
+        <v>218</v>
+      </c>
       <c r="E111" s="28">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F111" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G111" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H111" s="46"/>
       <c r="I111" s="46"/>
@@ -15214,7 +15451,9 @@
       <c r="W111" s="80"/>
       <c r="X111" s="80"/>
       <c r="Y111" s="80"/>
-      <c r="Z111" s="35"/>
+      <c r="Z111" s="35">
+        <v>1</v>
+      </c>
       <c r="AA111" s="35"/>
       <c r="AB111" s="35"/>
       <c r="AC111" s="80"/>
@@ -15223,21 +15462,30 @@
       <c r="AF111" s="35"/>
       <c r="AG111" s="35"/>
       <c r="AH111" s="35"/>
-      <c r="AI111" s="92"/>
-      <c r="AJ111" s="92"/>
-      <c r="AK111" s="92"/>
+      <c r="AI111" s="92">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AJ111" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK111" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A112" s="28">
-        <v>109</v>
-      </c>
-      <c r="B112" s="28"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28" t="s">
-        <v>222</v>
-      </c>
+      <c r="A112" s="28"/>
+      <c r="B112" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C112" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D112" s="28"/>
       <c r="E112" s="28">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F112" s="28" t="s">
         <v>230</v>
@@ -15266,27 +15514,34 @@
       <c r="Z112" s="35"/>
       <c r="AA112" s="35"/>
       <c r="AB112" s="35"/>
-      <c r="AC112" s="80"/>
+      <c r="AC112" s="28"/>
       <c r="AD112" s="80"/>
       <c r="AE112" s="80"/>
       <c r="AF112" s="35"/>
       <c r="AG112" s="35"/>
       <c r="AH112" s="35"/>
-      <c r="AI112" s="92"/>
-      <c r="AJ112" s="92"/>
-      <c r="AK112" s="92"/>
+      <c r="AI112" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ112" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK112" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="113" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A113" s="28">
-        <v>110</v>
-      </c>
+      <c r="A113" s="28"/>
       <c r="B113" s="28"/>
       <c r="C113" s="28"/>
       <c r="D113" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E113" s="28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F113" s="28" t="s">
         <v>230</v>
@@ -15315,29 +15570,36 @@
       <c r="Z113" s="35"/>
       <c r="AA113" s="35"/>
       <c r="AB113" s="35"/>
-      <c r="AC113" s="80"/>
+      <c r="AC113" s="69">
+        <v>5</v>
+      </c>
       <c r="AD113" s="80"/>
       <c r="AE113" s="80"/>
       <c r="AF113" s="35"/>
       <c r="AG113" s="35"/>
       <c r="AH113" s="35"/>
-      <c r="AI113" s="92"/>
-      <c r="AJ113" s="92"/>
-      <c r="AK113" s="92"/>
+      <c r="AI113" s="92">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AJ113" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK113" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A114" s="28">
-        <v>111</v>
-      </c>
-      <c r="B114" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="C114" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="D114" s="28"/>
+      <c r="A114" s="28"/>
+      <c r="B114" s="28"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="28" t="s">
+        <v>223</v>
+      </c>
       <c r="E114" s="28">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F114" s="28" t="s">
         <v>230</v>
@@ -15366,27 +15628,38 @@
       <c r="Z114" s="35"/>
       <c r="AA114" s="35"/>
       <c r="AB114" s="35"/>
-      <c r="AC114" s="80"/>
+      <c r="AC114" s="69">
+        <v>2</v>
+      </c>
       <c r="AD114" s="80"/>
       <c r="AE114" s="80"/>
       <c r="AF114" s="35"/>
       <c r="AG114" s="35"/>
       <c r="AH114" s="35"/>
-      <c r="AI114" s="92"/>
-      <c r="AJ114" s="92"/>
-      <c r="AK114" s="92"/>
+      <c r="AI114" s="92">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AJ114" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK114" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A115" s="28">
-        <v>112</v>
-      </c>
-      <c r="B115" s="28"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="28" t="s">
-        <v>226</v>
-      </c>
+      <c r="A115" s="28"/>
+      <c r="B115" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="C115" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="D115" s="28"/>
       <c r="E115" s="28">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F115" s="28" t="s">
         <v>230</v>
@@ -15415,27 +15688,34 @@
       <c r="Z115" s="35"/>
       <c r="AA115" s="35"/>
       <c r="AB115" s="35"/>
-      <c r="AC115" s="80"/>
+      <c r="AC115" s="69"/>
       <c r="AD115" s="80"/>
       <c r="AE115" s="80"/>
       <c r="AF115" s="35"/>
       <c r="AG115" s="35"/>
       <c r="AH115" s="35"/>
-      <c r="AI115" s="92"/>
-      <c r="AJ115" s="92"/>
-      <c r="AK115" s="92"/>
+      <c r="AI115" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ115" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK115" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="116" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A116" s="28">
-        <v>113</v>
-      </c>
+      <c r="A116" s="28"/>
       <c r="B116" s="28"/>
       <c r="C116" s="28"/>
       <c r="D116" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E116" s="28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F116" s="28" t="s">
         <v>230</v>
@@ -15464,37 +15744,218 @@
       <c r="Z116" s="35"/>
       <c r="AA116" s="35"/>
       <c r="AB116" s="35"/>
-      <c r="AC116" s="80"/>
+      <c r="AC116" s="69">
+        <v>2</v>
+      </c>
       <c r="AD116" s="80"/>
       <c r="AE116" s="80"/>
       <c r="AF116" s="35"/>
       <c r="AG116" s="35"/>
       <c r="AH116" s="35"/>
-      <c r="AI116" s="92"/>
-      <c r="AJ116" s="92"/>
-      <c r="AK116" s="92"/>
+      <c r="AI116" s="92">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AJ116" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK116" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="S117" s="1"/>
-      <c r="T117" s="1"/>
-      <c r="U117" s="1"/>
-      <c r="V117" s="1"/>
-      <c r="AK117" s="1"/>
+      <c r="A117" s="28"/>
+      <c r="B117" s="28"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="E117" s="28">
+        <v>5</v>
+      </c>
+      <c r="F117" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="G117" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="H117" s="46"/>
+      <c r="I117" s="46"/>
+      <c r="J117" s="46"/>
+      <c r="K117" s="79"/>
+      <c r="L117" s="79"/>
+      <c r="M117" s="79"/>
+      <c r="N117" s="82"/>
+      <c r="O117" s="82"/>
+      <c r="P117" s="82"/>
+      <c r="Q117" s="80"/>
+      <c r="R117" s="80"/>
+      <c r="S117" s="80"/>
+      <c r="T117" s="35"/>
+      <c r="U117" s="35"/>
+      <c r="V117" s="35"/>
+      <c r="W117" s="80"/>
+      <c r="X117" s="80"/>
+      <c r="Y117" s="80"/>
+      <c r="Z117" s="35"/>
+      <c r="AA117" s="35"/>
+      <c r="AB117" s="35"/>
+      <c r="AC117" s="69">
+        <v>5</v>
+      </c>
+      <c r="AD117" s="80"/>
+      <c r="AE117" s="80"/>
+      <c r="AF117" s="35"/>
+      <c r="AG117" s="35"/>
+      <c r="AH117" s="35"/>
+      <c r="AI117" s="92">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AJ117" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK117" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
-      <c r="S118" s="1"/>
-      <c r="T118" s="1"/>
-      <c r="U118" s="1"/>
-      <c r="V118" s="1"/>
-      <c r="AK118" s="1"/>
+      <c r="E118" s="164" t="s">
+        <v>17</v>
+      </c>
+      <c r="H118">
+        <f>SUM(H4:H117)</f>
+        <v>11.5</v>
+      </c>
+      <c r="I118">
+        <f>SUM(I4:I117)</f>
+        <v>8.5</v>
+      </c>
+      <c r="J118">
+        <f>SUM(J4:J117)</f>
+        <v>6.75</v>
+      </c>
+      <c r="K118">
+        <f>SUM(K4:K117)</f>
+        <v>12.5</v>
+      </c>
+      <c r="L118">
+        <f>SUM(L4:L117)</f>
+        <v>15.5</v>
+      </c>
+      <c r="M118">
+        <f>SUM(M4:M117)</f>
+        <v>16.75</v>
+      </c>
+      <c r="N118">
+        <f>SUM(N4:N117)</f>
+        <v>19.5</v>
+      </c>
+      <c r="O118">
+        <f>SUM(O4:O117)</f>
+        <v>11</v>
+      </c>
+      <c r="P118">
+        <f>SUM(P4:P117)</f>
+        <v>13</v>
+      </c>
+      <c r="Q118">
+        <f>SUM(Q4:Q117)</f>
+        <v>10</v>
+      </c>
+      <c r="R118">
+        <f>SUM(R4:R117)</f>
+        <v>0</v>
+      </c>
+      <c r="S118" s="1">
+        <f>SUM(S4:S117)</f>
+        <v>0</v>
+      </c>
+      <c r="T118" s="1">
+        <f>SUM(T4:T117)</f>
+        <v>0</v>
+      </c>
+      <c r="U118" s="1">
+        <f>SUM(U4:U117)</f>
+        <v>0</v>
+      </c>
+      <c r="V118" s="1">
+        <f>SUM(V4:V117)</f>
+        <v>0</v>
+      </c>
+      <c r="W118" s="1">
+        <f>SUM(W4:W117)</f>
+        <v>18.5</v>
+      </c>
+      <c r="X118" s="1">
+        <f>SUM(X4:X117)</f>
+        <v>0</v>
+      </c>
+      <c r="Y118" s="1">
+        <f>SUM(Y4:Y117)</f>
+        <v>0</v>
+      </c>
+      <c r="Z118" s="1">
+        <f>SUM(Z4:Z117)</f>
+        <v>2</v>
+      </c>
+      <c r="AA118" s="1">
+        <f>SUM(AA4:AA117)</f>
+        <v>0</v>
+      </c>
+      <c r="AB118" s="1">
+        <f>SUM(AB4:AB117)</f>
+        <v>0</v>
+      </c>
+      <c r="AC118" s="1">
+        <f>SUM(AC4:AC117)</f>
+        <v>14</v>
+      </c>
+      <c r="AD118" s="1">
+        <f>SUM(AD4:AD117)</f>
+        <v>0</v>
+      </c>
+      <c r="AE118" s="1">
+        <f>SUM(AE4:AE117)</f>
+        <v>0</v>
+      </c>
+      <c r="AF118" s="1">
+        <f>SUM(AF4:AF117)</f>
+        <v>0</v>
+      </c>
+      <c r="AG118" s="1">
+        <f>SUM(AG4:AG117)</f>
+        <v>0</v>
+      </c>
+      <c r="AH118" s="1">
+        <f>SUM(AH4:AH117)</f>
+        <v>0</v>
+      </c>
+      <c r="AI118" s="165">
+        <f>SUM(AI4:AI117)</f>
+        <v>88</v>
+      </c>
+      <c r="AJ118" s="165">
+        <f>SUM(AJ4:AJ117)</f>
+        <v>35</v>
+      </c>
+      <c r="AK118" s="165">
+        <f>SUM(AK4:AK117)</f>
+        <v>36.5</v>
+      </c>
     </row>
     <row r="119" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
+      <c r="E119" s="164" t="s">
+        <v>18</v>
+      </c>
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
       <c r="U119" s="1"/>
@@ -15508,12 +15969,11 @@
       <c r="T120" s="1"/>
       <c r="U120" s="1"/>
       <c r="V120" s="1"/>
-      <c r="W120" s="1"/>
+      <c r="AK120" s="1"/>
     </row>
     <row r="121" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
       <c r="U121" s="1"/>
@@ -15534,28 +15994,6 @@
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="H123" s="59">
-        <f>E129-E127</f>
-        <v>0</v>
-      </c>
-      <c r="I123" s="93" t="s">
-        <v>28</v>
-      </c>
-      <c r="J123" s="93"/>
-      <c r="K123" s="118" t="s">
-        <v>156</v>
-      </c>
-      <c r="L123" s="119"/>
-      <c r="M123" s="119"/>
-      <c r="N123" s="119"/>
-      <c r="O123" s="119"/>
-      <c r="P123" s="119"/>
-      <c r="Q123" s="120"/>
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
       <c r="U123" s="1"/>
@@ -15569,26 +16007,25 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H124" s="59">
-        <f>E129-E128</f>
-        <v>0</v>
-      </c>
-      <c r="I124" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="J124" s="93"/>
-      <c r="K124" s="118" t="s">
-        <v>157</v>
-      </c>
-      <c r="L124" s="119"/>
-      <c r="M124" s="119"/>
-      <c r="N124" s="119"/>
-      <c r="O124" s="119"/>
-      <c r="P124" s="119"/>
-      <c r="Q124" s="120"/>
-      <c r="R124" s="1"/>
+        <f>E130-E128</f>
+        <v>0</v>
+      </c>
+      <c r="I124" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="J124" s="94"/>
+      <c r="K124" s="119" t="s">
+        <v>156</v>
+      </c>
+      <c r="L124" s="120"/>
+      <c r="M124" s="120"/>
+      <c r="N124" s="120"/>
+      <c r="O124" s="120"/>
+      <c r="P124" s="120"/>
+      <c r="Q124" s="121"/>
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
       <c r="U124" s="1"/>
@@ -15596,175 +16033,183 @@
       <c r="W124" s="1"/>
     </row>
     <row r="125" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="D125" s="94" t="s">
-        <v>158</v>
-      </c>
-      <c r="E125" s="95"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="H125" s="59">
+        <f>E130-E129</f>
+        <v>0</v>
+      </c>
+      <c r="I125" s="94" t="s">
+        <v>29</v>
+      </c>
+      <c r="J125" s="94"/>
+      <c r="K125" s="119" t="s">
+        <v>157</v>
+      </c>
+      <c r="L125" s="120"/>
+      <c r="M125" s="120"/>
+      <c r="N125" s="120"/>
+      <c r="O125" s="120"/>
+      <c r="P125" s="120"/>
+      <c r="Q125" s="121"/>
+      <c r="R125" s="1"/>
+      <c r="S125" s="1"/>
+      <c r="T125" s="1"/>
+      <c r="U125" s="1"/>
+      <c r="V125" s="1"/>
+      <c r="W125" s="1"/>
+    </row>
+    <row r="126" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="D126" s="95" t="s">
+        <v>158</v>
+      </c>
+      <c r="E126" s="96"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H125" s="59" t="e">
-        <f>E129/E127</f>
+      <c r="H126" s="59" t="e">
+        <f>E130/E128</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I125" s="93" t="s">
+      <c r="I126" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="J125" s="93"/>
-      <c r="K125" s="118" t="s">
+      <c r="J126" s="94"/>
+      <c r="K126" s="119" t="s">
         <v>159</v>
       </c>
-      <c r="L125" s="119"/>
-      <c r="M125" s="119"/>
-      <c r="N125" s="119"/>
-      <c r="O125" s="119"/>
-      <c r="P125" s="119"/>
-      <c r="Q125" s="120"/>
-    </row>
-    <row r="126" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="D126" s="25" t="s">
+      <c r="L126" s="120"/>
+      <c r="M126" s="120"/>
+      <c r="N126" s="120"/>
+      <c r="O126" s="120"/>
+      <c r="P126" s="120"/>
+      <c r="Q126" s="121"/>
+    </row>
+    <row r="127" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="D127" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E126" s="23">
+      <c r="E127" s="23">
         <v>225</v>
-      </c>
-      <c r="F126" s="75"/>
-      <c r="G126" s="74" t="s">
-        <v>24</v>
-      </c>
-      <c r="H126" s="59" t="e">
-        <f>E129/E128</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I126" s="93" t="s">
-        <v>30</v>
-      </c>
-      <c r="J126" s="93"/>
-      <c r="K126" s="118" t="s">
-        <v>160</v>
-      </c>
-      <c r="L126" s="119"/>
-      <c r="M126" s="119"/>
-      <c r="N126" s="119"/>
-      <c r="O126" s="119"/>
-      <c r="P126" s="119"/>
-      <c r="Q126" s="120"/>
-    </row>
-    <row r="127" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="D127" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="E127" s="77">
-        <f>K79</f>
-        <v>0</v>
       </c>
       <c r="F127" s="75"/>
       <c r="G127" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="H127" s="59">
-        <f>E126-E129</f>
-        <v>225</v>
-      </c>
-      <c r="I127" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="J127" s="93"/>
-      <c r="K127" s="118" t="s">
-        <v>161</v>
-      </c>
-      <c r="L127" s="119"/>
-      <c r="M127" s="119"/>
-      <c r="N127" s="119"/>
-      <c r="O127" s="119"/>
-      <c r="P127" s="119"/>
-      <c r="Q127" s="120"/>
+        <v>24</v>
+      </c>
+      <c r="H127" s="59" t="e">
+        <f>E130/E129</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I127" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="J127" s="94"/>
+      <c r="K127" s="119" t="s">
+        <v>160</v>
+      </c>
+      <c r="L127" s="120"/>
+      <c r="M127" s="120"/>
+      <c r="N127" s="120"/>
+      <c r="O127" s="120"/>
+      <c r="P127" s="120"/>
+      <c r="Q127" s="121"/>
     </row>
     <row r="128" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="D128" s="34" t="s">
-        <v>14</v>
+      <c r="D128" s="74" t="s">
+        <v>12</v>
       </c>
       <c r="E128" s="77">
-        <f>M79</f>
+        <f>K80</f>
         <v>0</v>
       </c>
       <c r="F128" s="75"/>
       <c r="G128" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="H128" s="59" t="e">
-        <f>(E126-E129)/(H125*H126)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I128" s="93" t="s">
-        <v>40</v>
-      </c>
-      <c r="J128" s="93"/>
-      <c r="K128" s="118" t="s">
-        <v>162</v>
-      </c>
-      <c r="L128" s="119"/>
-      <c r="M128" s="119"/>
-      <c r="N128" s="119"/>
-      <c r="O128" s="119"/>
-      <c r="P128" s="119"/>
-      <c r="Q128" s="120"/>
+      <c r="H128" s="59">
+        <f>E127-E130</f>
+        <v>225</v>
+      </c>
+      <c r="I128" s="94" t="s">
+        <v>32</v>
+      </c>
+      <c r="J128" s="94"/>
+      <c r="K128" s="119" t="s">
+        <v>161</v>
+      </c>
+      <c r="L128" s="120"/>
+      <c r="M128" s="120"/>
+      <c r="N128" s="120"/>
+      <c r="O128" s="120"/>
+      <c r="P128" s="120"/>
+      <c r="Q128" s="121"/>
     </row>
     <row r="129" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D129" s="74" t="s">
-        <v>13</v>
+      <c r="D129" s="34" t="s">
+        <v>14</v>
       </c>
       <c r="E129" s="77">
-        <f>L79</f>
+        <f>M80</f>
         <v>0</v>
       </c>
       <c r="F129" s="75"/>
       <c r="G129" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="H129" s="59">
-        <f>E128+(E126-E129)</f>
-        <v>225</v>
-      </c>
-      <c r="I129" s="93" t="s">
-        <v>34</v>
-      </c>
-      <c r="J129" s="93"/>
-      <c r="K129" s="118" t="s">
-        <v>161</v>
-      </c>
-      <c r="L129" s="119"/>
-      <c r="M129" s="119"/>
-      <c r="N129" s="119"/>
-      <c r="O129" s="119"/>
-      <c r="P129" s="119"/>
-      <c r="Q129" s="120"/>
+        <v>25</v>
+      </c>
+      <c r="H129" s="59" t="e">
+        <f>(E127-E130)/(H126*H127)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I129" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="J129" s="94"/>
+      <c r="K129" s="119" t="s">
+        <v>162</v>
+      </c>
+      <c r="L129" s="120"/>
+      <c r="M129" s="120"/>
+      <c r="N129" s="120"/>
+      <c r="O129" s="120"/>
+      <c r="P129" s="120"/>
+      <c r="Q129" s="121"/>
     </row>
     <row r="130" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D130" s="1"/>
-      <c r="E130" s="75"/>
+      <c r="D130" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" s="77">
+        <f>L80</f>
+        <v>0</v>
+      </c>
       <c r="F130" s="75"/>
       <c r="G130" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="H130" s="59" t="e">
-        <f>E126/H126</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I130" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="J130" s="117"/>
-      <c r="K130" s="118" t="s">
-        <v>162</v>
-      </c>
-      <c r="L130" s="119"/>
-      <c r="M130" s="119"/>
-      <c r="N130" s="119"/>
-      <c r="O130" s="119"/>
-      <c r="P130" s="119"/>
-      <c r="Q130" s="120"/>
+      <c r="H130" s="59">
+        <f>E129+(E127-E130)</f>
+        <v>225</v>
+      </c>
+      <c r="I130" s="94" t="s">
+        <v>34</v>
+      </c>
+      <c r="J130" s="94"/>
+      <c r="K130" s="119" t="s">
+        <v>161</v>
+      </c>
+      <c r="L130" s="120"/>
+      <c r="M130" s="120"/>
+      <c r="N130" s="120"/>
+      <c r="O130" s="120"/>
+      <c r="P130" s="120"/>
+      <c r="Q130" s="121"/>
     </row>
     <row r="131" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D131" s="1"/>
@@ -15773,64 +16218,73 @@
       <c r="G131" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="H131" s="81" t="e">
-        <f>E128+(E126-E129)/(H125*H126)</f>
+      <c r="H131" s="59" t="e">
+        <f>E127/H127</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I131" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="J131" s="117"/>
-      <c r="K131" s="118" t="s">
-        <v>163</v>
-      </c>
-      <c r="L131" s="119"/>
-      <c r="M131" s="119"/>
-      <c r="N131" s="119"/>
-      <c r="O131" s="119"/>
-      <c r="P131" s="119"/>
-      <c r="Q131" s="120"/>
+      <c r="I131" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="J131" s="118"/>
+      <c r="K131" s="119" t="s">
+        <v>162</v>
+      </c>
+      <c r="L131" s="120"/>
+      <c r="M131" s="120"/>
+      <c r="N131" s="120"/>
+      <c r="O131" s="120"/>
+      <c r="P131" s="120"/>
+      <c r="Q131" s="121"/>
     </row>
     <row r="132" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D132" s="1"/>
       <c r="E132" s="75"/>
       <c r="F132" s="75"/>
       <c r="G132" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="H132" s="59">
-        <f>(E126-E129)/(E126-E128)</f>
-        <v>1</v>
-      </c>
-      <c r="I132" s="93" t="s">
-        <v>42</v>
-      </c>
-      <c r="J132" s="117"/>
-      <c r="K132" s="118" t="s">
-        <v>164</v>
-      </c>
-      <c r="L132" s="119"/>
-      <c r="M132" s="119"/>
-      <c r="N132" s="119"/>
-      <c r="O132" s="119"/>
-      <c r="P132" s="119"/>
-      <c r="Q132" s="120"/>
+        <v>26</v>
+      </c>
+      <c r="H132" s="81" t="e">
+        <f>E129+(E127-E130)/(H126*H127)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I132" s="94" t="s">
+        <v>41</v>
+      </c>
+      <c r="J132" s="118"/>
+      <c r="K132" s="119" t="s">
+        <v>163</v>
+      </c>
+      <c r="L132" s="120"/>
+      <c r="M132" s="120"/>
+      <c r="N132" s="120"/>
+      <c r="O132" s="120"/>
+      <c r="P132" s="120"/>
+      <c r="Q132" s="121"/>
     </row>
     <row r="133" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D133" s="1"/>
       <c r="E133" s="75"/>
       <c r="F133" s="75"/>
-      <c r="G133" s="75"/>
-      <c r="H133" s="75"/>
-      <c r="I133" s="75"/>
-      <c r="J133" s="75"/>
-      <c r="K133" s="75"/>
-      <c r="L133" s="75"/>
-      <c r="M133" s="75"/>
-      <c r="N133" s="75"/>
-      <c r="O133" s="75"/>
-      <c r="P133" s="75"/>
-      <c r="Q133" s="75"/>
+      <c r="G133" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="H133" s="59">
+        <f>(E127-E130)/(E127-E129)</f>
+        <v>1</v>
+      </c>
+      <c r="I133" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="J133" s="118"/>
+      <c r="K133" s="119" t="s">
+        <v>164</v>
+      </c>
+      <c r="L133" s="120"/>
+      <c r="M133" s="120"/>
+      <c r="N133" s="120"/>
+      <c r="O133" s="120"/>
+      <c r="P133" s="120"/>
+      <c r="Q133" s="121"/>
     </row>
     <row r="134" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D134" s="1"/>
@@ -15868,16 +16322,10 @@
       <c r="D136" s="1"/>
       <c r="E136" s="75"/>
       <c r="F136" s="75"/>
-      <c r="G136" s="74"/>
-      <c r="H136" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="I136" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="J136" s="74" t="s">
-        <v>14</v>
-      </c>
+      <c r="G136" s="75"/>
+      <c r="H136" s="75"/>
+      <c r="I136" s="75"/>
+      <c r="J136" s="75"/>
       <c r="K136" s="75"/>
       <c r="L136" s="75"/>
       <c r="M136" s="75"/>
@@ -15890,20 +16338,15 @@
       <c r="D137" s="1"/>
       <c r="E137" s="75"/>
       <c r="F137" s="75"/>
-      <c r="G137" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="H137" s="74">
-        <f>H79</f>
-        <v>0</v>
-      </c>
-      <c r="I137" s="74">
-        <f>I79</f>
-        <v>0</v>
-      </c>
-      <c r="J137" s="74">
-        <f>J79</f>
-        <v>0</v>
+      <c r="G137" s="74"/>
+      <c r="H137" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="I137" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="J137" s="74" t="s">
+        <v>14</v>
       </c>
       <c r="K137" s="75"/>
       <c r="L137" s="75"/>
@@ -15918,18 +16361,18 @@
       <c r="E138" s="75"/>
       <c r="F138" s="75"/>
       <c r="G138" s="74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H138" s="74">
-        <f>K79</f>
+        <f>H80</f>
         <v>0</v>
       </c>
       <c r="I138" s="74">
-        <f>L79</f>
+        <f>I80</f>
         <v>0</v>
       </c>
       <c r="J138" s="74">
-        <f>M79</f>
+        <f>J80</f>
         <v>0</v>
       </c>
       <c r="K138" s="75"/>
@@ -15945,18 +16388,18 @@
       <c r="E139" s="75"/>
       <c r="F139" s="75"/>
       <c r="G139" s="74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H139" s="74">
-        <f>N79</f>
+        <f>K80</f>
         <v>0</v>
       </c>
       <c r="I139" s="74">
-        <f>O79</f>
+        <f>L80</f>
         <v>0</v>
       </c>
       <c r="J139" s="74">
-        <f>P79</f>
+        <f>M80</f>
         <v>0</v>
       </c>
       <c r="K139" s="75"/>
@@ -15972,11 +16415,20 @@
       <c r="E140" s="75"/>
       <c r="F140" s="75"/>
       <c r="G140" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="H140" s="74"/>
-      <c r="I140" s="74"/>
-      <c r="J140" s="74"/>
+        <v>38</v>
+      </c>
+      <c r="H140" s="74">
+        <f>N80</f>
+        <v>0</v>
+      </c>
+      <c r="I140" s="74">
+        <f>O80</f>
+        <v>0</v>
+      </c>
+      <c r="J140" s="74">
+        <f>P80</f>
+        <v>0</v>
+      </c>
       <c r="K140" s="75"/>
       <c r="L140" s="75"/>
       <c r="M140" s="75"/>
@@ -15989,10 +16441,12 @@
       <c r="D141" s="1"/>
       <c r="E141" s="75"/>
       <c r="F141" s="75"/>
-      <c r="G141" s="75"/>
-      <c r="H141" s="75"/>
-      <c r="I141" s="75"/>
-      <c r="J141" s="75"/>
+      <c r="G141" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="H141" s="74"/>
+      <c r="I141" s="74"/>
+      <c r="J141" s="74"/>
       <c r="K141" s="75"/>
       <c r="L141" s="75"/>
       <c r="M141" s="75"/>
@@ -16051,19 +16505,19 @@
     </row>
     <row r="145" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
-      <c r="J145" s="1"/>
-      <c r="K145" s="1"/>
-      <c r="L145" s="1"/>
-      <c r="M145" s="1"/>
-      <c r="N145" s="1"/>
-      <c r="O145" s="1"/>
-      <c r="P145" s="1"/>
-      <c r="Q145" s="1"/>
+      <c r="E145" s="75"/>
+      <c r="F145" s="75"/>
+      <c r="G145" s="75"/>
+      <c r="H145" s="75"/>
+      <c r="I145" s="75"/>
+      <c r="J145" s="75"/>
+      <c r="K145" s="75"/>
+      <c r="L145" s="75"/>
+      <c r="M145" s="75"/>
+      <c r="N145" s="75"/>
+      <c r="O145" s="75"/>
+      <c r="P145" s="75"/>
+      <c r="Q145" s="75"/>
     </row>
     <row r="146" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D146" s="1"/>
@@ -16161,6 +16615,22 @@
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
     </row>
+    <row r="152" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+      <c r="O152" s="1"/>
+      <c r="P152" s="1"/>
+      <c r="Q152" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="37">
     <mergeCell ref="G1:G3"/>
@@ -16174,32 +16644,32 @@
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="I124:J124"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="K123:Q123"/>
-    <mergeCell ref="I124:J124"/>
     <mergeCell ref="K124:Q124"/>
-    <mergeCell ref="D125:E125"/>
     <mergeCell ref="I125:J125"/>
     <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="D126:E126"/>
     <mergeCell ref="I126:J126"/>
     <mergeCell ref="K126:Q126"/>
     <mergeCell ref="I127:J127"/>
     <mergeCell ref="K127:Q127"/>
     <mergeCell ref="I128:J128"/>
     <mergeCell ref="K128:Q128"/>
-    <mergeCell ref="I132:J132"/>
-    <mergeCell ref="K132:Q132"/>
     <mergeCell ref="I129:J129"/>
     <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="K133:Q133"/>
     <mergeCell ref="I130:J130"/>
     <mergeCell ref="K130:Q130"/>
     <mergeCell ref="I131:J131"/>
     <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -16224,105 +16694,105 @@
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="143" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
     </row>
     <row r="3" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="151" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="153"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="150" t="s">
+      <c r="B4" s="151" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="152"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="153"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="150" t="s">
+      <c r="B5" s="151" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="151"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="151"/>
-      <c r="I5" s="151"/>
-      <c r="J5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="153"/>
     </row>
     <row r="25" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="125" t="s">
+      <c r="B26" s="126" t="s">
         <v>168</v>
       </c>
-      <c r="C26" s="126"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="126"/>
-      <c r="K26" s="127"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="127"/>
+      <c r="J26" s="127"/>
+      <c r="K26" s="128"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="128"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="129"/>
-      <c r="J27" s="129"/>
-      <c r="K27" s="130"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="130"/>
+      <c r="K27" s="131"/>
     </row>
     <row r="28" spans="2:11" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="131"/>
-      <c r="C28" s="132"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="132"/>
-      <c r="K28" s="133"/>
+      <c r="B28" s="132"/>
+      <c r="C28" s="133"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="133"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="133"/>
+      <c r="J28" s="133"/>
+      <c r="K28" s="134"/>
     </row>
     <row r="29" spans="2:11" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="60"/>
@@ -16336,18 +16806,18 @@
       <c r="J29" s="60"/>
     </row>
     <row r="30" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="153" t="s">
+      <c r="B30" s="154" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="154"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="154"/>
-      <c r="H30" s="154"/>
-      <c r="I30" s="154"/>
-      <c r="J30" s="154"/>
-      <c r="K30" s="155"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="155"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="155"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="155"/>
+      <c r="K30" s="156"/>
     </row>
     <row r="31" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="61"/>
@@ -16384,22 +16854,22 @@
       <c r="K33" s="61"/>
     </row>
     <row r="34" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="143" t="s">
+      <c r="B34" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="144"/>
-      <c r="D34" s="143" t="s">
+      <c r="C34" s="145"/>
+      <c r="D34" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="144"/>
-      <c r="F34" s="143" t="s">
+      <c r="E34" s="145"/>
+      <c r="F34" s="144" t="s">
         <v>106</v>
       </c>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="144"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="145"/>
     </row>
     <row r="35" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="62" t="s">
@@ -16408,16 +16878,16 @@
       <c r="C35" s="71">
         <v>225</v>
       </c>
-      <c r="D35" s="145" t="s">
+      <c r="D35" s="146" t="s">
         <v>165</v>
       </c>
-      <c r="E35" s="146"/>
-      <c r="F35" s="134"/>
-      <c r="G35" s="135"/>
-      <c r="H35" s="135"/>
-      <c r="I35" s="135"/>
-      <c r="J35" s="135"/>
-      <c r="K35" s="136"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="136"/>
+      <c r="H35" s="136"/>
+      <c r="I35" s="136"/>
+      <c r="J35" s="136"/>
+      <c r="K35" s="137"/>
     </row>
     <row r="36" spans="2:11" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="62" t="s">
@@ -16426,14 +16896,14 @@
       <c r="C36" s="70">
         <v>8.5</v>
       </c>
-      <c r="D36" s="147"/>
-      <c r="E36" s="148"/>
-      <c r="F36" s="134"/>
-      <c r="G36" s="135"/>
-      <c r="H36" s="135"/>
-      <c r="I36" s="135"/>
-      <c r="J36" s="135"/>
-      <c r="K36" s="136"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="135"/>
+      <c r="G36" s="136"/>
+      <c r="H36" s="136"/>
+      <c r="I36" s="136"/>
+      <c r="J36" s="136"/>
+      <c r="K36" s="137"/>
     </row>
     <row r="37" spans="2:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="62" t="s">
@@ -16442,16 +16912,16 @@
       <c r="C37" s="63">
         <v>6.75</v>
       </c>
-      <c r="D37" s="134"/>
-      <c r="E37" s="136"/>
-      <c r="F37" s="139" t="s">
+      <c r="D37" s="135"/>
+      <c r="E37" s="137"/>
+      <c r="F37" s="140" t="s">
         <v>111</v>
       </c>
-      <c r="G37" s="140"/>
-      <c r="H37" s="140"/>
-      <c r="I37" s="140"/>
-      <c r="J37" s="140"/>
-      <c r="K37" s="141"/>
+      <c r="G37" s="141"/>
+      <c r="H37" s="141"/>
+      <c r="I37" s="141"/>
+      <c r="J37" s="141"/>
+      <c r="K37" s="142"/>
     </row>
     <row r="38" spans="2:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="62" t="s">
@@ -16460,16 +16930,16 @@
       <c r="C38" s="63">
         <v>8.5</v>
       </c>
-      <c r="D38" s="134"/>
-      <c r="E38" s="136"/>
-      <c r="F38" s="139" t="s">
+      <c r="D38" s="135"/>
+      <c r="E38" s="137"/>
+      <c r="F38" s="140" t="s">
         <v>112</v>
       </c>
-      <c r="G38" s="140"/>
-      <c r="H38" s="140"/>
-      <c r="I38" s="140"/>
-      <c r="J38" s="140"/>
-      <c r="K38" s="141"/>
+      <c r="G38" s="141"/>
+      <c r="H38" s="141"/>
+      <c r="I38" s="141"/>
+      <c r="J38" s="141"/>
+      <c r="K38" s="142"/>
     </row>
     <row r="39" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="62" t="s">
@@ -16478,18 +16948,18 @@
       <c r="C39" s="63">
         <v>0</v>
       </c>
-      <c r="D39" s="137" t="s">
+      <c r="D39" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="138"/>
-      <c r="F39" s="139" t="s">
+      <c r="E39" s="139"/>
+      <c r="F39" s="140" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="140"/>
-      <c r="H39" s="140"/>
-      <c r="I39" s="140"/>
-      <c r="J39" s="140"/>
-      <c r="K39" s="141"/>
+      <c r="G39" s="141"/>
+      <c r="H39" s="141"/>
+      <c r="I39" s="141"/>
+      <c r="J39" s="141"/>
+      <c r="K39" s="142"/>
     </row>
     <row r="40" spans="2:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="62" t="s">
@@ -16498,18 +16968,18 @@
       <c r="C40" s="63">
         <v>1.75</v>
       </c>
-      <c r="D40" s="137" t="s">
+      <c r="D40" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="138"/>
-      <c r="F40" s="139" t="s">
+      <c r="E40" s="139"/>
+      <c r="F40" s="140" t="s">
         <v>117</v>
       </c>
-      <c r="G40" s="140"/>
-      <c r="H40" s="140"/>
-      <c r="I40" s="140"/>
-      <c r="J40" s="140"/>
-      <c r="K40" s="141"/>
+      <c r="G40" s="141"/>
+      <c r="H40" s="141"/>
+      <c r="I40" s="141"/>
+      <c r="J40" s="141"/>
+      <c r="K40" s="142"/>
     </row>
     <row r="41" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="62" t="s">
@@ -16518,18 +16988,18 @@
       <c r="C41" s="63">
         <v>1</v>
       </c>
-      <c r="D41" s="137" t="s">
+      <c r="D41" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="138"/>
-      <c r="F41" s="139" t="s">
+      <c r="E41" s="139"/>
+      <c r="F41" s="140" t="s">
         <v>110</v>
       </c>
-      <c r="G41" s="140"/>
-      <c r="H41" s="140"/>
-      <c r="I41" s="140"/>
-      <c r="J41" s="140"/>
-      <c r="K41" s="141"/>
+      <c r="G41" s="141"/>
+      <c r="H41" s="141"/>
+      <c r="I41" s="141"/>
+      <c r="J41" s="141"/>
+      <c r="K41" s="142"/>
     </row>
     <row r="42" spans="2:11" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="62" t="s">
@@ -16538,18 +17008,18 @@
       <c r="C42" s="63">
         <v>1.26</v>
       </c>
-      <c r="D42" s="137" t="s">
+      <c r="D42" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="138"/>
-      <c r="F42" s="139" t="s">
+      <c r="E42" s="139"/>
+      <c r="F42" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="G42" s="140"/>
-      <c r="H42" s="140"/>
-      <c r="I42" s="140"/>
-      <c r="J42" s="140"/>
-      <c r="K42" s="141"/>
+      <c r="G42" s="141"/>
+      <c r="H42" s="141"/>
+      <c r="I42" s="141"/>
+      <c r="J42" s="141"/>
+      <c r="K42" s="142"/>
     </row>
     <row r="43" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="62" t="s">
@@ -16558,18 +17028,18 @@
       <c r="C43" s="63">
         <v>15.5</v>
       </c>
-      <c r="D43" s="137" t="s">
+      <c r="D43" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="138"/>
-      <c r="F43" s="139" t="s">
+      <c r="E43" s="139"/>
+      <c r="F43" s="140" t="s">
         <v>119</v>
       </c>
-      <c r="G43" s="140"/>
-      <c r="H43" s="140"/>
-      <c r="I43" s="140"/>
-      <c r="J43" s="140"/>
-      <c r="K43" s="141"/>
+      <c r="G43" s="141"/>
+      <c r="H43" s="141"/>
+      <c r="I43" s="141"/>
+      <c r="J43" s="141"/>
+      <c r="K43" s="142"/>
     </row>
     <row r="44" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="62" t="s">
@@ -16578,18 +17048,18 @@
       <c r="C44" s="63">
         <v>12.31</v>
       </c>
-      <c r="D44" s="137" t="s">
+      <c r="D44" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="138"/>
-      <c r="F44" s="139" t="s">
+      <c r="E44" s="139"/>
+      <c r="F44" s="140" t="s">
         <v>120</v>
       </c>
-      <c r="G44" s="140"/>
-      <c r="H44" s="140"/>
-      <c r="I44" s="140"/>
-      <c r="J44" s="140"/>
-      <c r="K44" s="141"/>
+      <c r="G44" s="141"/>
+      <c r="H44" s="141"/>
+      <c r="I44" s="141"/>
+      <c r="J44" s="141"/>
+      <c r="K44" s="142"/>
     </row>
     <row r="45" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="62" t="s">
@@ -16598,18 +17068,18 @@
       <c r="C45" s="63">
         <v>22.25</v>
       </c>
-      <c r="D45" s="137" t="s">
+      <c r="D45" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="138"/>
-      <c r="F45" s="134" t="s">
+      <c r="E45" s="139"/>
+      <c r="F45" s="135" t="s">
         <v>121</v>
       </c>
-      <c r="G45" s="135"/>
-      <c r="H45" s="135"/>
-      <c r="I45" s="135"/>
-      <c r="J45" s="135"/>
-      <c r="K45" s="136"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="136"/>
+      <c r="J45" s="136"/>
+      <c r="K45" s="137"/>
     </row>
     <row r="46" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="62" t="s">
@@ -16618,18 +17088,18 @@
       <c r="C46" s="63">
         <v>19.059999999999999</v>
       </c>
-      <c r="D46" s="137" t="s">
+      <c r="D46" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="138"/>
-      <c r="F46" s="134" t="s">
+      <c r="E46" s="139"/>
+      <c r="F46" s="135" t="s">
         <v>121</v>
       </c>
-      <c r="G46" s="135"/>
-      <c r="H46" s="135"/>
-      <c r="I46" s="135"/>
-      <c r="J46" s="135"/>
-      <c r="K46" s="136"/>
+      <c r="G46" s="136"/>
+      <c r="H46" s="136"/>
+      <c r="I46" s="136"/>
+      <c r="J46" s="136"/>
+      <c r="K46" s="137"/>
     </row>
     <row r="47" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="62" t="s">
@@ -16638,18 +17108,18 @@
       <c r="C47" s="63">
         <v>19.059999999999999</v>
       </c>
-      <c r="D47" s="137" t="s">
+      <c r="D47" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="138"/>
-      <c r="F47" s="134" t="s">
+      <c r="E47" s="139"/>
+      <c r="F47" s="135" t="s">
         <v>121</v>
       </c>
-      <c r="G47" s="135"/>
-      <c r="H47" s="135"/>
-      <c r="I47" s="135"/>
-      <c r="J47" s="135"/>
-      <c r="K47" s="136"/>
+      <c r="G47" s="136"/>
+      <c r="H47" s="136"/>
+      <c r="I47" s="136"/>
+      <c r="J47" s="136"/>
+      <c r="K47" s="137"/>
     </row>
     <row r="48" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="62" t="s">
@@ -16658,66 +17128,66 @@
       <c r="C48" s="63">
         <v>0.9</v>
       </c>
-      <c r="D48" s="137" t="s">
+      <c r="D48" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="138"/>
-      <c r="F48" s="134"/>
-      <c r="G48" s="135"/>
-      <c r="H48" s="135"/>
-      <c r="I48" s="135"/>
-      <c r="J48" s="135"/>
-      <c r="K48" s="136"/>
+      <c r="E48" s="139"/>
+      <c r="F48" s="135"/>
+      <c r="G48" s="136"/>
+      <c r="H48" s="136"/>
+      <c r="I48" s="136"/>
+      <c r="J48" s="136"/>
+      <c r="K48" s="137"/>
     </row>
     <row r="49" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="60"/>
       <c r="C49" s="60"/>
       <c r="D49" s="60"/>
       <c r="E49" s="60"/>
-      <c r="F49" s="122"/>
-      <c r="G49" s="123"/>
-      <c r="H49" s="123"/>
-      <c r="I49" s="123"/>
-      <c r="J49" s="123"/>
-      <c r="K49" s="124"/>
+      <c r="F49" s="123"/>
+      <c r="G49" s="124"/>
+      <c r="H49" s="124"/>
+      <c r="I49" s="124"/>
+      <c r="J49" s="124"/>
+      <c r="K49" s="125"/>
     </row>
     <row r="50" spans="2:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="125" t="s">
+      <c r="B50" s="126" t="s">
         <v>113</v>
       </c>
-      <c r="C50" s="126"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
-      <c r="G50" s="126"/>
-      <c r="H50" s="126"/>
-      <c r="I50" s="126"/>
-      <c r="J50" s="126"/>
-      <c r="K50" s="127"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="127"/>
+      <c r="E50" s="127"/>
+      <c r="F50" s="127"/>
+      <c r="G50" s="127"/>
+      <c r="H50" s="127"/>
+      <c r="I50" s="127"/>
+      <c r="J50" s="127"/>
+      <c r="K50" s="128"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B51" s="128"/>
-      <c r="C51" s="129"/>
-      <c r="D51" s="129"/>
-      <c r="E51" s="129"/>
-      <c r="F51" s="129"/>
-      <c r="G51" s="129"/>
-      <c r="H51" s="129"/>
-      <c r="I51" s="129"/>
-      <c r="J51" s="129"/>
-      <c r="K51" s="130"/>
+      <c r="B51" s="129"/>
+      <c r="C51" s="130"/>
+      <c r="D51" s="130"/>
+      <c r="E51" s="130"/>
+      <c r="F51" s="130"/>
+      <c r="G51" s="130"/>
+      <c r="H51" s="130"/>
+      <c r="I51" s="130"/>
+      <c r="J51" s="130"/>
+      <c r="K51" s="131"/>
     </row>
     <row r="52" spans="2:11" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="131"/>
-      <c r="C52" s="132"/>
-      <c r="D52" s="132"/>
-      <c r="E52" s="132"/>
-      <c r="F52" s="132"/>
-      <c r="G52" s="132"/>
-      <c r="H52" s="132"/>
-      <c r="I52" s="132"/>
-      <c r="J52" s="132"/>
-      <c r="K52" s="133"/>
+      <c r="B52" s="132"/>
+      <c r="C52" s="133"/>
+      <c r="D52" s="133"/>
+      <c r="E52" s="133"/>
+      <c r="F52" s="133"/>
+      <c r="G52" s="133"/>
+      <c r="H52" s="133"/>
+      <c r="I52" s="133"/>
+      <c r="J52" s="133"/>
+      <c r="K52" s="134"/>
     </row>
     <row r="53" spans="2:11" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="61"/>
@@ -16839,98 +17309,98 @@
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="143" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
     </row>
     <row r="3" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="151" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="150" t="s">
+      <c r="B4" s="151" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="152"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="153"/>
     </row>
     <row r="5" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="150" t="s">
+      <c r="B5" s="151" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="151"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="151"/>
-      <c r="I5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="153"/>
     </row>
     <row r="25" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="125" t="s">
+      <c r="B26" s="126" t="s">
         <v>169</v>
       </c>
-      <c r="C26" s="126"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="127"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="127"/>
+      <c r="J26" s="128"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="128"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="129"/>
-      <c r="J27" s="130"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="131"/>
     </row>
     <row r="28" spans="2:10" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="131"/>
-      <c r="C28" s="132"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="133"/>
+      <c r="B28" s="132"/>
+      <c r="C28" s="133"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="133"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="133"/>
+      <c r="J28" s="134"/>
     </row>
     <row r="29" spans="2:10" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="60"/>
@@ -16943,17 +17413,17 @@
       <c r="I29" s="60"/>
     </row>
     <row r="30" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="153" t="s">
+      <c r="B30" s="154" t="s">
         <v>166</v>
       </c>
-      <c r="C30" s="154"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="154"/>
-      <c r="H30" s="154"/>
-      <c r="I30" s="154"/>
-      <c r="J30" s="155"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="155"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="155"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="156"/>
     </row>
     <row r="31" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="61"/>
@@ -16987,21 +17457,21 @@
       <c r="J33" s="61"/>
     </row>
     <row r="34" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="143" t="s">
+      <c r="B34" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="144"/>
+      <c r="C34" s="145"/>
       <c r="D34" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="143" t="s">
+      <c r="E34" s="144" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="144"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="145"/>
     </row>
     <row r="35" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="84" t="s">
@@ -17013,12 +17483,12 @@
       <c r="D35" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="159"/>
-      <c r="H35" s="159"/>
-      <c r="I35" s="159"/>
-      <c r="J35" s="159"/>
+      <c r="E35" s="160"/>
+      <c r="F35" s="160"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="160"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="160"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="84" t="s">
@@ -17029,12 +17499,12 @@
         <v>0</v>
       </c>
       <c r="D36" s="87"/>
-      <c r="E36" s="159"/>
-      <c r="F36" s="159"/>
-      <c r="G36" s="159"/>
-      <c r="H36" s="159"/>
-      <c r="I36" s="159"/>
-      <c r="J36" s="159"/>
+      <c r="E36" s="160"/>
+      <c r="F36" s="160"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="160"/>
+      <c r="I36" s="160"/>
+      <c r="J36" s="160"/>
     </row>
     <row r="37" spans="2:10" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="84" t="s">
@@ -17045,14 +17515,14 @@
         <v>0</v>
       </c>
       <c r="D37" s="88"/>
-      <c r="E37" s="160" t="s">
+      <c r="E37" s="161" t="s">
         <v>171</v>
       </c>
-      <c r="F37" s="161"/>
-      <c r="G37" s="161"/>
-      <c r="H37" s="161"/>
-      <c r="I37" s="161"/>
-      <c r="J37" s="161"/>
+      <c r="F37" s="162"/>
+      <c r="G37" s="162"/>
+      <c r="H37" s="162"/>
+      <c r="I37" s="162"/>
+      <c r="J37" s="162"/>
     </row>
     <row r="38" spans="2:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="84" t="s">
@@ -17063,14 +17533,14 @@
         <v>0</v>
       </c>
       <c r="D38" s="88"/>
-      <c r="E38" s="160" t="s">
+      <c r="E38" s="161" t="s">
         <v>174</v>
       </c>
-      <c r="F38" s="161"/>
-      <c r="G38" s="161"/>
-      <c r="H38" s="161"/>
-      <c r="I38" s="161"/>
-      <c r="J38" s="161"/>
+      <c r="F38" s="162"/>
+      <c r="G38" s="162"/>
+      <c r="H38" s="162"/>
+      <c r="I38" s="162"/>
+      <c r="J38" s="162"/>
     </row>
     <row r="39" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="84" t="s">
@@ -17083,14 +17553,14 @@
       <c r="D39" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="160" t="s">
+      <c r="E39" s="161" t="s">
         <v>109</v>
       </c>
-      <c r="F39" s="161"/>
-      <c r="G39" s="161"/>
-      <c r="H39" s="161"/>
-      <c r="I39" s="161"/>
-      <c r="J39" s="161"/>
+      <c r="F39" s="162"/>
+      <c r="G39" s="162"/>
+      <c r="H39" s="162"/>
+      <c r="I39" s="162"/>
+      <c r="J39" s="162"/>
     </row>
     <row r="40" spans="2:10" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="84" t="s">
@@ -17103,14 +17573,14 @@
       <c r="D40" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="160" t="s">
+      <c r="E40" s="161" t="s">
         <v>173</v>
       </c>
-      <c r="F40" s="161"/>
-      <c r="G40" s="161"/>
-      <c r="H40" s="161"/>
-      <c r="I40" s="161"/>
-      <c r="J40" s="161"/>
+      <c r="F40" s="162"/>
+      <c r="G40" s="162"/>
+      <c r="H40" s="162"/>
+      <c r="I40" s="162"/>
+      <c r="J40" s="162"/>
     </row>
     <row r="41" spans="2:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="84" t="s">
@@ -17123,14 +17593,14 @@
       <c r="D41" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="160" t="s">
+      <c r="E41" s="161" t="s">
         <v>172</v>
       </c>
-      <c r="F41" s="161"/>
-      <c r="G41" s="161"/>
-      <c r="H41" s="161"/>
-      <c r="I41" s="161"/>
-      <c r="J41" s="161"/>
+      <c r="F41" s="162"/>
+      <c r="G41" s="162"/>
+      <c r="H41" s="162"/>
+      <c r="I41" s="162"/>
+      <c r="J41" s="162"/>
     </row>
     <row r="42" spans="2:10" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="84" t="s">
@@ -17143,14 +17613,14 @@
       <c r="D42" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="160" t="s">
+      <c r="E42" s="161" t="s">
         <v>175</v>
       </c>
-      <c r="F42" s="161"/>
-      <c r="G42" s="161"/>
-      <c r="H42" s="161"/>
-      <c r="I42" s="161"/>
-      <c r="J42" s="161"/>
+      <c r="F42" s="162"/>
+      <c r="G42" s="162"/>
+      <c r="H42" s="162"/>
+      <c r="I42" s="162"/>
+      <c r="J42" s="162"/>
     </row>
     <row r="43" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="84" t="s">
@@ -17163,14 +17633,14 @@
       <c r="D43" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="160" t="s">
+      <c r="E43" s="161" t="s">
         <v>176</v>
       </c>
-      <c r="F43" s="161"/>
-      <c r="G43" s="161"/>
-      <c r="H43" s="161"/>
-      <c r="I43" s="161"/>
-      <c r="J43" s="161"/>
+      <c r="F43" s="162"/>
+      <c r="G43" s="162"/>
+      <c r="H43" s="162"/>
+      <c r="I43" s="162"/>
+      <c r="J43" s="162"/>
     </row>
     <row r="44" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="84" t="s">
@@ -17182,14 +17652,14 @@
       <c r="D44" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="160" t="s">
+      <c r="E44" s="161" t="s">
         <v>120</v>
       </c>
-      <c r="F44" s="161"/>
-      <c r="G44" s="161"/>
-      <c r="H44" s="161"/>
-      <c r="I44" s="161"/>
-      <c r="J44" s="161"/>
+      <c r="F44" s="162"/>
+      <c r="G44" s="162"/>
+      <c r="H44" s="162"/>
+      <c r="I44" s="162"/>
+      <c r="J44" s="162"/>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="84" t="s">
@@ -17202,14 +17672,14 @@
       <c r="D45" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="159" t="s">
+      <c r="E45" s="160" t="s">
         <v>121</v>
       </c>
-      <c r="F45" s="159"/>
-      <c r="G45" s="159"/>
-      <c r="H45" s="159"/>
-      <c r="I45" s="159"/>
-      <c r="J45" s="159"/>
+      <c r="F45" s="160"/>
+      <c r="G45" s="160"/>
+      <c r="H45" s="160"/>
+      <c r="I45" s="160"/>
+      <c r="J45" s="160"/>
     </row>
     <row r="46" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="84" t="s">
@@ -17221,14 +17691,14 @@
       <c r="D46" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="159" t="s">
+      <c r="E46" s="160" t="s">
         <v>121</v>
       </c>
-      <c r="F46" s="159"/>
-      <c r="G46" s="159"/>
-      <c r="H46" s="159"/>
-      <c r="I46" s="159"/>
-      <c r="J46" s="159"/>
+      <c r="F46" s="160"/>
+      <c r="G46" s="160"/>
+      <c r="H46" s="160"/>
+      <c r="I46" s="160"/>
+      <c r="J46" s="160"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="84" t="s">
@@ -17240,14 +17710,14 @@
       <c r="D47" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="159" t="s">
+      <c r="E47" s="160" t="s">
         <v>121</v>
       </c>
-      <c r="F47" s="159"/>
-      <c r="G47" s="159"/>
-      <c r="H47" s="159"/>
-      <c r="I47" s="159"/>
-      <c r="J47" s="159"/>
+      <c r="F47" s="160"/>
+      <c r="G47" s="160"/>
+      <c r="H47" s="160"/>
+      <c r="I47" s="160"/>
+      <c r="J47" s="160"/>
     </row>
     <row r="48" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="84" t="s">
@@ -17260,58 +17730,58 @@
       <c r="D48" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="159"/>
-      <c r="F48" s="159"/>
-      <c r="G48" s="159"/>
-      <c r="H48" s="159"/>
-      <c r="I48" s="159"/>
-      <c r="J48" s="159"/>
+      <c r="E48" s="160"/>
+      <c r="F48" s="160"/>
+      <c r="G48" s="160"/>
+      <c r="H48" s="160"/>
+      <c r="I48" s="160"/>
+      <c r="J48" s="160"/>
     </row>
     <row r="49" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="83"/>
       <c r="C49" s="83"/>
       <c r="D49" s="83"/>
-      <c r="E49" s="156"/>
-      <c r="F49" s="157"/>
-      <c r="G49" s="157"/>
-      <c r="H49" s="157"/>
-      <c r="I49" s="157"/>
-      <c r="J49" s="158"/>
+      <c r="E49" s="157"/>
+      <c r="F49" s="158"/>
+      <c r="G49" s="158"/>
+      <c r="H49" s="158"/>
+      <c r="I49" s="158"/>
+      <c r="J49" s="159"/>
     </row>
     <row r="50" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="125" t="s">
+      <c r="B50" s="126" t="s">
         <v>170</v>
       </c>
-      <c r="C50" s="126"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
-      <c r="G50" s="126"/>
-      <c r="H50" s="126"/>
-      <c r="I50" s="126"/>
-      <c r="J50" s="127"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="127"/>
+      <c r="E50" s="127"/>
+      <c r="F50" s="127"/>
+      <c r="G50" s="127"/>
+      <c r="H50" s="127"/>
+      <c r="I50" s="127"/>
+      <c r="J50" s="128"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="128"/>
-      <c r="C51" s="129"/>
-      <c r="D51" s="129"/>
-      <c r="E51" s="129"/>
-      <c r="F51" s="129"/>
-      <c r="G51" s="129"/>
-      <c r="H51" s="129"/>
-      <c r="I51" s="129"/>
-      <c r="J51" s="130"/>
+      <c r="B51" s="129"/>
+      <c r="C51" s="130"/>
+      <c r="D51" s="130"/>
+      <c r="E51" s="130"/>
+      <c r="F51" s="130"/>
+      <c r="G51" s="130"/>
+      <c r="H51" s="130"/>
+      <c r="I51" s="130"/>
+      <c r="J51" s="131"/>
     </row>
     <row r="52" spans="2:10" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="131"/>
-      <c r="C52" s="132"/>
-      <c r="D52" s="132"/>
-      <c r="E52" s="132"/>
-      <c r="F52" s="132"/>
-      <c r="G52" s="132"/>
-      <c r="H52" s="132"/>
-      <c r="I52" s="132"/>
-      <c r="J52" s="133"/>
+      <c r="B52" s="132"/>
+      <c r="C52" s="133"/>
+      <c r="D52" s="133"/>
+      <c r="E52" s="133"/>
+      <c r="F52" s="133"/>
+      <c r="G52" s="133"/>
+      <c r="H52" s="133"/>
+      <c r="I52" s="133"/>
+      <c r="J52" s="134"/>
     </row>
     <row r="53" spans="2:10" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="61"/>

--- a/Planificación del proyecto/EV2, EV3 Equipo 01.xlsx
+++ b/Planificación del proyecto/EV2, EV3 Equipo 01.xlsx
@@ -1513,7 +1513,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1726,32 +1726,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1780,75 +1762,43 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1880,6 +1830,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1889,6 +1866,42 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1897,20 +1910,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3342,59 +3341,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="113"/>
-      <c r="D1" s="110" t="s">
+      <c r="C1" s="107"/>
+      <c r="D1" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="116" t="s">
+      <c r="E1" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="116" t="s">
+      <c r="G1" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="102" t="s">
+      <c r="H1" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="103"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="105" t="s">
+      <c r="I1" s="113"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="103"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="103"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="105" t="s">
+      <c r="L1" s="113"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="113"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="103"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="102" t="s">
+      <c r="R1" s="113"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="103"/>
-      <c r="V1" s="104"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="114"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="111"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="2">
         <v>44081</v>
       </c>
@@ -3439,17 +3438,17 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="111"/>
+      <c r="A3" s="105"/>
       <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="111"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
       <c r="H3" s="19" t="s">
         <v>12</v>
       </c>
@@ -4915,13 +4914,13 @@
       <c r="D36" s="39"/>
       <c r="E36" s="26"/>
       <c r="F36" s="37"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="97"/>
-      <c r="K36" s="97"/>
-      <c r="L36" s="97"/>
-      <c r="M36" s="97"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="116"/>
+      <c r="K36" s="116"/>
+      <c r="L36" s="116"/>
+      <c r="M36" s="116"/>
       <c r="N36" s="37"/>
       <c r="O36" s="37"/>
       <c r="P36" s="37"/>
@@ -4966,58 +4965,58 @@
       <c r="G38" s="24"/>
     </row>
     <row r="39" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="106"/>
-      <c r="B39" s="106"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="106"/>
-      <c r="E39" s="106"/>
+      <c r="A39" s="100"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
       <c r="F39" s="24"/>
-      <c r="G39" s="107" t="s">
+      <c r="G39" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="H39" s="108"/>
-      <c r="I39" s="108"/>
-      <c r="J39" s="108"/>
-      <c r="K39" s="108"/>
-      <c r="L39" s="108"/>
-      <c r="M39" s="109"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="102"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="102"/>
+      <c r="L39" s="102"/>
+      <c r="M39" s="103"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="100"/>
-      <c r="B40" s="101"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
+      <c r="A40" s="117"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="118"/>
       <c r="F40" s="24"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="97"/>
-      <c r="J40" s="97"/>
-      <c r="K40" s="97"/>
-      <c r="L40" s="97"/>
-      <c r="M40" s="97"/>
+      <c r="G40" s="116"/>
+      <c r="H40" s="116"/>
+      <c r="I40" s="116"/>
+      <c r="J40" s="116"/>
+      <c r="K40" s="116"/>
+      <c r="L40" s="116"/>
+      <c r="M40" s="116"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A41" s="100"/>
-      <c r="B41" s="101"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
+      <c r="A41" s="117"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="118"/>
       <c r="F41" s="24"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="97"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="97"/>
-      <c r="L41" s="97"/>
-      <c r="M41" s="97"/>
+      <c r="G41" s="116"/>
+      <c r="H41" s="116"/>
+      <c r="I41" s="116"/>
+      <c r="J41" s="116"/>
+      <c r="K41" s="116"/>
+      <c r="L41" s="116"/>
+      <c r="M41" s="116"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="100"/>
-      <c r="B42" s="101"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
+      <c r="A42" s="117"/>
+      <c r="B42" s="118"/>
+      <c r="C42" s="118"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="118"/>
       <c r="F42" s="24"/>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
@@ -5026,29 +5025,29 @@
       <c r="K42" s="22"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="G43" s="97"/>
-      <c r="H43" s="97"/>
+      <c r="G43" s="116"/>
+      <c r="H43" s="116"/>
       <c r="I43" s="22"/>
       <c r="J43" s="22"/>
       <c r="K43" s="22"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="G44" s="97"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="97"/>
-      <c r="K44" s="97"/>
-      <c r="L44" s="97"/>
-      <c r="M44" s="97"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="116"/>
+      <c r="I44" s="116"/>
+      <c r="J44" s="116"/>
+      <c r="K44" s="116"/>
+      <c r="L44" s="116"/>
+      <c r="M44" s="116"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="G45" s="97"/>
-      <c r="H45" s="97"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="97"/>
-      <c r="K45" s="97"/>
-      <c r="L45" s="97"/>
-      <c r="M45" s="97"/>
+      <c r="G45" s="116"/>
+      <c r="H45" s="116"/>
+      <c r="I45" s="116"/>
+      <c r="J45" s="116"/>
+      <c r="K45" s="116"/>
+      <c r="L45" s="116"/>
+      <c r="M45" s="116"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D47" s="24"/>
@@ -5068,10 +5067,10 @@
         <f>E56-E54</f>
         <v>0</v>
       </c>
-      <c r="I50" s="94" t="s">
+      <c r="I50" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="J50" s="94"/>
+      <c r="J50" s="96"/>
       <c r="K50" s="98"/>
       <c r="L50" s="99"/>
       <c r="M50" s="99"/>
@@ -5089,10 +5088,10 @@
         <f>E56-E55</f>
         <v>0</v>
       </c>
-      <c r="I51" s="94" t="s">
+      <c r="I51" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="J51" s="94"/>
+      <c r="J51" s="96"/>
       <c r="K51" s="98"/>
       <c r="L51" s="99"/>
       <c r="M51" s="99"/>
@@ -5102,10 +5101,10 @@
       <c r="Q51" s="99"/>
     </row>
     <row r="52" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="D52" s="95" t="s">
+      <c r="D52" s="119" t="s">
         <v>105</v>
       </c>
-      <c r="E52" s="96"/>
+      <c r="E52" s="120"/>
       <c r="G52" s="32" t="s">
         <v>23</v>
       </c>
@@ -5113,10 +5112,10 @@
         <f>E56/E54</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I52" s="94" t="s">
+      <c r="I52" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="J52" s="94"/>
+      <c r="J52" s="96"/>
       <c r="K52" s="98"/>
       <c r="L52" s="99"/>
       <c r="M52" s="99"/>
@@ -5138,10 +5137,10 @@
         <f>E56/E55</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I53" s="94" t="s">
+      <c r="I53" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="J53" s="94"/>
+      <c r="J53" s="96"/>
       <c r="K53" s="98"/>
       <c r="L53" s="99"/>
       <c r="M53" s="99"/>
@@ -5165,10 +5164,10 @@
         <f>E53-E56</f>
         <v>0</v>
       </c>
-      <c r="I54" s="94" t="s">
+      <c r="I54" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="J54" s="94"/>
+      <c r="J54" s="96"/>
       <c r="K54" s="98"/>
       <c r="L54" s="99"/>
       <c r="M54" s="99"/>
@@ -5192,10 +5191,10 @@
         <f>(E53-E56)/(H52*H53)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I55" s="94" t="s">
+      <c r="I55" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="J55" s="94"/>
+      <c r="J55" s="96"/>
       <c r="K55" s="98"/>
       <c r="L55" s="99"/>
       <c r="M55" s="99"/>
@@ -5219,10 +5218,10 @@
         <f>E55+(E53-E56)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="94" t="s">
+      <c r="I56" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="J56" s="94"/>
+      <c r="J56" s="96"/>
       <c r="K56" s="98"/>
       <c r="L56" s="99"/>
       <c r="M56" s="99"/>
@@ -5242,10 +5241,10 @@
         <f>E53/H53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I57" s="94" t="s">
+      <c r="I57" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="J57" s="118"/>
+      <c r="J57" s="97"/>
       <c r="K57" s="98"/>
       <c r="L57" s="99"/>
       <c r="M57" s="99"/>
@@ -5265,10 +5264,10 @@
         <f>E55+(E53-E56)/(H52*H53)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I58" s="94" t="s">
+      <c r="I58" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="J58" s="118"/>
+      <c r="J58" s="97"/>
       <c r="K58" s="98"/>
       <c r="L58" s="99"/>
       <c r="M58" s="99"/>
@@ -5289,10 +5288,10 @@
         <f>(E53-E56)/(E53-E55)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I59" s="94" t="s">
+      <c r="I59" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="J59" s="118"/>
+      <c r="J59" s="97"/>
       <c r="K59" s="98"/>
       <c r="L59" s="99"/>
       <c r="M59" s="99"/>
@@ -5508,20 +5507,25 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:Q59"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="K56:Q56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:Q57"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:Q58"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:Q53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:Q54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G45:M45"/>
+    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="G40:M40"/>
+    <mergeCell ref="G41:M41"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:M44"/>
+    <mergeCell ref="G36:M36"/>
     <mergeCell ref="A39:E39"/>
     <mergeCell ref="G39:M39"/>
     <mergeCell ref="A1:A3"/>
@@ -5532,25 +5536,20 @@
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:M44"/>
-    <mergeCell ref="G36:M36"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="G40:M40"/>
-    <mergeCell ref="G41:M41"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G45:M45"/>
-    <mergeCell ref="K50:Q50"/>
-    <mergeCell ref="K51:Q51"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5577,59 +5576,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="113"/>
-      <c r="D1" s="110" t="s">
+      <c r="C1" s="107"/>
+      <c r="D1" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="116" t="s">
+      <c r="E1" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="116" t="s">
+      <c r="G1" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="102" t="s">
+      <c r="H1" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="103"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="105" t="s">
+      <c r="I1" s="113"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="103"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="103"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="105" t="s">
+      <c r="L1" s="113"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="113"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="103"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="102" t="s">
+      <c r="R1" s="113"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="103"/>
-      <c r="V1" s="104"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="114"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="111"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="2">
         <v>44081</v>
       </c>
@@ -5674,17 +5673,17 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="111"/>
+      <c r="A3" s="105"/>
       <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="111"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
       <c r="H3" s="19" t="s">
         <v>12</v>
       </c>
@@ -7924,15 +7923,15 @@
       <c r="D52" s="39"/>
       <c r="E52" s="26"/>
       <c r="F52" s="37"/>
-      <c r="G52" s="107" t="s">
+      <c r="G52" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="H52" s="108"/>
-      <c r="I52" s="108"/>
-      <c r="J52" s="108"/>
-      <c r="K52" s="108"/>
-      <c r="L52" s="108"/>
-      <c r="M52" s="109"/>
+      <c r="H52" s="102"/>
+      <c r="I52" s="102"/>
+      <c r="J52" s="102"/>
+      <c r="K52" s="102"/>
+      <c r="L52" s="102"/>
+      <c r="M52" s="103"/>
       <c r="N52" s="37"/>
       <c r="O52" s="37"/>
       <c r="P52" s="37"/>
@@ -7959,11 +7958,11 @@
       <c r="M53" s="24"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A54" s="106"/>
-      <c r="B54" s="106"/>
-      <c r="C54" s="106"/>
-      <c r="D54" s="106"/>
-      <c r="E54" s="106"/>
+      <c r="A54" s="100"/>
+      <c r="B54" s="100"/>
+      <c r="C54" s="100"/>
+      <c r="D54" s="100"/>
+      <c r="E54" s="100"/>
       <c r="F54" s="24"/>
       <c r="G54" s="73"/>
       <c r="H54" s="73"/>
@@ -7974,11 +7973,11 @@
       <c r="M54" s="73"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A55" s="100"/>
-      <c r="B55" s="101"/>
-      <c r="C55" s="101"/>
-      <c r="D55" s="101"/>
-      <c r="E55" s="101"/>
+      <c r="A55" s="117"/>
+      <c r="B55" s="118"/>
+      <c r="C55" s="118"/>
+      <c r="D55" s="118"/>
+      <c r="E55" s="118"/>
       <c r="F55" s="24"/>
       <c r="G55" s="73"/>
       <c r="H55" s="73"/>
@@ -7989,11 +7988,11 @@
       <c r="M55" s="73"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A56" s="100"/>
-      <c r="B56" s="101"/>
-      <c r="C56" s="101"/>
-      <c r="D56" s="101"/>
-      <c r="E56" s="101"/>
+      <c r="A56" s="117"/>
+      <c r="B56" s="118"/>
+      <c r="C56" s="118"/>
+      <c r="D56" s="118"/>
+      <c r="E56" s="118"/>
       <c r="F56" s="24"/>
       <c r="G56" s="73"/>
       <c r="H56" s="73"/>
@@ -8004,11 +8003,11 @@
       <c r="M56" s="73"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A57" s="100"/>
-      <c r="B57" s="101"/>
-      <c r="C57" s="101"/>
-      <c r="D57" s="101"/>
-      <c r="E57" s="101"/>
+      <c r="A57" s="117"/>
+      <c r="B57" s="118"/>
+      <c r="C57" s="118"/>
+      <c r="D57" s="118"/>
+      <c r="E57" s="118"/>
       <c r="F57" s="24"/>
       <c r="G57" s="73"/>
       <c r="H57" s="73"/>
@@ -8025,8 +8024,8 @@
       <c r="D58" s="24"/>
       <c r="E58" s="24"/>
       <c r="F58" s="24"/>
-      <c r="G58" s="101"/>
-      <c r="H58" s="101"/>
+      <c r="G58" s="118"/>
+      <c r="H58" s="118"/>
       <c r="I58" s="73"/>
       <c r="J58" s="73"/>
       <c r="K58" s="73"/>
@@ -8111,10 +8110,10 @@
         <f>E71-E69</f>
         <v>0</v>
       </c>
-      <c r="I65" s="94" t="s">
+      <c r="I65" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="J65" s="94"/>
+      <c r="J65" s="96"/>
       <c r="K65" s="98"/>
       <c r="L65" s="99"/>
       <c r="M65" s="99"/>
@@ -8131,10 +8130,10 @@
         <f>E71-E70</f>
         <v>1.75</v>
       </c>
-      <c r="I66" s="94" t="s">
+      <c r="I66" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="J66" s="94"/>
+      <c r="J66" s="96"/>
       <c r="K66" s="98"/>
       <c r="L66" s="99"/>
       <c r="M66" s="99"/>
@@ -8144,10 +8143,10 @@
       <c r="Q66" s="99"/>
     </row>
     <row r="67" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="D67" s="95" t="s">
+      <c r="D67" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="E67" s="96"/>
+      <c r="E67" s="120"/>
       <c r="G67" s="30" t="s">
         <v>23</v>
       </c>
@@ -8155,10 +8154,10 @@
         <f>E71/E69</f>
         <v>1</v>
       </c>
-      <c r="I67" s="94" t="s">
+      <c r="I67" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="J67" s="94"/>
+      <c r="J67" s="96"/>
       <c r="K67" s="98"/>
       <c r="L67" s="99"/>
       <c r="M67" s="99"/>
@@ -8182,10 +8181,10 @@
         <f>E71/E70</f>
         <v>1.2592592592592593</v>
       </c>
-      <c r="I68" s="94" t="s">
+      <c r="I68" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="J68" s="94"/>
+      <c r="J68" s="96"/>
       <c r="K68" s="98"/>
       <c r="L68" s="99"/>
       <c r="M68" s="99"/>
@@ -8212,10 +8211,10 @@
         <f>E68-E71</f>
         <v>216.5</v>
       </c>
-      <c r="I69" s="94" t="s">
+      <c r="I69" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="J69" s="94"/>
+      <c r="J69" s="96"/>
       <c r="K69" s="98"/>
       <c r="L69" s="99"/>
       <c r="M69" s="99"/>
@@ -8242,10 +8241,10 @@
         <f>(E68-E71)/(H67*H68)</f>
         <v>171.92647058823528</v>
       </c>
-      <c r="I70" s="94" t="s">
+      <c r="I70" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="J70" s="94"/>
+      <c r="J70" s="96"/>
       <c r="K70" s="98"/>
       <c r="L70" s="99"/>
       <c r="M70" s="99"/>
@@ -8272,10 +8271,10 @@
         <f>E70+(E68-E71)</f>
         <v>223.25</v>
       </c>
-      <c r="I71" s="94" t="s">
+      <c r="I71" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="J71" s="94"/>
+      <c r="J71" s="96"/>
       <c r="K71" s="98"/>
       <c r="L71" s="99"/>
       <c r="M71" s="99"/>
@@ -8295,10 +8294,10 @@
         <f>E68/H68</f>
         <v>178.67647058823528</v>
       </c>
-      <c r="I72" s="94" t="s">
+      <c r="I72" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="J72" s="118"/>
+      <c r="J72" s="97"/>
       <c r="K72" s="98"/>
       <c r="L72" s="99"/>
       <c r="M72" s="99"/>
@@ -8319,10 +8318,10 @@
         <f>E70+(E68-E71)/(H67*H68)</f>
         <v>178.67647058823528</v>
       </c>
-      <c r="I73" s="94" t="s">
+      <c r="I73" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="J73" s="118"/>
+      <c r="J73" s="97"/>
       <c r="K73" s="98"/>
       <c r="L73" s="99"/>
       <c r="M73" s="99"/>
@@ -8343,10 +8342,10 @@
         <f>(E68-E71)/(E68-E70)</f>
         <v>0.99198167239404356</v>
       </c>
-      <c r="I74" s="94" t="s">
+      <c r="I74" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="J74" s="118"/>
+      <c r="J74" s="97"/>
       <c r="K74" s="98"/>
       <c r="L74" s="99"/>
       <c r="M74" s="99"/>
@@ -8595,29 +8594,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="K73:Q73"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:Q74"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:Q70"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:Q71"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:Q72"/>
-    <mergeCell ref="K69:Q69"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="K65:Q65"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:Q67"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:Q68"/>
-    <mergeCell ref="I69:J69"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A56:E56"/>
     <mergeCell ref="T1:V1"/>
@@ -8633,6 +8609,29 @@
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="G52:M52"/>
+    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8644,8 +8643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AK119" sqref="AK119"/>
+    <sheetView tabSelected="1" topLeftCell="S100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M121" sqref="M121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8656,84 +8655,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="113"/>
-      <c r="D1" s="110" t="s">
+      <c r="C1" s="107"/>
+      <c r="D1" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="116" t="s">
+      <c r="E1" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="116" t="s">
+      <c r="G1" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="102" t="s">
+      <c r="H1" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="103"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="105" t="s">
+      <c r="I1" s="113"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="103"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="103"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="105" t="s">
+      <c r="L1" s="113"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="113"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="103"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="105" t="s">
+      <c r="R1" s="113"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="115" t="s">
         <v>231</v>
       </c>
-      <c r="U1" s="103"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="105" t="s">
+      <c r="U1" s="113"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="115" t="s">
         <v>232</v>
       </c>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="105" t="s">
+      <c r="X1" s="113"/>
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="115" t="s">
         <v>233</v>
       </c>
-      <c r="AA1" s="103"/>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="105" t="s">
+      <c r="AA1" s="113"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="115" t="s">
         <v>234</v>
       </c>
-      <c r="AD1" s="103"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="105" t="s">
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="115" t="s">
         <v>235</v>
       </c>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="104"/>
-      <c r="AI1" s="102" t="s">
+      <c r="AG1" s="113"/>
+      <c r="AH1" s="114"/>
+      <c r="AI1" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="AJ1" s="103"/>
-      <c r="AK1" s="104"/>
+      <c r="AJ1" s="113"/>
+      <c r="AK1" s="114"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A2" s="122"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
+      <c r="A2" s="121"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="2">
         <v>44081</v>
       </c>
@@ -8823,17 +8822,17 @@
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A3" s="122"/>
+      <c r="A3" s="121"/>
       <c r="B3" s="76" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="111"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
       <c r="H3" s="19" t="s">
         <v>12</v>
       </c>
@@ -13077,7 +13076,7 @@
         <v>0</v>
       </c>
       <c r="AK70" s="92">
-        <f t="shared" ref="AK69:AK117" si="5">J70+M70+P70+S70+V70+Y70+AB70+AE70+AH70</f>
+        <f t="shared" ref="AK70:AK117" si="5">J70+M70+P70+S70+V70+Y70+AB70+AE70+AH70</f>
         <v>0</v>
       </c>
     </row>
@@ -14516,7 +14515,7 @@
       <c r="N95" s="82"/>
       <c r="O95" s="82"/>
       <c r="P95" s="82"/>
-      <c r="Q95" s="163"/>
+      <c r="Q95" s="94"/>
       <c r="R95" s="80"/>
       <c r="S95" s="80"/>
       <c r="T95" s="35"/>
@@ -14574,7 +14573,7 @@
       <c r="N96" s="82"/>
       <c r="O96" s="82"/>
       <c r="P96" s="82"/>
-      <c r="Q96" s="163"/>
+      <c r="Q96" s="94"/>
       <c r="R96" s="80"/>
       <c r="S96" s="80"/>
       <c r="T96" s="35"/>
@@ -14630,7 +14629,7 @@
       <c r="N97" s="82"/>
       <c r="O97" s="82"/>
       <c r="P97" s="82"/>
-      <c r="Q97" s="163"/>
+      <c r="Q97" s="94"/>
       <c r="R97" s="80"/>
       <c r="S97" s="80"/>
       <c r="T97" s="35"/>
@@ -15334,7 +15333,7 @@
       <c r="T109" s="35"/>
       <c r="U109" s="35"/>
       <c r="V109" s="35"/>
-      <c r="W109" s="163"/>
+      <c r="W109" s="94"/>
       <c r="X109" s="80"/>
       <c r="Y109" s="80"/>
       <c r="Z109" s="35"/>
@@ -15826,140 +15825,248 @@
     <row r="118" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
-      <c r="E118" s="164" t="s">
+      <c r="E118" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="H118">
-        <f>SUM(H4:H117)</f>
+      <c r="F118" s="28"/>
+      <c r="G118" s="28"/>
+      <c r="H118" s="28">
+        <f t="shared" ref="H118:AK118" si="6">SUM(H4:H117)</f>
         <v>11.5</v>
       </c>
-      <c r="I118">
-        <f>SUM(I4:I117)</f>
+      <c r="I118" s="28">
+        <f t="shared" si="6"/>
         <v>8.5</v>
       </c>
-      <c r="J118">
-        <f>SUM(J4:J117)</f>
+      <c r="J118" s="28">
+        <f t="shared" si="6"/>
         <v>6.75</v>
       </c>
-      <c r="K118">
-        <f>SUM(K4:K117)</f>
+      <c r="K118" s="28">
+        <f t="shared" si="6"/>
         <v>12.5</v>
       </c>
-      <c r="L118">
-        <f>SUM(L4:L117)</f>
+      <c r="L118" s="28">
+        <f t="shared" si="6"/>
         <v>15.5</v>
       </c>
-      <c r="M118">
-        <f>SUM(M4:M117)</f>
+      <c r="M118" s="28">
+        <f t="shared" si="6"/>
         <v>16.75</v>
       </c>
-      <c r="N118">
-        <f>SUM(N4:N117)</f>
+      <c r="N118" s="28">
+        <f t="shared" si="6"/>
         <v>19.5</v>
       </c>
-      <c r="O118">
-        <f>SUM(O4:O117)</f>
+      <c r="O118" s="28">
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="P118">
-        <f>SUM(P4:P117)</f>
+      <c r="P118" s="28">
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="Q118">
-        <f>SUM(Q4:Q117)</f>
+      <c r="Q118" s="28">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="R118">
-        <f>SUM(R4:R117)</f>
-        <v>0</v>
-      </c>
-      <c r="S118" s="1">
-        <f>SUM(S4:S117)</f>
-        <v>0</v>
-      </c>
-      <c r="T118" s="1">
-        <f>SUM(T4:T117)</f>
-        <v>0</v>
-      </c>
-      <c r="U118" s="1">
-        <f>SUM(U4:U117)</f>
-        <v>0</v>
-      </c>
-      <c r="V118" s="1">
-        <f>SUM(V4:V117)</f>
-        <v>0</v>
-      </c>
-      <c r="W118" s="1">
-        <f>SUM(W4:W117)</f>
+      <c r="R118" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S118" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T118" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U118" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V118" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W118" s="28">
+        <f t="shared" si="6"/>
         <v>18.5</v>
       </c>
-      <c r="X118" s="1">
-        <f>SUM(X4:X117)</f>
-        <v>0</v>
-      </c>
-      <c r="Y118" s="1">
-        <f>SUM(Y4:Y117)</f>
-        <v>0</v>
-      </c>
-      <c r="Z118" s="1">
-        <f>SUM(Z4:Z117)</f>
+      <c r="X118" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y118" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z118" s="28">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="AA118" s="1">
-        <f>SUM(AA4:AA117)</f>
-        <v>0</v>
-      </c>
-      <c r="AB118" s="1">
-        <f>SUM(AB4:AB117)</f>
-        <v>0</v>
-      </c>
-      <c r="AC118" s="1">
-        <f>SUM(AC4:AC117)</f>
+      <c r="AA118" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB118" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC118" s="28">
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="AD118" s="1">
-        <f>SUM(AD4:AD117)</f>
-        <v>0</v>
-      </c>
-      <c r="AE118" s="1">
-        <f>SUM(AE4:AE117)</f>
-        <v>0</v>
-      </c>
-      <c r="AF118" s="1">
-        <f>SUM(AF4:AF117)</f>
-        <v>0</v>
-      </c>
-      <c r="AG118" s="1">
-        <f>SUM(AG4:AG117)</f>
-        <v>0</v>
-      </c>
-      <c r="AH118" s="1">
-        <f>SUM(AH4:AH117)</f>
-        <v>0</v>
-      </c>
-      <c r="AI118" s="165">
-        <f>SUM(AI4:AI117)</f>
+      <c r="AD118" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE118" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF118" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG118" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH118" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AI118" s="95">
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
-      <c r="AJ118" s="165">
-        <f>SUM(AJ4:AJ117)</f>
+      <c r="AJ118" s="95">
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="AK118" s="165">
-        <f>SUM(AK4:AK117)</f>
+      <c r="AK118" s="95">
+        <f t="shared" si="6"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="119" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
-      <c r="E119" s="164" t="s">
+      <c r="E119" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="S119" s="1"/>
-      <c r="T119" s="1"/>
-      <c r="U119" s="1"/>
-      <c r="V119" s="1"/>
+      <c r="F119" s="28"/>
+      <c r="G119" s="28"/>
+      <c r="H119" s="28">
+        <f>SUM(H118)</f>
+        <v>11.5</v>
+      </c>
+      <c r="I119" s="28">
+        <f>SUM(I118)</f>
+        <v>8.5</v>
+      </c>
+      <c r="J119" s="28">
+        <f>SUM(J118)</f>
+        <v>6.75</v>
+      </c>
+      <c r="K119" s="28">
+        <f>SUM(K118+H119)</f>
+        <v>24</v>
+      </c>
+      <c r="L119" s="28">
+        <f>SUM(L118+I119)</f>
+        <v>24</v>
+      </c>
+      <c r="M119" s="28">
+        <f>SUM(M118+J119)</f>
+        <v>23.5</v>
+      </c>
+      <c r="N119" s="28">
+        <f>SUM(N118+K119)</f>
+        <v>43.5</v>
+      </c>
+      <c r="O119" s="28">
+        <f>SUM(O118+L119)</f>
+        <v>35</v>
+      </c>
+      <c r="P119" s="28">
+        <f>SUM(P118+M119)</f>
+        <v>36.5</v>
+      </c>
+      <c r="Q119" s="28">
+        <f>SUM(Q118+N119)</f>
+        <v>53.5</v>
+      </c>
+      <c r="R119" s="28">
+        <f>SUM(R118+O119)</f>
+        <v>35</v>
+      </c>
+      <c r="S119" s="28">
+        <f>SUM(S118+P119)</f>
+        <v>36.5</v>
+      </c>
+      <c r="T119" s="28">
+        <f>SUM(T118+Q119)</f>
+        <v>53.5</v>
+      </c>
+      <c r="U119" s="28">
+        <f>SUM(U118+R119)</f>
+        <v>35</v>
+      </c>
+      <c r="V119" s="28">
+        <f>SUM(V118+S119)</f>
+        <v>36.5</v>
+      </c>
+      <c r="W119" s="28">
+        <f>SUM(W118+T119)</f>
+        <v>72</v>
+      </c>
+      <c r="X119" s="28">
+        <f>SUM(X118+U119)</f>
+        <v>35</v>
+      </c>
+      <c r="Y119" s="28">
+        <f>SUM(Y118+V119)</f>
+        <v>36.5</v>
+      </c>
+      <c r="Z119" s="28">
+        <f>SUM(Z118+W119)</f>
+        <v>74</v>
+      </c>
+      <c r="AA119" s="28">
+        <f>SUM(AA118+X119)</f>
+        <v>35</v>
+      </c>
+      <c r="AB119" s="28">
+        <f>SUM(AB118+Y119)</f>
+        <v>36.5</v>
+      </c>
+      <c r="AC119" s="28">
+        <f>SUM(AC118+Z119)</f>
+        <v>88</v>
+      </c>
+      <c r="AD119" s="28">
+        <f>SUM(AD118+AA119)</f>
+        <v>35</v>
+      </c>
+      <c r="AE119" s="28">
+        <f>SUM(AE118+AB119)</f>
+        <v>36.5</v>
+      </c>
+      <c r="AF119" s="28">
+        <f>SUM(AF118+AC119)</f>
+        <v>88</v>
+      </c>
+      <c r="AG119" s="28">
+        <f>SUM(AG118+AD119)</f>
+        <v>35</v>
+      </c>
+      <c r="AH119" s="28">
+        <f>SUM(AH118+AE119)</f>
+        <v>36.5</v>
+      </c>
       <c r="AK119" s="1"/>
     </row>
     <row r="120" spans="1:37" x14ac:dyDescent="0.2">
@@ -16013,19 +16120,19 @@
         <f>E130-E128</f>
         <v>0</v>
       </c>
-      <c r="I124" s="94" t="s">
+      <c r="I124" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="J124" s="94"/>
-      <c r="K124" s="119" t="s">
+      <c r="J124" s="96"/>
+      <c r="K124" s="122" t="s">
         <v>156</v>
       </c>
-      <c r="L124" s="120"/>
-      <c r="M124" s="120"/>
-      <c r="N124" s="120"/>
-      <c r="O124" s="120"/>
-      <c r="P124" s="120"/>
-      <c r="Q124" s="121"/>
+      <c r="L124" s="123"/>
+      <c r="M124" s="123"/>
+      <c r="N124" s="123"/>
+      <c r="O124" s="123"/>
+      <c r="P124" s="123"/>
+      <c r="Q124" s="124"/>
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
       <c r="U124" s="1"/>
@@ -16045,19 +16152,19 @@
         <f>E130-E129</f>
         <v>0</v>
       </c>
-      <c r="I125" s="94" t="s">
+      <c r="I125" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="J125" s="94"/>
-      <c r="K125" s="119" t="s">
+      <c r="J125" s="96"/>
+      <c r="K125" s="122" t="s">
         <v>157</v>
       </c>
-      <c r="L125" s="120"/>
-      <c r="M125" s="120"/>
-      <c r="N125" s="120"/>
-      <c r="O125" s="120"/>
-      <c r="P125" s="120"/>
-      <c r="Q125" s="121"/>
+      <c r="L125" s="123"/>
+      <c r="M125" s="123"/>
+      <c r="N125" s="123"/>
+      <c r="O125" s="123"/>
+      <c r="P125" s="123"/>
+      <c r="Q125" s="124"/>
       <c r="R125" s="1"/>
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
@@ -16066,10 +16173,10 @@
       <c r="W125" s="1"/>
     </row>
     <row r="126" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="D126" s="95" t="s">
+      <c r="D126" s="119" t="s">
         <v>158</v>
       </c>
-      <c r="E126" s="96"/>
+      <c r="E126" s="120"/>
       <c r="F126" s="1"/>
       <c r="G126" s="74" t="s">
         <v>23</v>
@@ -16078,19 +16185,19 @@
         <f>E130/E128</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I126" s="94" t="s">
+      <c r="I126" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="J126" s="94"/>
-      <c r="K126" s="119" t="s">
+      <c r="J126" s="96"/>
+      <c r="K126" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="L126" s="120"/>
-      <c r="M126" s="120"/>
-      <c r="N126" s="120"/>
-      <c r="O126" s="120"/>
-      <c r="P126" s="120"/>
-      <c r="Q126" s="121"/>
+      <c r="L126" s="123"/>
+      <c r="M126" s="123"/>
+      <c r="N126" s="123"/>
+      <c r="O126" s="123"/>
+      <c r="P126" s="123"/>
+      <c r="Q126" s="124"/>
     </row>
     <row r="127" spans="1:37" x14ac:dyDescent="0.2">
       <c r="D127" s="25" t="s">
@@ -16107,19 +16214,19 @@
         <f>E130/E129</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I127" s="94" t="s">
+      <c r="I127" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="J127" s="94"/>
-      <c r="K127" s="119" t="s">
+      <c r="J127" s="96"/>
+      <c r="K127" s="122" t="s">
         <v>160</v>
       </c>
-      <c r="L127" s="120"/>
-      <c r="M127" s="120"/>
-      <c r="N127" s="120"/>
-      <c r="O127" s="120"/>
-      <c r="P127" s="120"/>
-      <c r="Q127" s="121"/>
+      <c r="L127" s="123"/>
+      <c r="M127" s="123"/>
+      <c r="N127" s="123"/>
+      <c r="O127" s="123"/>
+      <c r="P127" s="123"/>
+      <c r="Q127" s="124"/>
     </row>
     <row r="128" spans="1:37" x14ac:dyDescent="0.2">
       <c r="D128" s="74" t="s">
@@ -16137,19 +16244,19 @@
         <f>E127-E130</f>
         <v>225</v>
       </c>
-      <c r="I128" s="94" t="s">
+      <c r="I128" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="J128" s="94"/>
-      <c r="K128" s="119" t="s">
+      <c r="J128" s="96"/>
+      <c r="K128" s="122" t="s">
         <v>161</v>
       </c>
-      <c r="L128" s="120"/>
-      <c r="M128" s="120"/>
-      <c r="N128" s="120"/>
-      <c r="O128" s="120"/>
-      <c r="P128" s="120"/>
-      <c r="Q128" s="121"/>
+      <c r="L128" s="123"/>
+      <c r="M128" s="123"/>
+      <c r="N128" s="123"/>
+      <c r="O128" s="123"/>
+      <c r="P128" s="123"/>
+      <c r="Q128" s="124"/>
     </row>
     <row r="129" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D129" s="34" t="s">
@@ -16167,19 +16274,19 @@
         <f>(E127-E130)/(H126*H127)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I129" s="94" t="s">
+      <c r="I129" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="J129" s="94"/>
-      <c r="K129" s="119" t="s">
+      <c r="J129" s="96"/>
+      <c r="K129" s="122" t="s">
         <v>162</v>
       </c>
-      <c r="L129" s="120"/>
-      <c r="M129" s="120"/>
-      <c r="N129" s="120"/>
-      <c r="O129" s="120"/>
-      <c r="P129" s="120"/>
-      <c r="Q129" s="121"/>
+      <c r="L129" s="123"/>
+      <c r="M129" s="123"/>
+      <c r="N129" s="123"/>
+      <c r="O129" s="123"/>
+      <c r="P129" s="123"/>
+      <c r="Q129" s="124"/>
     </row>
     <row r="130" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D130" s="74" t="s">
@@ -16197,19 +16304,19 @@
         <f>E129+(E127-E130)</f>
         <v>225</v>
       </c>
-      <c r="I130" s="94" t="s">
+      <c r="I130" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="J130" s="94"/>
-      <c r="K130" s="119" t="s">
+      <c r="J130" s="96"/>
+      <c r="K130" s="122" t="s">
         <v>161</v>
       </c>
-      <c r="L130" s="120"/>
-      <c r="M130" s="120"/>
-      <c r="N130" s="120"/>
-      <c r="O130" s="120"/>
-      <c r="P130" s="120"/>
-      <c r="Q130" s="121"/>
+      <c r="L130" s="123"/>
+      <c r="M130" s="123"/>
+      <c r="N130" s="123"/>
+      <c r="O130" s="123"/>
+      <c r="P130" s="123"/>
+      <c r="Q130" s="124"/>
     </row>
     <row r="131" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D131" s="1"/>
@@ -16222,19 +16329,19 @@
         <f>E127/H127</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I131" s="94" t="s">
+      <c r="I131" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="J131" s="118"/>
-      <c r="K131" s="119" t="s">
+      <c r="J131" s="97"/>
+      <c r="K131" s="122" t="s">
         <v>162</v>
       </c>
-      <c r="L131" s="120"/>
-      <c r="M131" s="120"/>
-      <c r="N131" s="120"/>
-      <c r="O131" s="120"/>
-      <c r="P131" s="120"/>
-      <c r="Q131" s="121"/>
+      <c r="L131" s="123"/>
+      <c r="M131" s="123"/>
+      <c r="N131" s="123"/>
+      <c r="O131" s="123"/>
+      <c r="P131" s="123"/>
+      <c r="Q131" s="124"/>
     </row>
     <row r="132" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D132" s="1"/>
@@ -16247,19 +16354,19 @@
         <f>E129+(E127-E130)/(H126*H127)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I132" s="94" t="s">
+      <c r="I132" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="J132" s="118"/>
-      <c r="K132" s="119" t="s">
+      <c r="J132" s="97"/>
+      <c r="K132" s="122" t="s">
         <v>163</v>
       </c>
-      <c r="L132" s="120"/>
-      <c r="M132" s="120"/>
-      <c r="N132" s="120"/>
-      <c r="O132" s="120"/>
-      <c r="P132" s="120"/>
-      <c r="Q132" s="121"/>
+      <c r="L132" s="123"/>
+      <c r="M132" s="123"/>
+      <c r="N132" s="123"/>
+      <c r="O132" s="123"/>
+      <c r="P132" s="123"/>
+      <c r="Q132" s="124"/>
     </row>
     <row r="133" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D133" s="1"/>
@@ -16272,19 +16379,19 @@
         <f>(E127-E130)/(E127-E129)</f>
         <v>1</v>
       </c>
-      <c r="I133" s="94" t="s">
+      <c r="I133" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="J133" s="118"/>
-      <c r="K133" s="119" t="s">
+      <c r="J133" s="97"/>
+      <c r="K133" s="122" t="s">
         <v>164</v>
       </c>
-      <c r="L133" s="120"/>
-      <c r="M133" s="120"/>
-      <c r="N133" s="120"/>
-      <c r="O133" s="120"/>
-      <c r="P133" s="120"/>
-      <c r="Q133" s="121"/>
+      <c r="L133" s="123"/>
+      <c r="M133" s="123"/>
+      <c r="N133" s="123"/>
+      <c r="O133" s="123"/>
+      <c r="P133" s="123"/>
+      <c r="Q133" s="124"/>
     </row>
     <row r="134" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D134" s="1"/>
@@ -16633,13 +16740,25 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="K133:Q133"/>
+    <mergeCell ref="I130:J130"/>
+    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="I127:J127"/>
+    <mergeCell ref="K127:Q127"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="I126:J126"/>
+    <mergeCell ref="K126:Q126"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:S1"/>
@@ -16651,25 +16770,13 @@
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="K124:Q124"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="K125:Q125"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="I126:J126"/>
-    <mergeCell ref="K126:Q126"/>
-    <mergeCell ref="I127:J127"/>
-    <mergeCell ref="K127:Q127"/>
-    <mergeCell ref="I128:J128"/>
-    <mergeCell ref="K128:Q128"/>
-    <mergeCell ref="I129:J129"/>
-    <mergeCell ref="K129:Q129"/>
-    <mergeCell ref="I133:J133"/>
-    <mergeCell ref="K133:Q133"/>
-    <mergeCell ref="I130:J130"/>
-    <mergeCell ref="K130:Q130"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="K131:Q131"/>
-    <mergeCell ref="I132:J132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -16694,105 +16801,105 @@
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="125" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
     </row>
     <row r="3" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="135" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="153"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="137"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="135" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="153"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="137"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="135" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="153"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="137"/>
     </row>
     <row r="25" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="126" t="s">
+      <c r="B26" s="138" t="s">
         <v>168</v>
       </c>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="127"/>
-      <c r="K26" s="128"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="139"/>
+      <c r="K26" s="140"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="129"/>
-      <c r="C27" s="130"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="130"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="130"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="130"/>
-      <c r="K27" s="131"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="142"/>
+      <c r="J27" s="142"/>
+      <c r="K27" s="143"/>
     </row>
     <row r="28" spans="2:11" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="132"/>
-      <c r="C28" s="133"/>
-      <c r="D28" s="133"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="133"/>
-      <c r="K28" s="134"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="145"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="145"/>
+      <c r="K28" s="146"/>
     </row>
     <row r="29" spans="2:11" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="60"/>
@@ -16806,18 +16913,18 @@
       <c r="J29" s="60"/>
     </row>
     <row r="30" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="154" t="s">
+      <c r="B30" s="147" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="155"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="155"/>
-      <c r="I30" s="155"/>
-      <c r="J30" s="155"/>
-      <c r="K30" s="156"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="149"/>
     </row>
     <row r="31" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="61"/>
@@ -16854,22 +16961,22 @@
       <c r="K33" s="61"/>
     </row>
     <row r="34" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="144" t="s">
+      <c r="B34" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="145"/>
-      <c r="D34" s="144" t="s">
+      <c r="C34" s="129"/>
+      <c r="D34" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="145"/>
-      <c r="F34" s="144" t="s">
+      <c r="E34" s="129"/>
+      <c r="F34" s="128" t="s">
         <v>106</v>
       </c>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="145"/>
+      <c r="G34" s="134"/>
+      <c r="H34" s="134"/>
+      <c r="I34" s="134"/>
+      <c r="J34" s="134"/>
+      <c r="K34" s="129"/>
     </row>
     <row r="35" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="62" t="s">
@@ -16878,16 +16985,16 @@
       <c r="C35" s="71">
         <v>225</v>
       </c>
-      <c r="D35" s="146" t="s">
+      <c r="D35" s="130" t="s">
         <v>165</v>
       </c>
-      <c r="E35" s="147"/>
-      <c r="F35" s="135"/>
-      <c r="G35" s="136"/>
-      <c r="H35" s="136"/>
-      <c r="I35" s="136"/>
-      <c r="J35" s="136"/>
-      <c r="K35" s="137"/>
+      <c r="E35" s="131"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="155"/>
+      <c r="H35" s="155"/>
+      <c r="I35" s="155"/>
+      <c r="J35" s="155"/>
+      <c r="K35" s="151"/>
     </row>
     <row r="36" spans="2:11" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="62" t="s">
@@ -16896,14 +17003,14 @@
       <c r="C36" s="70">
         <v>8.5</v>
       </c>
-      <c r="D36" s="148"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="135"/>
-      <c r="G36" s="136"/>
-      <c r="H36" s="136"/>
-      <c r="I36" s="136"/>
-      <c r="J36" s="136"/>
-      <c r="K36" s="137"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="133"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="155"/>
+      <c r="H36" s="155"/>
+      <c r="I36" s="155"/>
+      <c r="J36" s="155"/>
+      <c r="K36" s="151"/>
     </row>
     <row r="37" spans="2:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="62" t="s">
@@ -16912,16 +17019,16 @@
       <c r="C37" s="63">
         <v>6.75</v>
       </c>
-      <c r="D37" s="135"/>
-      <c r="E37" s="137"/>
-      <c r="F37" s="140" t="s">
+      <c r="D37" s="150"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="152" t="s">
         <v>111</v>
       </c>
-      <c r="G37" s="141"/>
-      <c r="H37" s="141"/>
-      <c r="I37" s="141"/>
-      <c r="J37" s="141"/>
-      <c r="K37" s="142"/>
+      <c r="G37" s="153"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="153"/>
+      <c r="J37" s="153"/>
+      <c r="K37" s="154"/>
     </row>
     <row r="38" spans="2:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="62" t="s">
@@ -16930,16 +17037,16 @@
       <c r="C38" s="63">
         <v>8.5</v>
       </c>
-      <c r="D38" s="135"/>
-      <c r="E38" s="137"/>
-      <c r="F38" s="140" t="s">
+      <c r="D38" s="150"/>
+      <c r="E38" s="151"/>
+      <c r="F38" s="152" t="s">
         <v>112</v>
       </c>
-      <c r="G38" s="141"/>
-      <c r="H38" s="141"/>
-      <c r="I38" s="141"/>
-      <c r="J38" s="141"/>
-      <c r="K38" s="142"/>
+      <c r="G38" s="153"/>
+      <c r="H38" s="153"/>
+      <c r="I38" s="153"/>
+      <c r="J38" s="153"/>
+      <c r="K38" s="154"/>
     </row>
     <row r="39" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="62" t="s">
@@ -16948,18 +17055,18 @@
       <c r="C39" s="63">
         <v>0</v>
       </c>
-      <c r="D39" s="138" t="s">
+      <c r="D39" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="139"/>
-      <c r="F39" s="140" t="s">
+      <c r="E39" s="127"/>
+      <c r="F39" s="152" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="141"/>
-      <c r="H39" s="141"/>
-      <c r="I39" s="141"/>
-      <c r="J39" s="141"/>
-      <c r="K39" s="142"/>
+      <c r="G39" s="153"/>
+      <c r="H39" s="153"/>
+      <c r="I39" s="153"/>
+      <c r="J39" s="153"/>
+      <c r="K39" s="154"/>
     </row>
     <row r="40" spans="2:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="62" t="s">
@@ -16968,18 +17075,18 @@
       <c r="C40" s="63">
         <v>1.75</v>
       </c>
-      <c r="D40" s="138" t="s">
+      <c r="D40" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="139"/>
-      <c r="F40" s="140" t="s">
+      <c r="E40" s="127"/>
+      <c r="F40" s="152" t="s">
         <v>117</v>
       </c>
-      <c r="G40" s="141"/>
-      <c r="H40" s="141"/>
-      <c r="I40" s="141"/>
-      <c r="J40" s="141"/>
-      <c r="K40" s="142"/>
+      <c r="G40" s="153"/>
+      <c r="H40" s="153"/>
+      <c r="I40" s="153"/>
+      <c r="J40" s="153"/>
+      <c r="K40" s="154"/>
     </row>
     <row r="41" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="62" t="s">
@@ -16988,18 +17095,18 @@
       <c r="C41" s="63">
         <v>1</v>
       </c>
-      <c r="D41" s="138" t="s">
+      <c r="D41" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="139"/>
-      <c r="F41" s="140" t="s">
+      <c r="E41" s="127"/>
+      <c r="F41" s="152" t="s">
         <v>110</v>
       </c>
-      <c r="G41" s="141"/>
-      <c r="H41" s="141"/>
-      <c r="I41" s="141"/>
-      <c r="J41" s="141"/>
-      <c r="K41" s="142"/>
+      <c r="G41" s="153"/>
+      <c r="H41" s="153"/>
+      <c r="I41" s="153"/>
+      <c r="J41" s="153"/>
+      <c r="K41" s="154"/>
     </row>
     <row r="42" spans="2:11" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="62" t="s">
@@ -17008,18 +17115,18 @@
       <c r="C42" s="63">
         <v>1.26</v>
       </c>
-      <c r="D42" s="138" t="s">
+      <c r="D42" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="139"/>
-      <c r="F42" s="140" t="s">
+      <c r="E42" s="127"/>
+      <c r="F42" s="152" t="s">
         <v>118</v>
       </c>
-      <c r="G42" s="141"/>
-      <c r="H42" s="141"/>
-      <c r="I42" s="141"/>
-      <c r="J42" s="141"/>
-      <c r="K42" s="142"/>
+      <c r="G42" s="153"/>
+      <c r="H42" s="153"/>
+      <c r="I42" s="153"/>
+      <c r="J42" s="153"/>
+      <c r="K42" s="154"/>
     </row>
     <row r="43" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="62" t="s">
@@ -17028,18 +17135,18 @@
       <c r="C43" s="63">
         <v>15.5</v>
       </c>
-      <c r="D43" s="138" t="s">
+      <c r="D43" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="139"/>
-      <c r="F43" s="140" t="s">
+      <c r="E43" s="127"/>
+      <c r="F43" s="152" t="s">
         <v>119</v>
       </c>
-      <c r="G43" s="141"/>
-      <c r="H43" s="141"/>
-      <c r="I43" s="141"/>
-      <c r="J43" s="141"/>
-      <c r="K43" s="142"/>
+      <c r="G43" s="153"/>
+      <c r="H43" s="153"/>
+      <c r="I43" s="153"/>
+      <c r="J43" s="153"/>
+      <c r="K43" s="154"/>
     </row>
     <row r="44" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="62" t="s">
@@ -17048,18 +17155,18 @@
       <c r="C44" s="63">
         <v>12.31</v>
       </c>
-      <c r="D44" s="138" t="s">
+      <c r="D44" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="139"/>
-      <c r="F44" s="140" t="s">
+      <c r="E44" s="127"/>
+      <c r="F44" s="152" t="s">
         <v>120</v>
       </c>
-      <c r="G44" s="141"/>
-      <c r="H44" s="141"/>
-      <c r="I44" s="141"/>
-      <c r="J44" s="141"/>
-      <c r="K44" s="142"/>
+      <c r="G44" s="153"/>
+      <c r="H44" s="153"/>
+      <c r="I44" s="153"/>
+      <c r="J44" s="153"/>
+      <c r="K44" s="154"/>
     </row>
     <row r="45" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="62" t="s">
@@ -17068,18 +17175,18 @@
       <c r="C45" s="63">
         <v>22.25</v>
       </c>
-      <c r="D45" s="138" t="s">
+      <c r="D45" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="139"/>
-      <c r="F45" s="135" t="s">
+      <c r="E45" s="127"/>
+      <c r="F45" s="150" t="s">
         <v>121</v>
       </c>
-      <c r="G45" s="136"/>
-      <c r="H45" s="136"/>
-      <c r="I45" s="136"/>
-      <c r="J45" s="136"/>
-      <c r="K45" s="137"/>
+      <c r="G45" s="155"/>
+      <c r="H45" s="155"/>
+      <c r="I45" s="155"/>
+      <c r="J45" s="155"/>
+      <c r="K45" s="151"/>
     </row>
     <row r="46" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="62" t="s">
@@ -17088,18 +17195,18 @@
       <c r="C46" s="63">
         <v>19.059999999999999</v>
       </c>
-      <c r="D46" s="138" t="s">
+      <c r="D46" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="139"/>
-      <c r="F46" s="135" t="s">
+      <c r="E46" s="127"/>
+      <c r="F46" s="150" t="s">
         <v>121</v>
       </c>
-      <c r="G46" s="136"/>
-      <c r="H46" s="136"/>
-      <c r="I46" s="136"/>
-      <c r="J46" s="136"/>
-      <c r="K46" s="137"/>
+      <c r="G46" s="155"/>
+      <c r="H46" s="155"/>
+      <c r="I46" s="155"/>
+      <c r="J46" s="155"/>
+      <c r="K46" s="151"/>
     </row>
     <row r="47" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="62" t="s">
@@ -17108,18 +17215,18 @@
       <c r="C47" s="63">
         <v>19.059999999999999</v>
       </c>
-      <c r="D47" s="138" t="s">
+      <c r="D47" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="139"/>
-      <c r="F47" s="135" t="s">
+      <c r="E47" s="127"/>
+      <c r="F47" s="150" t="s">
         <v>121</v>
       </c>
-      <c r="G47" s="136"/>
-      <c r="H47" s="136"/>
-      <c r="I47" s="136"/>
-      <c r="J47" s="136"/>
-      <c r="K47" s="137"/>
+      <c r="G47" s="155"/>
+      <c r="H47" s="155"/>
+      <c r="I47" s="155"/>
+      <c r="J47" s="155"/>
+      <c r="K47" s="151"/>
     </row>
     <row r="48" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="62" t="s">
@@ -17128,66 +17235,66 @@
       <c r="C48" s="63">
         <v>0.9</v>
       </c>
-      <c r="D48" s="138" t="s">
+      <c r="D48" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="139"/>
-      <c r="F48" s="135"/>
-      <c r="G48" s="136"/>
-      <c r="H48" s="136"/>
-      <c r="I48" s="136"/>
-      <c r="J48" s="136"/>
-      <c r="K48" s="137"/>
+      <c r="E48" s="127"/>
+      <c r="F48" s="150"/>
+      <c r="G48" s="155"/>
+      <c r="H48" s="155"/>
+      <c r="I48" s="155"/>
+      <c r="J48" s="155"/>
+      <c r="K48" s="151"/>
     </row>
     <row r="49" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="60"/>
       <c r="C49" s="60"/>
       <c r="D49" s="60"/>
       <c r="E49" s="60"/>
-      <c r="F49" s="123"/>
-      <c r="G49" s="124"/>
-      <c r="H49" s="124"/>
-      <c r="I49" s="124"/>
-      <c r="J49" s="124"/>
-      <c r="K49" s="125"/>
+      <c r="F49" s="156"/>
+      <c r="G49" s="157"/>
+      <c r="H49" s="157"/>
+      <c r="I49" s="157"/>
+      <c r="J49" s="157"/>
+      <c r="K49" s="158"/>
     </row>
     <row r="50" spans="2:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="126" t="s">
+      <c r="B50" s="138" t="s">
         <v>113</v>
       </c>
-      <c r="C50" s="127"/>
-      <c r="D50" s="127"/>
-      <c r="E50" s="127"/>
-      <c r="F50" s="127"/>
-      <c r="G50" s="127"/>
-      <c r="H50" s="127"/>
-      <c r="I50" s="127"/>
-      <c r="J50" s="127"/>
-      <c r="K50" s="128"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="139"/>
+      <c r="F50" s="139"/>
+      <c r="G50" s="139"/>
+      <c r="H50" s="139"/>
+      <c r="I50" s="139"/>
+      <c r="J50" s="139"/>
+      <c r="K50" s="140"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B51" s="129"/>
-      <c r="C51" s="130"/>
-      <c r="D51" s="130"/>
-      <c r="E51" s="130"/>
-      <c r="F51" s="130"/>
-      <c r="G51" s="130"/>
-      <c r="H51" s="130"/>
-      <c r="I51" s="130"/>
-      <c r="J51" s="130"/>
-      <c r="K51" s="131"/>
+      <c r="B51" s="141"/>
+      <c r="C51" s="142"/>
+      <c r="D51" s="142"/>
+      <c r="E51" s="142"/>
+      <c r="F51" s="142"/>
+      <c r="G51" s="142"/>
+      <c r="H51" s="142"/>
+      <c r="I51" s="142"/>
+      <c r="J51" s="142"/>
+      <c r="K51" s="143"/>
     </row>
     <row r="52" spans="2:11" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="132"/>
-      <c r="C52" s="133"/>
-      <c r="D52" s="133"/>
-      <c r="E52" s="133"/>
-      <c r="F52" s="133"/>
-      <c r="G52" s="133"/>
-      <c r="H52" s="133"/>
-      <c r="I52" s="133"/>
-      <c r="J52" s="133"/>
-      <c r="K52" s="134"/>
+      <c r="B52" s="144"/>
+      <c r="C52" s="145"/>
+      <c r="D52" s="145"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="145"/>
+      <c r="G52" s="145"/>
+      <c r="H52" s="145"/>
+      <c r="I52" s="145"/>
+      <c r="J52" s="145"/>
+      <c r="K52" s="146"/>
     </row>
     <row r="53" spans="2:11" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="61"/>
@@ -17242,6 +17349,31 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="F49:K49"/>
+    <mergeCell ref="B50:K52"/>
+    <mergeCell ref="F47:K47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:K48"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:K43"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="F38:K38"/>
+    <mergeCell ref="F39:K39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F40:K40"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="F37:K37"/>
+    <mergeCell ref="F44:K44"/>
+    <mergeCell ref="F45:K45"/>
+    <mergeCell ref="F46:K46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="B34:C34"/>
@@ -17256,31 +17388,6 @@
     <mergeCell ref="B30:K30"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F44:K44"/>
-    <mergeCell ref="F45:K45"/>
-    <mergeCell ref="F46:K46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:K43"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="F36:K36"/>
-    <mergeCell ref="F38:K38"/>
-    <mergeCell ref="F39:K39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F40:K40"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="F37:K37"/>
-    <mergeCell ref="F49:K49"/>
-    <mergeCell ref="B50:K52"/>
-    <mergeCell ref="F47:K47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:K48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -17309,98 +17416,98 @@
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="125" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
     </row>
     <row r="3" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="135" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="137"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="135" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="153"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="137"/>
     </row>
     <row r="5" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="135" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="153"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="137"/>
     </row>
     <row r="25" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="126" t="s">
+      <c r="B26" s="138" t="s">
         <v>169</v>
       </c>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="128"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="140"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="129"/>
-      <c r="C27" s="130"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="130"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="130"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="131"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="142"/>
+      <c r="J27" s="143"/>
     </row>
     <row r="28" spans="2:10" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="132"/>
-      <c r="C28" s="133"/>
-      <c r="D28" s="133"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="134"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="145"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="146"/>
     </row>
     <row r="29" spans="2:10" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="60"/>
@@ -17413,17 +17520,17 @@
       <c r="I29" s="60"/>
     </row>
     <row r="30" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="154" t="s">
+      <c r="B30" s="147" t="s">
         <v>166</v>
       </c>
-      <c r="C30" s="155"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="155"/>
-      <c r="I30" s="155"/>
-      <c r="J30" s="156"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="149"/>
     </row>
     <row r="31" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="61"/>
@@ -17457,21 +17564,21 @@
       <c r="J33" s="61"/>
     </row>
     <row r="34" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="144" t="s">
+      <c r="B34" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="145"/>
+      <c r="C34" s="129"/>
       <c r="D34" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="144" t="s">
+      <c r="E34" s="128" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="145"/>
+      <c r="F34" s="134"/>
+      <c r="G34" s="134"/>
+      <c r="H34" s="134"/>
+      <c r="I34" s="134"/>
+      <c r="J34" s="129"/>
     </row>
     <row r="35" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="84" t="s">
@@ -17483,12 +17590,12 @@
       <c r="D35" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="E35" s="160"/>
-      <c r="F35" s="160"/>
-      <c r="G35" s="160"/>
-      <c r="H35" s="160"/>
-      <c r="I35" s="160"/>
-      <c r="J35" s="160"/>
+      <c r="E35" s="161"/>
+      <c r="F35" s="161"/>
+      <c r="G35" s="161"/>
+      <c r="H35" s="161"/>
+      <c r="I35" s="161"/>
+      <c r="J35" s="161"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="84" t="s">
@@ -17499,12 +17606,12 @@
         <v>0</v>
       </c>
       <c r="D36" s="87"/>
-      <c r="E36" s="160"/>
-      <c r="F36" s="160"/>
-      <c r="G36" s="160"/>
-      <c r="H36" s="160"/>
-      <c r="I36" s="160"/>
-      <c r="J36" s="160"/>
+      <c r="E36" s="161"/>
+      <c r="F36" s="161"/>
+      <c r="G36" s="161"/>
+      <c r="H36" s="161"/>
+      <c r="I36" s="161"/>
+      <c r="J36" s="161"/>
     </row>
     <row r="37" spans="2:10" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="84" t="s">
@@ -17515,14 +17622,14 @@
         <v>0</v>
       </c>
       <c r="D37" s="88"/>
-      <c r="E37" s="161" t="s">
+      <c r="E37" s="159" t="s">
         <v>171</v>
       </c>
-      <c r="F37" s="162"/>
-      <c r="G37" s="162"/>
-      <c r="H37" s="162"/>
-      <c r="I37" s="162"/>
-      <c r="J37" s="162"/>
+      <c r="F37" s="160"/>
+      <c r="G37" s="160"/>
+      <c r="H37" s="160"/>
+      <c r="I37" s="160"/>
+      <c r="J37" s="160"/>
     </row>
     <row r="38" spans="2:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="84" t="s">
@@ -17533,14 +17640,14 @@
         <v>0</v>
       </c>
       <c r="D38" s="88"/>
-      <c r="E38" s="161" t="s">
+      <c r="E38" s="159" t="s">
         <v>174</v>
       </c>
-      <c r="F38" s="162"/>
-      <c r="G38" s="162"/>
-      <c r="H38" s="162"/>
-      <c r="I38" s="162"/>
-      <c r="J38" s="162"/>
+      <c r="F38" s="160"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="160"/>
+      <c r="I38" s="160"/>
+      <c r="J38" s="160"/>
     </row>
     <row r="39" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="84" t="s">
@@ -17553,14 +17660,14 @@
       <c r="D39" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="161" t="s">
+      <c r="E39" s="159" t="s">
         <v>109</v>
       </c>
-      <c r="F39" s="162"/>
-      <c r="G39" s="162"/>
-      <c r="H39" s="162"/>
-      <c r="I39" s="162"/>
-      <c r="J39" s="162"/>
+      <c r="F39" s="160"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="160"/>
+      <c r="I39" s="160"/>
+      <c r="J39" s="160"/>
     </row>
     <row r="40" spans="2:10" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="84" t="s">
@@ -17573,14 +17680,14 @@
       <c r="D40" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="161" t="s">
+      <c r="E40" s="159" t="s">
         <v>173</v>
       </c>
-      <c r="F40" s="162"/>
-      <c r="G40" s="162"/>
-      <c r="H40" s="162"/>
-      <c r="I40" s="162"/>
-      <c r="J40" s="162"/>
+      <c r="F40" s="160"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="160"/>
+      <c r="I40" s="160"/>
+      <c r="J40" s="160"/>
     </row>
     <row r="41" spans="2:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="84" t="s">
@@ -17593,14 +17700,14 @@
       <c r="D41" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="161" t="s">
+      <c r="E41" s="159" t="s">
         <v>172</v>
       </c>
-      <c r="F41" s="162"/>
-      <c r="G41" s="162"/>
-      <c r="H41" s="162"/>
-      <c r="I41" s="162"/>
-      <c r="J41" s="162"/>
+      <c r="F41" s="160"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="160"/>
+      <c r="I41" s="160"/>
+      <c r="J41" s="160"/>
     </row>
     <row r="42" spans="2:10" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="84" t="s">
@@ -17613,14 +17720,14 @@
       <c r="D42" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="161" t="s">
+      <c r="E42" s="159" t="s">
         <v>175</v>
       </c>
-      <c r="F42" s="162"/>
-      <c r="G42" s="162"/>
-      <c r="H42" s="162"/>
-      <c r="I42" s="162"/>
-      <c r="J42" s="162"/>
+      <c r="F42" s="160"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="160"/>
+      <c r="I42" s="160"/>
+      <c r="J42" s="160"/>
     </row>
     <row r="43" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="84" t="s">
@@ -17633,14 +17740,14 @@
       <c r="D43" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="161" t="s">
+      <c r="E43" s="159" t="s">
         <v>176</v>
       </c>
-      <c r="F43" s="162"/>
-      <c r="G43" s="162"/>
-      <c r="H43" s="162"/>
-      <c r="I43" s="162"/>
-      <c r="J43" s="162"/>
+      <c r="F43" s="160"/>
+      <c r="G43" s="160"/>
+      <c r="H43" s="160"/>
+      <c r="I43" s="160"/>
+      <c r="J43" s="160"/>
     </row>
     <row r="44" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="84" t="s">
@@ -17652,14 +17759,14 @@
       <c r="D44" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="161" t="s">
+      <c r="E44" s="159" t="s">
         <v>120</v>
       </c>
-      <c r="F44" s="162"/>
-      <c r="G44" s="162"/>
-      <c r="H44" s="162"/>
-      <c r="I44" s="162"/>
-      <c r="J44" s="162"/>
+      <c r="F44" s="160"/>
+      <c r="G44" s="160"/>
+      <c r="H44" s="160"/>
+      <c r="I44" s="160"/>
+      <c r="J44" s="160"/>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="84" t="s">
@@ -17672,14 +17779,14 @@
       <c r="D45" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="160" t="s">
+      <c r="E45" s="161" t="s">
         <v>121</v>
       </c>
-      <c r="F45" s="160"/>
-      <c r="G45" s="160"/>
-      <c r="H45" s="160"/>
-      <c r="I45" s="160"/>
-      <c r="J45" s="160"/>
+      <c r="F45" s="161"/>
+      <c r="G45" s="161"/>
+      <c r="H45" s="161"/>
+      <c r="I45" s="161"/>
+      <c r="J45" s="161"/>
     </row>
     <row r="46" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="84" t="s">
@@ -17691,14 +17798,14 @@
       <c r="D46" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="160" t="s">
+      <c r="E46" s="161" t="s">
         <v>121</v>
       </c>
-      <c r="F46" s="160"/>
-      <c r="G46" s="160"/>
-      <c r="H46" s="160"/>
-      <c r="I46" s="160"/>
-      <c r="J46" s="160"/>
+      <c r="F46" s="161"/>
+      <c r="G46" s="161"/>
+      <c r="H46" s="161"/>
+      <c r="I46" s="161"/>
+      <c r="J46" s="161"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="84" t="s">
@@ -17710,14 +17817,14 @@
       <c r="D47" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="160" t="s">
+      <c r="E47" s="161" t="s">
         <v>121</v>
       </c>
-      <c r="F47" s="160"/>
-      <c r="G47" s="160"/>
-      <c r="H47" s="160"/>
-      <c r="I47" s="160"/>
-      <c r="J47" s="160"/>
+      <c r="F47" s="161"/>
+      <c r="G47" s="161"/>
+      <c r="H47" s="161"/>
+      <c r="I47" s="161"/>
+      <c r="J47" s="161"/>
     </row>
     <row r="48" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="84" t="s">
@@ -17730,58 +17837,58 @@
       <c r="D48" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="160"/>
-      <c r="F48" s="160"/>
-      <c r="G48" s="160"/>
-      <c r="H48" s="160"/>
-      <c r="I48" s="160"/>
-      <c r="J48" s="160"/>
+      <c r="E48" s="161"/>
+      <c r="F48" s="161"/>
+      <c r="G48" s="161"/>
+      <c r="H48" s="161"/>
+      <c r="I48" s="161"/>
+      <c r="J48" s="161"/>
     </row>
     <row r="49" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="83"/>
       <c r="C49" s="83"/>
       <c r="D49" s="83"/>
-      <c r="E49" s="157"/>
-      <c r="F49" s="158"/>
-      <c r="G49" s="158"/>
-      <c r="H49" s="158"/>
-      <c r="I49" s="158"/>
-      <c r="J49" s="159"/>
+      <c r="E49" s="162"/>
+      <c r="F49" s="163"/>
+      <c r="G49" s="163"/>
+      <c r="H49" s="163"/>
+      <c r="I49" s="163"/>
+      <c r="J49" s="164"/>
     </row>
     <row r="50" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="126" t="s">
+      <c r="B50" s="138" t="s">
         <v>170</v>
       </c>
-      <c r="C50" s="127"/>
-      <c r="D50" s="127"/>
-      <c r="E50" s="127"/>
-      <c r="F50" s="127"/>
-      <c r="G50" s="127"/>
-      <c r="H50" s="127"/>
-      <c r="I50" s="127"/>
-      <c r="J50" s="128"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="139"/>
+      <c r="F50" s="139"/>
+      <c r="G50" s="139"/>
+      <c r="H50" s="139"/>
+      <c r="I50" s="139"/>
+      <c r="J50" s="140"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="129"/>
-      <c r="C51" s="130"/>
-      <c r="D51" s="130"/>
-      <c r="E51" s="130"/>
-      <c r="F51" s="130"/>
-      <c r="G51" s="130"/>
-      <c r="H51" s="130"/>
-      <c r="I51" s="130"/>
-      <c r="J51" s="131"/>
+      <c r="B51" s="141"/>
+      <c r="C51" s="142"/>
+      <c r="D51" s="142"/>
+      <c r="E51" s="142"/>
+      <c r="F51" s="142"/>
+      <c r="G51" s="142"/>
+      <c r="H51" s="142"/>
+      <c r="I51" s="142"/>
+      <c r="J51" s="143"/>
     </row>
     <row r="52" spans="2:10" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="132"/>
-      <c r="C52" s="133"/>
-      <c r="D52" s="133"/>
-      <c r="E52" s="133"/>
-      <c r="F52" s="133"/>
-      <c r="G52" s="133"/>
-      <c r="H52" s="133"/>
-      <c r="I52" s="133"/>
-      <c r="J52" s="134"/>
+      <c r="B52" s="144"/>
+      <c r="C52" s="145"/>
+      <c r="D52" s="145"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="145"/>
+      <c r="G52" s="145"/>
+      <c r="H52" s="145"/>
+      <c r="I52" s="145"/>
+      <c r="J52" s="146"/>
     </row>
     <row r="53" spans="2:10" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="61"/>
@@ -17830,12 +17937,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B26:J28"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="B50:J52"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="E45:J45"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
     <mergeCell ref="E37:J37"/>
     <mergeCell ref="E38:J38"/>
     <mergeCell ref="E39:J39"/>
@@ -17843,17 +17955,12 @@
     <mergeCell ref="E34:J34"/>
     <mergeCell ref="E35:J35"/>
     <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="E45:J45"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="B50:J52"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B26:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
